--- a/JupyterNotebooks/AvgHW/GossA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,37 +82,37 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
+  </si>
+  <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +500,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +573,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +582,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,37 +653,37 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1.00258887034924</v>
+      </c>
+      <c r="D3">
+        <v>0.9976091615459117</v>
+      </c>
+      <c r="E3">
         <v>1.07464665953904</v>
-      </c>
-      <c r="D3">
-        <v>1.03600041320105</v>
-      </c>
-      <c r="E3">
-        <v>1.005276975179548</v>
       </c>
       <c r="F3">
         <v>1.07464665953904</v>
       </c>
       <c r="G3">
-        <v>0.9976091615459117</v>
+        <v>1.00275216922602</v>
       </c>
       <c r="H3">
-        <v>1.00258887034924</v>
+        <v>1.004971985811638</v>
       </c>
       <c r="I3">
-        <v>1.07464665953904</v>
+        <v>0.9667967112629138</v>
       </c>
       <c r="J3">
         <v>1.03600041320105</v>
       </c>
       <c r="K3">
-        <v>0.9667967112629138</v>
+        <v>1.07464665953904</v>
       </c>
       <c r="L3">
-        <v>1.004971985811638</v>
+        <v>1.03600041320105</v>
       </c>
       <c r="M3">
-        <v>1.00275216922602</v>
+        <v>1.005276975179548</v>
       </c>
       <c r="N3">
         <v>1.07464665953904</v>
@@ -749,7 +701,7 @@
         <v>1.038641349306546</v>
       </c>
       <c r="S3">
-        <v>1.012962183308837</v>
+        <v>1.012962183308836</v>
       </c>
       <c r="T3">
         <v>1.038641349306546</v>
@@ -764,7 +716,7 @@
         <v>1.01133036826442</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,37 +724,37 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>1.004080251605465</v>
+      </c>
+      <c r="D4">
+        <v>0.9941866367470358</v>
+      </c>
+      <c r="E4">
         <v>1.141933910465841</v>
-      </c>
-      <c r="D4">
-        <v>1.067304768508322</v>
-      </c>
-      <c r="E4">
-        <v>1.005414003669555</v>
       </c>
       <c r="F4">
         <v>1.141933910465841</v>
       </c>
       <c r="G4">
-        <v>0.9941866367470358</v>
+        <v>1.00589683376951</v>
       </c>
       <c r="H4">
-        <v>1.004080251605465</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="I4">
-        <v>1.141933910465841</v>
+        <v>0.9387568670753368</v>
       </c>
       <c r="J4">
         <v>1.067304768508322</v>
       </c>
       <c r="K4">
-        <v>0.9387568670753368</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="L4">
-        <v>1.012508622009755</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="M4">
-        <v>1.00589683376951</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="N4">
         <v>1.141933910465841</v>
@@ -835,7 +787,7 @@
         <v>1.021260236731353</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,37 +795,37 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>1.020479206332762</v>
+      </c>
+      <c r="D5">
+        <v>0.9949655897584324</v>
+      </c>
+      <c r="E5">
         <v>1.280146591999447</v>
-      </c>
-      <c r="D5">
-        <v>1.136261537240609</v>
-      </c>
-      <c r="E5">
-        <v>1.024006648125157</v>
       </c>
       <c r="F5">
         <v>1.280146591999447</v>
       </c>
       <c r="G5">
-        <v>0.9949655897584324</v>
+        <v>1.014612439468263</v>
       </c>
       <c r="H5">
-        <v>1.020479206332762</v>
+        <v>1.025447724311187</v>
       </c>
       <c r="I5">
-        <v>1.280146591999447</v>
+        <v>0.8853599613988138</v>
       </c>
       <c r="J5">
         <v>1.136261537240609</v>
       </c>
       <c r="K5">
-        <v>0.8853599613988138</v>
+        <v>1.280146591999447</v>
       </c>
       <c r="L5">
-        <v>1.025447724311187</v>
+        <v>1.136261537240609</v>
       </c>
       <c r="M5">
-        <v>1.014612439468263</v>
+        <v>1.024006648125157</v>
       </c>
       <c r="N5">
         <v>1.280146591999447</v>
@@ -906,7 +858,7 @@
         <v>1.047659962329334</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,37 +866,37 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>1.027698505207559</v>
+      </c>
+      <c r="D6">
+        <v>1.075450033364334</v>
+      </c>
+      <c r="E6">
         <v>1.503450978919303</v>
-      </c>
-      <c r="D6">
-        <v>1.276797081617945</v>
-      </c>
-      <c r="E6">
-        <v>1.111510178399358</v>
       </c>
       <c r="F6">
         <v>1.503450978919303</v>
       </c>
       <c r="G6">
-        <v>1.075450033364334</v>
+        <v>1.024091147947485</v>
       </c>
       <c r="H6">
-        <v>1.027698505207559</v>
+        <v>0.9752732093789623</v>
       </c>
       <c r="I6">
-        <v>1.503450978919303</v>
+        <v>0.7801431576943801</v>
       </c>
       <c r="J6">
         <v>1.276797081617945</v>
       </c>
       <c r="K6">
-        <v>0.7801431576943801</v>
+        <v>1.503450978919303</v>
       </c>
       <c r="L6">
-        <v>0.9752732093789624</v>
+        <v>1.276797081617945</v>
       </c>
       <c r="M6">
-        <v>1.024091147947485</v>
+        <v>1.111510178399358</v>
       </c>
       <c r="N6">
         <v>1.503450978919303</v>
@@ -953,7 +905,7 @@
         <v>1.111510178399358</v>
       </c>
       <c r="P6">
-        <v>1.194153630008652</v>
+        <v>1.194153630008651</v>
       </c>
       <c r="Q6">
         <v>1.093480105881846</v>
@@ -977,7 +929,7 @@
         <v>1.096801786566166</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,61 +937,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9985761432212137</v>
+        <v>1.001245872009956</v>
       </c>
       <c r="D7">
-        <v>1.00104895295471</v>
+        <v>0.9988328950677939</v>
       </c>
       <c r="E7">
+        <v>0.9985761432212134</v>
+      </c>
+      <c r="F7">
+        <v>0.9985761432212134</v>
+      </c>
+      <c r="G7">
+        <v>0.9990860013351089</v>
+      </c>
+      <c r="H7">
+        <v>0.998886913608574</v>
+      </c>
+      <c r="I7">
+        <v>0.9996406599469811</v>
+      </c>
+      <c r="J7">
+        <v>1.001048952954709</v>
+      </c>
+      <c r="K7">
+        <v>0.9985761432212134</v>
+      </c>
+      <c r="L7">
+        <v>1.001048952954709</v>
+      </c>
+      <c r="M7">
         <v>1.006521569453629</v>
       </c>
-      <c r="F7">
-        <v>0.9985761432212137</v>
-      </c>
-      <c r="G7">
-        <v>0.9988328950677954</v>
-      </c>
-      <c r="H7">
-        <v>1.001245872009956</v>
-      </c>
-      <c r="I7">
-        <v>0.9985761432212137</v>
-      </c>
-      <c r="J7">
-        <v>1.00104895295471</v>
-      </c>
-      <c r="K7">
-        <v>0.9996406599469811</v>
-      </c>
-      <c r="L7">
-        <v>0.9988869136085736</v>
-      </c>
-      <c r="M7">
-        <v>0.9990860013351095</v>
-      </c>
       <c r="N7">
-        <v>0.9985761432212137</v>
+        <v>0.9985761432212134</v>
       </c>
       <c r="O7">
         <v>1.006521569453629</v>
       </c>
       <c r="P7">
-        <v>1.00378526120417</v>
+        <v>1.003785261204169</v>
       </c>
       <c r="Q7">
-        <v>1.002677232260712</v>
+        <v>1.002677232260711</v>
       </c>
       <c r="R7">
         <v>1.002048888543184</v>
       </c>
       <c r="S7">
-        <v>1.002134472492045</v>
+        <v>1.002134472492044</v>
       </c>
       <c r="T7">
         <v>1.002048888543184</v>
       </c>
       <c r="U7">
-        <v>1.001244890174337</v>
+        <v>1.001244890174336</v>
       </c>
       <c r="V7">
         <v>1.000711140783712</v>
@@ -1048,7 +1000,7 @@
         <v>1.000479875949746</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,61 +1008,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9964548033553059</v>
+        <v>1.002800780393016</v>
       </c>
       <c r="D8">
-        <v>1.005798931538654</v>
+        <v>0.9961266680433496</v>
       </c>
       <c r="E8">
+        <v>0.9964548033553053</v>
+      </c>
+      <c r="F8">
+        <v>0.9964548033553053</v>
+      </c>
+      <c r="G8">
+        <v>0.997913401022997</v>
+      </c>
+      <c r="H8">
+        <v>0.9964841532641266</v>
+      </c>
+      <c r="I8">
+        <v>0.9998601342432211</v>
+      </c>
+      <c r="J8">
+        <v>1.005798931538653</v>
+      </c>
+      <c r="K8">
+        <v>0.9964548033553053</v>
+      </c>
+      <c r="L8">
+        <v>1.005798931538653</v>
+      </c>
+      <c r="M8">
         <v>1.013853706632245</v>
       </c>
-      <c r="F8">
-        <v>0.9964548033553059</v>
-      </c>
-      <c r="G8">
-        <v>0.9961266680433499</v>
-      </c>
-      <c r="H8">
-        <v>1.002800780393017</v>
-      </c>
-      <c r="I8">
-        <v>0.9964548033553059</v>
-      </c>
-      <c r="J8">
-        <v>1.005798931538654</v>
-      </c>
-      <c r="K8">
-        <v>0.9998601342432198</v>
-      </c>
-      <c r="L8">
-        <v>0.9964841532641274</v>
-      </c>
-      <c r="M8">
-        <v>0.9979134010229965</v>
-      </c>
       <c r="N8">
-        <v>0.9964548033553059</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="O8">
         <v>1.013853706632245</v>
       </c>
       <c r="P8">
-        <v>1.00982631908545</v>
+        <v>1.009826319085449</v>
       </c>
       <c r="Q8">
         <v>1.004990187337798</v>
       </c>
       <c r="R8">
-        <v>1.005369147175402</v>
+        <v>1.005369147175401</v>
       </c>
       <c r="S8">
         <v>1.005259768738083</v>
       </c>
       <c r="T8">
-        <v>1.005369147175402</v>
+        <v>1.005369147175401</v>
       </c>
       <c r="U8">
-        <v>1.003058527392389</v>
+        <v>1.003058527392388</v>
       </c>
       <c r="V8">
         <v>1.001737782584972</v>
@@ -1119,7 +1071,7 @@
         <v>1.001161572311614</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,37 +1079,37 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.003150514330919</v>
+      </c>
+      <c r="D9">
+        <v>0.9956823879800555</v>
+      </c>
+      <c r="E9">
         <v>0.9953877755528782</v>
-      </c>
-      <c r="D9">
-        <v>1.014034029728343</v>
-      </c>
-      <c r="E9">
-        <v>1.017333196793282</v>
       </c>
       <c r="F9">
         <v>0.9953877755528782</v>
       </c>
       <c r="G9">
-        <v>0.9956823879800555</v>
+        <v>0.9988744502464652</v>
       </c>
       <c r="H9">
-        <v>1.003150514330919</v>
+        <v>0.9954910294956575</v>
       </c>
       <c r="I9">
-        <v>0.9953877755528782</v>
+        <v>0.9987466172221708</v>
       </c>
       <c r="J9">
         <v>1.014034029728343</v>
       </c>
       <c r="K9">
-        <v>0.9987466172221711</v>
+        <v>0.9953877755528782</v>
       </c>
       <c r="L9">
-        <v>0.9954910294956575</v>
+        <v>1.014034029728343</v>
       </c>
       <c r="M9">
-        <v>0.9988744502464652</v>
+        <v>1.017333196793282</v>
       </c>
       <c r="N9">
         <v>0.9953877755528782</v>
@@ -1166,19 +1118,19 @@
         <v>1.017333196793282</v>
       </c>
       <c r="P9">
-        <v>1.015683613260813</v>
+        <v>1.015683613260812</v>
       </c>
       <c r="Q9">
         <v>1.006507792386669</v>
       </c>
       <c r="R9">
-        <v>1.008918334024835</v>
+        <v>1.008918334024834</v>
       </c>
       <c r="S9">
         <v>1.009016538167227</v>
       </c>
       <c r="T9">
-        <v>1.008918334024835</v>
+        <v>1.008918334024834</v>
       </c>
       <c r="U9">
         <v>1.00560934751364</v>
@@ -1187,10 +1139,10 @@
         <v>1.003565033121487</v>
       </c>
       <c r="W9">
-        <v>1.002337500168722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.002337500168721</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,37 +1150,37 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.007274092685418</v>
+      </c>
+      <c r="D10">
+        <v>0.9905319988822575</v>
+      </c>
+      <c r="E10">
         <v>0.9902930159431937</v>
-      </c>
-      <c r="D10">
-        <v>1.024586214661496</v>
-      </c>
-      <c r="E10">
-        <v>1.041339981610421</v>
       </c>
       <c r="F10">
         <v>0.9902930159431937</v>
       </c>
       <c r="G10">
-        <v>0.9905319988822575</v>
+        <v>0.9959269736994799</v>
       </c>
       <c r="H10">
-        <v>1.007274092685418</v>
+        <v>0.9901345802959458</v>
       </c>
       <c r="I10">
-        <v>0.9902930159431937</v>
+        <v>0.9975805539792593</v>
       </c>
       <c r="J10">
         <v>1.024586214661496</v>
       </c>
       <c r="K10">
-        <v>0.9975805539792596</v>
+        <v>0.9902930159431937</v>
       </c>
       <c r="L10">
-        <v>0.9901345802959458</v>
+        <v>1.024586214661496</v>
       </c>
       <c r="M10">
-        <v>0.9959269736994799</v>
+        <v>1.041339981610421</v>
       </c>
       <c r="N10">
         <v>0.9902930159431937</v>
@@ -1261,7 +1213,7 @@
         <v>1.004708426469684</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,37 +1221,37 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.013321958017889</v>
+      </c>
+      <c r="D11">
+        <v>0.9828173365193058</v>
+      </c>
+      <c r="E11">
         <v>0.9841786959919395</v>
-      </c>
-      <c r="D11">
-        <v>1.059735053009184</v>
-      </c>
-      <c r="E11">
-        <v>1.059869219165151</v>
       </c>
       <c r="F11">
         <v>0.9841786959919395</v>
       </c>
       <c r="G11">
-        <v>0.9828173365193054</v>
+        <v>0.9968544533038287</v>
       </c>
       <c r="H11">
-        <v>1.013321958017889</v>
+        <v>0.9834437710370558</v>
       </c>
       <c r="I11">
-        <v>0.9841786959919395</v>
+        <v>0.9931159148817466</v>
       </c>
       <c r="J11">
         <v>1.059735053009184</v>
       </c>
       <c r="K11">
-        <v>0.9931159148817466</v>
+        <v>0.9841786959919395</v>
       </c>
       <c r="L11">
-        <v>0.9834437710370559</v>
+        <v>1.059735053009184</v>
       </c>
       <c r="M11">
-        <v>0.9968544533038285</v>
+        <v>1.059869219165151</v>
       </c>
       <c r="N11">
         <v>0.9841786959919395</v>
@@ -1332,7 +1284,7 @@
         <v>1.009167050240763</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,52 +1292,52 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6839215333004275</v>
+        <v>0.7944825319457682</v>
       </c>
       <c r="D12">
-        <v>0.3218313991703866</v>
+        <v>1.369369559480381</v>
       </c>
       <c r="E12">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="F12">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="G12">
+        <v>1.066947658021112</v>
+      </c>
+      <c r="H12">
+        <v>1.351068282767972</v>
+      </c>
+      <c r="I12">
+        <v>1.052140554690341</v>
+      </c>
+      <c r="J12">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="K12">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="L12">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="M12">
         <v>0.4737304055118667</v>
       </c>
-      <c r="F12">
-        <v>0.6839215333004275</v>
-      </c>
-      <c r="G12">
-        <v>1.36936955948038</v>
-      </c>
-      <c r="H12">
-        <v>0.7944825319457682</v>
-      </c>
-      <c r="I12">
-        <v>0.6839215333004275</v>
-      </c>
-      <c r="J12">
-        <v>0.3218313991703866</v>
-      </c>
-      <c r="K12">
-        <v>1.052140554690342</v>
-      </c>
-      <c r="L12">
-        <v>1.351068282767971</v>
-      </c>
-      <c r="M12">
-        <v>1.066947658021112</v>
-      </c>
       <c r="N12">
-        <v>0.6839215333004275</v>
+        <v>0.6839215333004276</v>
       </c>
       <c r="O12">
         <v>0.4737304055118667</v>
       </c>
       <c r="P12">
-        <v>0.3977809023411267</v>
+        <v>0.3977809023411265</v>
       </c>
       <c r="Q12">
-        <v>0.9215499824961235</v>
+        <v>0.9215499824961236</v>
       </c>
       <c r="R12">
-        <v>0.4931611126608936</v>
+        <v>0.4931611126608935</v>
       </c>
       <c r="S12">
         <v>0.7216437880542111</v>
@@ -1403,7 +1355,7 @@
         <v>0.8891864906110317</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,37 +1363,37 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>1.223465880021654</v>
+      </c>
+      <c r="D13">
+        <v>0.4599217185580263</v>
+      </c>
+      <c r="E13">
         <v>1.5747027242848</v>
-      </c>
-      <c r="D13">
-        <v>1.713282696435615</v>
-      </c>
-      <c r="E13">
-        <v>1.552298692499595</v>
       </c>
       <c r="F13">
         <v>1.5747027242848</v>
       </c>
       <c r="G13">
-        <v>0.4599217185580263</v>
+        <v>0.9419378417876704</v>
       </c>
       <c r="H13">
-        <v>1.223465880021655</v>
+        <v>0.4915436637177757</v>
       </c>
       <c r="I13">
-        <v>1.5747027242848</v>
+        <v>1.006071256734195</v>
       </c>
       <c r="J13">
         <v>1.713282696435615</v>
       </c>
       <c r="K13">
-        <v>1.006071256734195</v>
+        <v>1.5747027242848</v>
       </c>
       <c r="L13">
-        <v>0.4915436637177756</v>
+        <v>1.713282696435615</v>
       </c>
       <c r="M13">
-        <v>0.9419378417876705</v>
+        <v>1.552298692499595</v>
       </c>
       <c r="N13">
         <v>1.5747027242848</v>
@@ -1474,7 +1426,7 @@
         <v>1.120403059254917</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,43 +1434,43 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.000597170477148994</v>
+        <v>0.02136135548971019</v>
       </c>
       <c r="D14">
-        <v>4.958971238726513</v>
+        <v>1.303541453734514</v>
       </c>
       <c r="E14">
-        <v>0.04487560622477395</v>
+        <v>0.000597170477148993</v>
       </c>
       <c r="F14">
-        <v>0.000597170477148994</v>
+        <v>0.000597170477148993</v>
       </c>
       <c r="G14">
-        <v>1.303541453734514</v>
+        <v>3.039243718857056</v>
       </c>
       <c r="H14">
-        <v>0.02136135548971021</v>
+        <v>0.209749771944535</v>
       </c>
       <c r="I14">
-        <v>0.0005971704771488308</v>
+        <v>1.119530140244971</v>
       </c>
       <c r="J14">
-        <v>4.958971238726513</v>
+        <v>4.958971238726512</v>
       </c>
       <c r="K14">
-        <v>1.119530140244971</v>
+        <v>0.0005971704771488298</v>
       </c>
       <c r="L14">
-        <v>0.2097497719445351</v>
+        <v>4.958971238726512</v>
       </c>
       <c r="M14">
-        <v>3.039243718857056</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="N14">
-        <v>0.000597170477148994</v>
+        <v>0.000597170477148993</v>
       </c>
       <c r="O14">
-        <v>0.04487560622477395</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="P14">
         <v>2.501923422475643</v>
@@ -1536,7 +1488,7 @@
         <v>1.668148005142812</v>
       </c>
       <c r="U14">
-        <v>1.576996367290738</v>
+        <v>1.576996367290737</v>
       </c>
       <c r="V14">
         <v>1.26171652792802</v>
@@ -1545,7 +1497,7 @@
         <v>1.337233806962403</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,37 +1505,37 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>0.4656452557518345</v>
+      </c>
+      <c r="D15">
+        <v>1.558745773631856</v>
+      </c>
+      <c r="E15">
         <v>0.07790154559647507</v>
-      </c>
-      <c r="D15">
-        <v>0.6311671708583744</v>
-      </c>
-      <c r="E15">
-        <v>0.6324805986825459</v>
       </c>
       <c r="F15">
         <v>0.07790154559647507</v>
       </c>
       <c r="G15">
-        <v>1.558745773631855</v>
+        <v>1.417300467248981</v>
       </c>
       <c r="H15">
-        <v>0.4656452557518346</v>
+        <v>1.040952454476435</v>
       </c>
       <c r="I15">
-        <v>0.07790154559647507</v>
+        <v>1.512386817447693</v>
       </c>
       <c r="J15">
         <v>0.6311671708583744</v>
       </c>
       <c r="K15">
-        <v>1.512386817447693</v>
+        <v>0.07790154559647507</v>
       </c>
       <c r="L15">
-        <v>1.040952454476435</v>
+        <v>0.6311671708583744</v>
       </c>
       <c r="M15">
-        <v>1.417300467248981</v>
+        <v>0.6324805986825459</v>
       </c>
       <c r="N15">
         <v>0.07790154559647507</v>
@@ -1595,28 +1547,28 @@
         <v>0.6318238847704601</v>
       </c>
       <c r="Q15">
-        <v>1.0956131861572</v>
+        <v>1.095613186157201</v>
       </c>
       <c r="R15">
         <v>0.4471831050457984</v>
       </c>
       <c r="S15">
-        <v>0.9407978477242586</v>
+        <v>0.9407978477242587</v>
       </c>
       <c r="T15">
         <v>0.4471831050457984</v>
       </c>
       <c r="U15">
-        <v>0.7250737721923126</v>
+        <v>0.7250737721923127</v>
       </c>
       <c r="V15">
-        <v>0.595639326873145</v>
+        <v>0.5956393268731451</v>
       </c>
       <c r="W15">
         <v>0.9170725104617743</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1576,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9856878131291257</v>
+        <v>1.082900740148067</v>
       </c>
       <c r="D16">
-        <v>0.9905167075192092</v>
+        <v>0.9254581795815575</v>
       </c>
       <c r="E16">
-        <v>1.009255423160632</v>
+        <v>2.26116311508523</v>
       </c>
       <c r="F16">
-        <v>0.9856878131291257</v>
+        <v>2.26116311508523</v>
       </c>
       <c r="G16">
-        <v>1.003923626246886</v>
+        <v>1.015183807164584</v>
       </c>
       <c r="H16">
-        <v>1.000709798757186</v>
+        <v>1.101099253437838</v>
       </c>
       <c r="I16">
-        <v>0.9856878131291257</v>
+        <v>0.4453545136827233</v>
       </c>
       <c r="J16">
-        <v>0.9905167075192092</v>
+        <v>1.567051047594804</v>
       </c>
       <c r="K16">
-        <v>1.002159925639479</v>
+        <v>2.26116311508523</v>
       </c>
       <c r="L16">
-        <v>1.002367661560521</v>
+        <v>1.567051047594804</v>
       </c>
       <c r="M16">
-        <v>0.9979144459301046</v>
+        <v>1.062728947433483</v>
       </c>
       <c r="N16">
-        <v>0.9856878131291257</v>
+        <v>2.26116311508523</v>
       </c>
       <c r="O16">
-        <v>1.009255423160632</v>
+        <v>1.062728947433483</v>
       </c>
       <c r="P16">
-        <v>0.9998860653399205</v>
+        <v>1.314889997514144</v>
       </c>
       <c r="Q16">
-        <v>1.006589524703759</v>
+        <v>0.9940935635075203</v>
       </c>
       <c r="R16">
-        <v>0.9951533146029888</v>
+        <v>1.63031437003784</v>
       </c>
       <c r="S16">
-        <v>1.001231918975576</v>
+        <v>1.185079391536615</v>
       </c>
       <c r="T16">
-        <v>0.9951533146029888</v>
+        <v>1.63031437003784</v>
       </c>
       <c r="U16">
-        <v>0.9973458925139631</v>
+        <v>1.454100322423769</v>
       </c>
       <c r="V16">
-        <v>0.9950142766369956</v>
+        <v>1.615512880956061</v>
       </c>
       <c r="W16">
-        <v>0.999066925242893</v>
+        <v>1.182617450516036</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1647,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.018771227373578</v>
+        <v>1.109272756107178</v>
       </c>
       <c r="D17">
-        <v>1.013760353741504</v>
+        <v>0.9127307267492238</v>
       </c>
       <c r="E17">
-        <v>0.9939436546397206</v>
+        <v>1.806525115264698</v>
       </c>
       <c r="F17">
-        <v>1.018771227373578</v>
+        <v>1.806525115264698</v>
       </c>
       <c r="G17">
-        <v>0.9910817579757936</v>
+        <v>0.9625863051671832</v>
       </c>
       <c r="H17">
-        <v>1.000470824593207</v>
+        <v>1.037105040499214</v>
       </c>
       <c r="I17">
-        <v>1.018771227373578</v>
+        <v>0.6312529438190712</v>
       </c>
       <c r="J17">
-        <v>1.013760353741504</v>
+        <v>1.32591721571932</v>
       </c>
       <c r="K17">
-        <v>0.9991594484619748</v>
+        <v>1.806525115264698</v>
       </c>
       <c r="L17">
-        <v>0.9943624284904864</v>
+        <v>1.32591721571932</v>
       </c>
       <c r="M17">
-        <v>1.000022623634992</v>
+        <v>1.216473294000139</v>
       </c>
       <c r="N17">
-        <v>1.018771227373578</v>
+        <v>1.806525115264698</v>
       </c>
       <c r="O17">
-        <v>0.9939436546397206</v>
+        <v>1.216473294000139</v>
       </c>
       <c r="P17">
-        <v>1.003852004190612</v>
+        <v>1.27119525485973</v>
       </c>
       <c r="Q17">
-        <v>0.992512706307757</v>
+        <v>1.064602010374681</v>
       </c>
       <c r="R17">
-        <v>1.008825078584934</v>
+        <v>1.449638541661386</v>
       </c>
       <c r="S17">
-        <v>0.9995952554523394</v>
+        <v>1.151707078822894</v>
       </c>
       <c r="T17">
-        <v>1.008825078584934</v>
+        <v>1.449638541661386</v>
       </c>
       <c r="U17">
-        <v>1.004389248432649</v>
+        <v>1.315411587933345</v>
       </c>
       <c r="V17">
-        <v>1.007265644220835</v>
+        <v>1.413634293399616</v>
       </c>
       <c r="W17">
-        <v>1.001446539863907</v>
+        <v>1.125232924665753</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1718,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9908083908859742</v>
+        <v>1.159699109862301</v>
       </c>
       <c r="D18">
-        <v>1.00029812976866</v>
+        <v>0.8881380745764803</v>
       </c>
       <c r="E18">
-        <v>1.023821600789101</v>
+        <v>0.9010365970874347</v>
       </c>
       <c r="F18">
-        <v>0.9908083908859742</v>
+        <v>0.9010365970874347</v>
       </c>
       <c r="G18">
-        <v>1.015814999536902</v>
+        <v>0.8599705716408671</v>
       </c>
       <c r="H18">
-        <v>0.997669489049253</v>
+        <v>0.910232477253441</v>
       </c>
       <c r="I18">
-        <v>0.9908083908859742</v>
+        <v>1.001616385796526</v>
       </c>
       <c r="J18">
-        <v>1.00029812976866</v>
+        <v>0.8547939811050118</v>
       </c>
       <c r="K18">
-        <v>0.994413755704225</v>
+        <v>0.9010365970874347</v>
       </c>
       <c r="L18">
-        <v>1.017632793097454</v>
+        <v>0.8547939811050118</v>
       </c>
       <c r="M18">
-        <v>0.99370352394688</v>
+        <v>1.513795381184402</v>
       </c>
       <c r="N18">
-        <v>0.9908083908859742</v>
+        <v>0.9010365970874347</v>
       </c>
       <c r="O18">
-        <v>1.023821600789101</v>
+        <v>1.513795381184402</v>
       </c>
       <c r="P18">
-        <v>1.012059865278881</v>
+        <v>1.184294681144707</v>
       </c>
       <c r="Q18">
-        <v>1.019818300163002</v>
+        <v>1.200966727880441</v>
       </c>
       <c r="R18">
-        <v>1.004976040481245</v>
+        <v>1.089875319792283</v>
       </c>
       <c r="S18">
-        <v>1.013311576698221</v>
+        <v>1.085575812288631</v>
       </c>
       <c r="T18">
-        <v>1.004976040481245</v>
+        <v>1.089875319792283</v>
       </c>
       <c r="U18">
-        <v>1.007685780245159</v>
+        <v>1.039441008488332</v>
       </c>
       <c r="V18">
-        <v>1.004310302373322</v>
+        <v>1.011760126208153</v>
       </c>
       <c r="W18">
-        <v>1.004270335347306</v>
+        <v>1.011160322313308</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,66 +1789,350 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>1.229428989894557</v>
+      </c>
+      <c r="D19">
+        <v>0.8117411162268257</v>
+      </c>
+      <c r="E19">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="F19">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="G19">
+        <v>0.8311071192781608</v>
+      </c>
+      <c r="H19">
+        <v>0.8460086031697764</v>
+      </c>
+      <c r="I19">
+        <v>0.9935670638118933</v>
+      </c>
+      <c r="J19">
+        <v>0.8793152374133547</v>
+      </c>
+      <c r="K19">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="L19">
+        <v>0.8793152374133547</v>
+      </c>
+      <c r="M19">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="N19">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="O19">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="P19">
+        <v>1.319624540901553</v>
+      </c>
+      <c r="Q19">
+        <v>1.285837480308288</v>
+      </c>
+      <c r="R19">
+        <v>1.162254254575315</v>
+      </c>
+      <c r="S19">
+        <v>1.150330066009977</v>
+      </c>
+      <c r="T19">
+        <v>1.162254254575315</v>
+      </c>
+      <c r="U19">
+        <v>1.074625969988192</v>
+      </c>
+      <c r="V19">
+        <v>1.029203512375121</v>
+      </c>
+      <c r="W19">
+        <v>1.024826957013394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.000709798757186</v>
+      </c>
+      <c r="D20">
+        <v>1.003923626246886</v>
+      </c>
+      <c r="E20">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="F20">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="G20">
+        <v>0.9979144459301045</v>
+      </c>
+      <c r="H20">
+        <v>1.002367661560521</v>
+      </c>
+      <c r="I20">
+        <v>1.002159925639478</v>
+      </c>
+      <c r="J20">
+        <v>0.9905167075192097</v>
+      </c>
+      <c r="K20">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="L20">
+        <v>0.9905167075192097</v>
+      </c>
+      <c r="M20">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="N20">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="O20">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="P20">
+        <v>0.9998860653399215</v>
+      </c>
+      <c r="Q20">
+        <v>1.00658952470376</v>
+      </c>
+      <c r="R20">
+        <v>0.9951533146029897</v>
+      </c>
+      <c r="S20">
+        <v>1.001231918975576</v>
+      </c>
+      <c r="T20">
+        <v>0.9951533146029896</v>
+      </c>
+      <c r="U20">
+        <v>0.9973458925139637</v>
+      </c>
+      <c r="V20">
+        <v>0.995014276636996</v>
+      </c>
+      <c r="W20">
+        <v>0.999066925242893</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.000470824593208</v>
+      </c>
+      <c r="D21">
+        <v>0.991081757975794</v>
+      </c>
+      <c r="E21">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="F21">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="G21">
+        <v>1.000022623634993</v>
+      </c>
+      <c r="H21">
+        <v>0.9943624284904866</v>
+      </c>
+      <c r="I21">
+        <v>0.9991594484619741</v>
+      </c>
+      <c r="J21">
+        <v>1.013760353741505</v>
+      </c>
+      <c r="K21">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="L21">
+        <v>1.013760353741505</v>
+      </c>
+      <c r="M21">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="N21">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="O21">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="P21">
+        <v>1.003852004190613</v>
+      </c>
+      <c r="Q21">
+        <v>0.9925127063077575</v>
+      </c>
+      <c r="R21">
+        <v>1.008825078584935</v>
+      </c>
+      <c r="S21">
+        <v>0.99959525545234</v>
+      </c>
+      <c r="T21">
+        <v>1.008825078584935</v>
+      </c>
+      <c r="U21">
+        <v>1.004389248432649</v>
+      </c>
+      <c r="V21">
+        <v>1.007265644220835</v>
+      </c>
+      <c r="W21">
+        <v>1.001446539863907</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9976694890492536</v>
+      </c>
+      <c r="D22">
+        <v>1.015814999536902</v>
+      </c>
+      <c r="E22">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="F22">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="G22">
+        <v>0.9937035239468789</v>
+      </c>
+      <c r="H22">
+        <v>1.017632793097454</v>
+      </c>
+      <c r="I22">
+        <v>0.9944137557042249</v>
+      </c>
+      <c r="J22">
+        <v>1.00029812976866</v>
+      </c>
+      <c r="K22">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="L22">
+        <v>1.00029812976866</v>
+      </c>
+      <c r="M22">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="N22">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="O22">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="P22">
+        <v>1.012059865278881</v>
+      </c>
+      <c r="Q22">
+        <v>1.019818300163002</v>
+      </c>
+      <c r="R22">
+        <v>1.004976040481246</v>
+      </c>
+      <c r="S22">
+        <v>1.013311576698221</v>
+      </c>
+      <c r="T22">
+        <v>1.004976040481246</v>
+      </c>
+      <c r="U22">
+        <v>1.00768578024516</v>
+      </c>
+      <c r="V22">
+        <v>1.004310302373323</v>
+      </c>
+      <c r="W22">
+        <v>1.004270335347306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>1.01461141763559</v>
+      </c>
+      <c r="D23">
+        <v>1.056516337205187</v>
+      </c>
+      <c r="E23">
         <v>0.901708431581948</v>
       </c>
-      <c r="D19">
+      <c r="F23">
+        <v>0.901708431581948</v>
+      </c>
+      <c r="G23">
+        <v>0.9969433928532002</v>
+      </c>
+      <c r="H23">
+        <v>1.05412377517706</v>
+      </c>
+      <c r="I23">
+        <v>0.9882546929180792</v>
+      </c>
+      <c r="J23">
         <v>0.9189962377490069</v>
       </c>
-      <c r="E19">
+      <c r="K23">
+        <v>0.901708431581948</v>
+      </c>
+      <c r="L23">
+        <v>0.9189962377490069</v>
+      </c>
+      <c r="M23">
         <v>1.061957687523567</v>
       </c>
-      <c r="F19">
+      <c r="N23">
         <v>0.901708431581948</v>
       </c>
-      <c r="G19">
-        <v>1.056516337205187</v>
-      </c>
-      <c r="H19">
-        <v>1.014611417635591</v>
-      </c>
-      <c r="I19">
-        <v>0.901708431581948</v>
-      </c>
-      <c r="J19">
-        <v>0.9189962377490069</v>
-      </c>
-      <c r="K19">
-        <v>0.9882546929180793</v>
-      </c>
-      <c r="L19">
-        <v>1.05412377517706</v>
-      </c>
-      <c r="M19">
-        <v>0.9969433928532002</v>
-      </c>
-      <c r="N19">
-        <v>0.901708431581948</v>
-      </c>
-      <c r="O19">
+      <c r="O23">
         <v>1.061957687523567</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9904769626362867</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>1.059237012364377</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9608874522848404</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>1.012490087492587</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9608874522848404</v>
       </c>
-      <c r="U19">
+      <c r="U23">
         <v>0.9847946735149271</v>
       </c>
-      <c r="V19">
+      <c r="V23">
         <v>0.9681774251283313</v>
       </c>
-      <c r="W19">
+      <c r="W23">
         <v>0.9991389965804548</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW10.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[3, 3, 1]</t>
@@ -500,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:W42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,67 +639,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="W2" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -653,67 +710,67 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.00258887034924</v>
+        <v>1.185565823172503</v>
       </c>
       <c r="D3">
-        <v>0.9976091615459117</v>
+        <v>0.8682793613472605</v>
       </c>
       <c r="E3">
-        <v>1.07464665953904</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="F3">
-        <v>1.07464665953904</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="G3">
-        <v>1.00275216922602</v>
+        <v>0.8431931772352519</v>
       </c>
       <c r="H3">
-        <v>1.004971985811638</v>
+        <v>0.8972175690883274</v>
       </c>
       <c r="I3">
-        <v>0.9667967112629138</v>
+        <v>0.970231022095971</v>
       </c>
       <c r="J3">
-        <v>1.03600041320105</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="K3">
-        <v>1.07464665953904</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="L3">
-        <v>1.03600041320105</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="M3">
-        <v>1.005276975179548</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="N3">
-        <v>1.07464665953904</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="O3">
-        <v>1.005276975179548</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="P3">
-        <v>1.020638694190299</v>
+        <v>1.250930894006107</v>
       </c>
       <c r="Q3">
-        <v>1.00144306836273</v>
+        <v>1.260135105379435</v>
       </c>
       <c r="R3">
-        <v>1.038641349306546</v>
+        <v>1.147513359789716</v>
       </c>
       <c r="S3">
-        <v>1.012962183308836</v>
+        <v>1.123380383119825</v>
       </c>
       <c r="T3">
-        <v>1.038641349306546</v>
+        <v>1.147513359789716</v>
       </c>
       <c r="U3">
-        <v>1.028383302366388</v>
+        <v>1.077704860179102</v>
       </c>
       <c r="V3">
-        <v>1.037635973800918</v>
+        <v>1.050299546414668</v>
       </c>
       <c r="W3">
-        <v>1.01133036826442</v>
+        <v>1.025878379038557</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -724,67 +781,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.004080251605465</v>
+        <v>1.173169195602829</v>
       </c>
       <c r="D4">
-        <v>0.9941866367470358</v>
+        <v>0.8792325726446173</v>
       </c>
       <c r="E4">
-        <v>1.141933910465841</v>
+        <v>0.9185397939209535</v>
       </c>
       <c r="F4">
-        <v>1.141933910465841</v>
+        <v>0.9185397939209535</v>
       </c>
       <c r="G4">
-        <v>1.00589683376951</v>
+        <v>0.850119640057751</v>
       </c>
       <c r="H4">
-        <v>1.012508622009755</v>
+        <v>0.9044987098056145</v>
       </c>
       <c r="I4">
-        <v>0.9387568670753368</v>
+        <v>0.9883317351633634</v>
       </c>
       <c r="J4">
-        <v>1.067304768508322</v>
+        <v>0.8386058968193733</v>
       </c>
       <c r="K4">
-        <v>1.141933910465841</v>
+        <v>0.9185397939209535</v>
       </c>
       <c r="L4">
-        <v>1.067304768508322</v>
+        <v>0.8386058968193733</v>
       </c>
       <c r="M4">
-        <v>1.005414003669555</v>
+        <v>1.58176301977705</v>
       </c>
       <c r="N4">
-        <v>1.141933910465841</v>
+        <v>0.9185397939209535</v>
       </c>
       <c r="O4">
-        <v>1.005414003669555</v>
+        <v>1.58176301977705</v>
       </c>
       <c r="P4">
-        <v>1.036359386088939</v>
+        <v>1.210184458298212</v>
       </c>
       <c r="Q4">
-        <v>0.9998003202082953</v>
+        <v>1.230497796210833</v>
       </c>
       <c r="R4">
-        <v>1.071550894214573</v>
+        <v>1.112969570172459</v>
       </c>
       <c r="S4">
-        <v>1.022301802974971</v>
+        <v>1.099867163080347</v>
       </c>
       <c r="T4">
-        <v>1.071550894214573</v>
+        <v>1.112969570172459</v>
       </c>
       <c r="U4">
-        <v>1.052209829847688</v>
+        <v>1.054535320790498</v>
       </c>
       <c r="V4">
-        <v>1.070154645971319</v>
+        <v>1.027336215416589</v>
       </c>
       <c r="W4">
-        <v>1.021260236731353</v>
+        <v>1.016782570473944</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -795,67 +852,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.020479206332762</v>
+        <v>1.209009192035201</v>
       </c>
       <c r="D5">
-        <v>0.9949655897584324</v>
+        <v>0.8468355242452825</v>
       </c>
       <c r="E5">
-        <v>1.280146591999447</v>
+        <v>0.9788116811168187</v>
       </c>
       <c r="F5">
-        <v>1.280146591999447</v>
+        <v>0.9788116811168187</v>
       </c>
       <c r="G5">
-        <v>1.014612439468263</v>
+        <v>0.8303402644819681</v>
       </c>
       <c r="H5">
-        <v>1.025447724311187</v>
+        <v>0.8822825874099735</v>
       </c>
       <c r="I5">
-        <v>0.8853599613988138</v>
+        <v>0.9366939430113222</v>
       </c>
       <c r="J5">
-        <v>1.136261537240609</v>
+        <v>0.876257064764419</v>
       </c>
       <c r="K5">
-        <v>1.280146591999447</v>
+        <v>0.9788116811168187</v>
       </c>
       <c r="L5">
-        <v>1.136261537240609</v>
+        <v>0.876257064764419</v>
       </c>
       <c r="M5">
-        <v>1.024006648125157</v>
+        <v>1.787225779812968</v>
       </c>
       <c r="N5">
-        <v>1.280146591999447</v>
+        <v>0.9788116811168187</v>
       </c>
       <c r="O5">
-        <v>1.024006648125157</v>
+        <v>1.787225779812968</v>
       </c>
       <c r="P5">
-        <v>1.080134092682883</v>
+        <v>1.331741422288693</v>
       </c>
       <c r="Q5">
-        <v>1.009486118941795</v>
+        <v>1.317030652029125</v>
       </c>
       <c r="R5">
-        <v>1.146804925788405</v>
+        <v>1.214098175231402</v>
       </c>
       <c r="S5">
-        <v>1.051744591708066</v>
+        <v>1.17010612294089</v>
       </c>
       <c r="T5">
-        <v>1.146804925788405</v>
+        <v>1.214098175231402</v>
       </c>
       <c r="U5">
-        <v>1.108845091780911</v>
+        <v>1.122282512484872</v>
       </c>
       <c r="V5">
-        <v>1.143105391824619</v>
+        <v>1.093588346211261</v>
       </c>
       <c r="W5">
-        <v>1.047659962329334</v>
+        <v>1.043432004609744</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -866,67 +923,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.027698505207559</v>
+        <v>1.231750511413135</v>
       </c>
       <c r="D6">
-        <v>1.075450033364334</v>
+        <v>0.8268681980795458</v>
       </c>
       <c r="E6">
-        <v>1.503450978919303</v>
+        <v>1.009518951425455</v>
       </c>
       <c r="F6">
-        <v>1.503450978919303</v>
+        <v>1.009518951425455</v>
       </c>
       <c r="G6">
-        <v>1.024091147947485</v>
+        <v>0.8200323647007393</v>
       </c>
       <c r="H6">
-        <v>0.9752732093789623</v>
+        <v>0.8677763510414765</v>
       </c>
       <c r="I6">
-        <v>0.7801431576943801</v>
+        <v>0.9064623594943176</v>
       </c>
       <c r="J6">
-        <v>1.276797081617945</v>
+        <v>0.9101397669486924</v>
       </c>
       <c r="K6">
-        <v>1.503450978919303</v>
+        <v>1.009518951425455</v>
       </c>
       <c r="L6">
-        <v>1.276797081617945</v>
+        <v>0.9101397669486924</v>
       </c>
       <c r="M6">
-        <v>1.111510178399358</v>
+        <v>1.920038412796875</v>
       </c>
       <c r="N6">
-        <v>1.503450978919303</v>
+        <v>1.009518951425455</v>
       </c>
       <c r="O6">
-        <v>1.111510178399358</v>
+        <v>1.920038412796875</v>
       </c>
       <c r="P6">
-        <v>1.194153630008651</v>
+        <v>1.415089089872783</v>
       </c>
       <c r="Q6">
-        <v>1.093480105881846</v>
+        <v>1.37345330543821</v>
       </c>
       <c r="R6">
-        <v>1.297252746312202</v>
+        <v>1.279899043723674</v>
       </c>
       <c r="S6">
-        <v>1.154585764460546</v>
+        <v>1.219015459275038</v>
       </c>
       <c r="T6">
-        <v>1.297252746312202</v>
+        <v>1.279899043723674</v>
       </c>
       <c r="U6">
-        <v>1.241802068075235</v>
+        <v>1.166641332312642</v>
       </c>
       <c r="V6">
-        <v>1.294131850244049</v>
+        <v>1.135216856135205</v>
       </c>
       <c r="W6">
-        <v>1.096801786566166</v>
+        <v>1.06157336448753</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -937,67 +994,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.001245872009956</v>
+        <v>0.9722903111503515</v>
       </c>
       <c r="D7">
-        <v>0.9988328950677939</v>
+        <v>0.9871484856207674</v>
       </c>
       <c r="E7">
-        <v>0.9985761432212134</v>
+        <v>2.856492904444475</v>
       </c>
       <c r="F7">
-        <v>0.9985761432212134</v>
+        <v>2.856492904444475</v>
       </c>
       <c r="G7">
-        <v>0.9990860013351089</v>
+        <v>1.131578720655239</v>
       </c>
       <c r="H7">
-        <v>0.998886913608574</v>
+        <v>1.22340038763224</v>
       </c>
       <c r="I7">
-        <v>0.9996406599469811</v>
+        <v>0.2366580700691665</v>
       </c>
       <c r="J7">
-        <v>1.001048952954709</v>
+        <v>1.945612183754858</v>
       </c>
       <c r="K7">
-        <v>0.9985761432212134</v>
+        <v>2.856492904444475</v>
       </c>
       <c r="L7">
-        <v>1.001048952954709</v>
+        <v>1.945612183754858</v>
       </c>
       <c r="M7">
-        <v>1.006521569453629</v>
+        <v>0.5715004399139312</v>
       </c>
       <c r="N7">
-        <v>0.9985761432212134</v>
+        <v>2.856492904444475</v>
       </c>
       <c r="O7">
-        <v>1.006521569453629</v>
+        <v>0.5715004399139312</v>
       </c>
       <c r="P7">
-        <v>1.003785261204169</v>
+        <v>1.258556311834395</v>
       </c>
       <c r="Q7">
-        <v>1.002677232260711</v>
+        <v>0.7793244627673492</v>
       </c>
       <c r="R7">
-        <v>1.002048888543184</v>
+        <v>1.791201842704422</v>
       </c>
       <c r="S7">
-        <v>1.002134472492044</v>
+        <v>1.168087036429852</v>
       </c>
       <c r="T7">
-        <v>1.002048888543184</v>
+        <v>1.791201842704422</v>
       </c>
       <c r="U7">
-        <v>1.001244890174336</v>
+        <v>1.590188503433508</v>
       </c>
       <c r="V7">
-        <v>1.000711140783712</v>
+        <v>1.843449383635701</v>
       </c>
       <c r="W7">
-        <v>1.000479875949746</v>
+        <v>1.240585187905129</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1008,67 +1065,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.002800780393016</v>
+        <v>0.9749778847816253</v>
       </c>
       <c r="D8">
-        <v>0.9961266680433496</v>
+        <v>0.982675016769275</v>
       </c>
       <c r="E8">
-        <v>0.9964548033553053</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="F8">
-        <v>0.9964548033553053</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="G8">
-        <v>0.997913401022997</v>
+        <v>1.131194740408092</v>
       </c>
       <c r="H8">
-        <v>0.9964841532641266</v>
+        <v>1.216814230196834</v>
       </c>
       <c r="I8">
-        <v>0.9998601342432211</v>
+        <v>0.2382745018627646</v>
       </c>
       <c r="J8">
-        <v>1.005798931538653</v>
+        <v>1.964527147187833</v>
       </c>
       <c r="K8">
-        <v>0.9964548033553053</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="L8">
-        <v>1.005798931538653</v>
+        <v>1.964527147187833</v>
       </c>
       <c r="M8">
-        <v>1.013853706632245</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="N8">
-        <v>0.9964548033553053</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="O8">
-        <v>1.013853706632245</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="P8">
-        <v>1.009826319085449</v>
+        <v>1.280145415681027</v>
       </c>
       <c r="Q8">
-        <v>1.004990187337798</v>
+        <v>0.7892193504717486</v>
       </c>
       <c r="R8">
-        <v>1.005369147175401</v>
+        <v>1.799866885227446</v>
       </c>
       <c r="S8">
-        <v>1.005259768738083</v>
+        <v>1.180988616043776</v>
       </c>
       <c r="T8">
-        <v>1.005369147175401</v>
+        <v>1.799866885227445</v>
       </c>
       <c r="U8">
-        <v>1.003058527392388</v>
+        <v>1.595568918112903</v>
       </c>
       <c r="V8">
-        <v>1.001737782584972</v>
+        <v>1.844317099354378</v>
       </c>
       <c r="W8">
-        <v>1.001161572311614</v>
+        <v>1.242942128712616</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1079,67 +1136,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.003150514330919</v>
+        <v>0.9769016884128449</v>
       </c>
       <c r="D9">
-        <v>0.9956823879800555</v>
+        <v>0.9803079778365785</v>
       </c>
       <c r="E9">
-        <v>0.9953877755528782</v>
+        <v>2.825356282781992</v>
       </c>
       <c r="F9">
-        <v>0.9953877755528782</v>
+        <v>2.825356282781992</v>
       </c>
       <c r="G9">
-        <v>0.9988744502464652</v>
+        <v>1.12946953484642</v>
       </c>
       <c r="H9">
-        <v>0.9954910294956575</v>
+        <v>1.212238213484283</v>
       </c>
       <c r="I9">
-        <v>0.9987466172221708</v>
+        <v>0.2405221696001403</v>
       </c>
       <c r="J9">
-        <v>1.014034029728343</v>
+        <v>1.96395190199892</v>
       </c>
       <c r="K9">
-        <v>0.9953877755528782</v>
+        <v>2.825356282781992</v>
       </c>
       <c r="L9">
-        <v>1.014034029728343</v>
+        <v>1.96395190199892</v>
       </c>
       <c r="M9">
-        <v>1.017333196793282</v>
+        <v>0.6236213856391167</v>
       </c>
       <c r="N9">
-        <v>0.9953877755528782</v>
+        <v>2.825356282781992</v>
       </c>
       <c r="O9">
-        <v>1.017333196793282</v>
+        <v>0.6236213856391167</v>
       </c>
       <c r="P9">
-        <v>1.015683613260812</v>
+        <v>1.293786643819018</v>
       </c>
       <c r="Q9">
-        <v>1.006507792386669</v>
+        <v>0.8019646817378476</v>
       </c>
       <c r="R9">
-        <v>1.008918334024834</v>
+        <v>1.804309856806676</v>
       </c>
       <c r="S9">
-        <v>1.009016538167227</v>
+        <v>1.189293755158205</v>
       </c>
       <c r="T9">
-        <v>1.008918334024834</v>
+        <v>1.804309856806676</v>
       </c>
       <c r="U9">
-        <v>1.00560934751364</v>
+        <v>1.598309387064152</v>
       </c>
       <c r="V9">
-        <v>1.003565033121487</v>
+        <v>1.84371876620772</v>
       </c>
       <c r="W9">
-        <v>1.002337500168721</v>
+        <v>1.244046144325037</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1150,67 +1207,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.007274092685418</v>
+        <v>0.9691476226952187</v>
       </c>
       <c r="D10">
-        <v>0.9905319988822575</v>
+        <v>0.9695867484648575</v>
       </c>
       <c r="E10">
-        <v>0.9902930159431937</v>
+        <v>2.779254198101207</v>
       </c>
       <c r="F10">
-        <v>0.9902930159431937</v>
+        <v>2.779254198101207</v>
       </c>
       <c r="G10">
-        <v>0.9959269736994799</v>
+        <v>1.140617922078526</v>
       </c>
       <c r="H10">
-        <v>0.9901345802959458</v>
+        <v>1.194149864871326</v>
       </c>
       <c r="I10">
-        <v>0.9975805539792593</v>
+        <v>0.2434820058388958</v>
       </c>
       <c r="J10">
-        <v>1.024586214661496</v>
+        <v>2.079469756014723</v>
       </c>
       <c r="K10">
-        <v>0.9902930159431937</v>
+        <v>2.779254198101207</v>
       </c>
       <c r="L10">
-        <v>1.024586214661496</v>
+        <v>2.079469756014723</v>
       </c>
       <c r="M10">
-        <v>1.041339981610421</v>
+        <v>0.6678448007231662</v>
       </c>
       <c r="N10">
-        <v>0.9902930159431937</v>
+        <v>2.779254198101207</v>
       </c>
       <c r="O10">
-        <v>1.041339981610421</v>
+        <v>0.6678448007231662</v>
       </c>
       <c r="P10">
-        <v>1.032963098135959</v>
+        <v>1.373657278368944</v>
       </c>
       <c r="Q10">
-        <v>1.015935990246339</v>
+        <v>0.8187157745940119</v>
       </c>
       <c r="R10">
-        <v>1.018739737405037</v>
+        <v>1.842189584946365</v>
       </c>
       <c r="S10">
-        <v>1.018819398384725</v>
+        <v>1.238967101734249</v>
       </c>
       <c r="T10">
-        <v>1.018739737405037</v>
+        <v>1.842189584946365</v>
       </c>
       <c r="U10">
-        <v>1.011687802774342</v>
+        <v>1.624038875825988</v>
       </c>
       <c r="V10">
-        <v>1.007408845408112</v>
+        <v>1.855081940281032</v>
       </c>
       <c r="W10">
-        <v>1.004708426469684</v>
+        <v>1.25544411484849</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1221,67 +1278,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.013321958017889</v>
+        <v>1.005901321983825</v>
       </c>
       <c r="D11">
-        <v>0.9828173365193058</v>
+        <v>0.9947127720552101</v>
       </c>
       <c r="E11">
-        <v>0.9841786959919395</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="F11">
-        <v>0.9841786959919395</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="G11">
-        <v>0.9968544533038287</v>
+        <v>1.00317062105245</v>
       </c>
       <c r="H11">
-        <v>0.9834437710370558</v>
+        <v>1.004972558068685</v>
       </c>
       <c r="I11">
-        <v>0.9931159148817466</v>
+        <v>0.964895308688889</v>
       </c>
       <c r="J11">
-        <v>1.059735053009184</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="K11">
-        <v>0.9841786959919395</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="L11">
-        <v>1.059735053009184</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="M11">
-        <v>1.059869219165151</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="N11">
-        <v>0.9841786959919395</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="O11">
-        <v>1.059869219165151</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="P11">
-        <v>1.059802136087168</v>
+        <v>1.016412296978854</v>
       </c>
       <c r="Q11">
-        <v>1.021343277842228</v>
+        <v>0.9951882910009466</v>
       </c>
       <c r="R11">
-        <v>1.034594322722092</v>
+        <v>1.038698105969163</v>
       </c>
       <c r="S11">
-        <v>1.034140536231214</v>
+        <v>1.009179122004306</v>
       </c>
       <c r="T11">
-        <v>1.034594322722092</v>
+        <v>1.038698105969163</v>
       </c>
       <c r="U11">
-        <v>1.021650076171395</v>
+        <v>1.027701772490675</v>
       </c>
       <c r="V11">
-        <v>1.014155800135504</v>
+        <v>1.038815362782496</v>
       </c>
       <c r="W11">
-        <v>1.009167050240763</v>
+        <v>1.011218362469569</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1292,67 +1349,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.7944825319457682</v>
+        <v>1.000489026909445</v>
       </c>
       <c r="D12">
-        <v>1.369369559480381</v>
+        <v>0.9993861809083748</v>
       </c>
       <c r="E12">
-        <v>0.6839215333004276</v>
+        <v>1.04235694343816</v>
       </c>
       <c r="F12">
-        <v>0.6839215333004276</v>
+        <v>1.04235694343816</v>
       </c>
       <c r="G12">
-        <v>1.066947658021112</v>
+        <v>1.003198056219762</v>
       </c>
       <c r="H12">
-        <v>1.351068282767972</v>
+        <v>1.004684897893218</v>
       </c>
       <c r="I12">
-        <v>1.052140554690341</v>
+        <v>0.9804037013206639</v>
       </c>
       <c r="J12">
-        <v>0.3218313991703864</v>
+        <v>1.023338510725692</v>
       </c>
       <c r="K12">
-        <v>0.6839215333004276</v>
+        <v>1.04235694343816</v>
       </c>
       <c r="L12">
-        <v>0.3218313991703864</v>
+        <v>1.023338510725692</v>
       </c>
       <c r="M12">
-        <v>0.4737304055118667</v>
+        <v>0.9988444653539049</v>
       </c>
       <c r="N12">
-        <v>0.6839215333004276</v>
+        <v>1.04235694343816</v>
       </c>
       <c r="O12">
-        <v>0.4737304055118667</v>
+        <v>0.9988444653539049</v>
       </c>
       <c r="P12">
-        <v>0.3977809023411265</v>
+        <v>1.011091488039799</v>
       </c>
       <c r="Q12">
-        <v>0.9215499824961236</v>
+        <v>0.9991153231311398</v>
       </c>
       <c r="R12">
-        <v>0.4931611126608935</v>
+        <v>1.021513306505919</v>
       </c>
       <c r="S12">
-        <v>0.7216437880542111</v>
+        <v>1.007189718995991</v>
       </c>
       <c r="T12">
-        <v>0.4931611126608936</v>
+        <v>1.021513306505919</v>
       </c>
       <c r="U12">
-        <v>0.7122132243657653</v>
+        <v>1.015981525106533</v>
       </c>
       <c r="V12">
-        <v>0.7065548861526978</v>
+        <v>1.021256608772858</v>
       </c>
       <c r="W12">
-        <v>0.8891864906110317</v>
+        <v>1.006587722846153</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1363,67 +1420,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.223465880021654</v>
+        <v>0.9950555411523433</v>
       </c>
       <c r="D13">
-        <v>0.4599217185580263</v>
+        <v>1.00460488542175</v>
       </c>
       <c r="E13">
-        <v>1.5747027242848</v>
+        <v>1.131685474890926</v>
       </c>
       <c r="F13">
-        <v>1.5747027242848</v>
+        <v>1.131685474890926</v>
       </c>
       <c r="G13">
-        <v>0.9419378417876704</v>
+        <v>1.026054066470403</v>
       </c>
       <c r="H13">
-        <v>0.4915436637177757</v>
+        <v>1.016610632728755</v>
       </c>
       <c r="I13">
-        <v>1.006071256734195</v>
+        <v>0.9313390663095165</v>
       </c>
       <c r="J13">
-        <v>1.713282696435615</v>
+        <v>1.092241199351487</v>
       </c>
       <c r="K13">
-        <v>1.5747027242848</v>
+        <v>1.131685474890926</v>
       </c>
       <c r="L13">
-        <v>1.713282696435615</v>
+        <v>1.092241199351487</v>
       </c>
       <c r="M13">
-        <v>1.552298692499595</v>
+        <v>0.9933795181214996</v>
       </c>
       <c r="N13">
-        <v>1.5747027242848</v>
+        <v>1.131685474890926</v>
       </c>
       <c r="O13">
-        <v>1.552298692499595</v>
+        <v>0.9933795181214996</v>
       </c>
       <c r="P13">
-        <v>1.632790694467605</v>
+        <v>1.042810358736493</v>
       </c>
       <c r="Q13">
-        <v>1.006110205528811</v>
+        <v>0.9989922017716246</v>
       </c>
       <c r="R13">
-        <v>1.613428037740003</v>
+        <v>1.072435397454637</v>
       </c>
       <c r="S13">
-        <v>1.241834369164412</v>
+        <v>1.030075200964912</v>
       </c>
       <c r="T13">
-        <v>1.613428037740003</v>
+        <v>1.072435397454637</v>
       </c>
       <c r="U13">
-        <v>1.325051457944509</v>
+        <v>1.055477769446415</v>
       </c>
       <c r="V13">
-        <v>1.374981711212567</v>
+        <v>1.070719310535317</v>
       </c>
       <c r="W13">
-        <v>1.120403059254917</v>
+        <v>1.023871298055835</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1434,67 +1491,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.02136135548971019</v>
+        <v>1.012409361677438</v>
       </c>
       <c r="D14">
-        <v>1.303541453734514</v>
+        <v>0.993246749327471</v>
       </c>
       <c r="E14">
-        <v>0.000597170477148993</v>
+        <v>1.198290720543409</v>
       </c>
       <c r="F14">
-        <v>0.000597170477148993</v>
+        <v>1.198290720543409</v>
       </c>
       <c r="G14">
-        <v>3.039243718857056</v>
+        <v>1.006677534860649</v>
       </c>
       <c r="H14">
-        <v>0.209749771944535</v>
+        <v>1.015665864238724</v>
       </c>
       <c r="I14">
-        <v>1.119530140244971</v>
+        <v>0.9097644697307454</v>
       </c>
       <c r="J14">
-        <v>4.958971238726512</v>
+        <v>1.101175100687859</v>
       </c>
       <c r="K14">
-        <v>0.0005971704771488298</v>
+        <v>1.198290720543409</v>
       </c>
       <c r="L14">
-        <v>4.958971238726512</v>
+        <v>1.101175100687859</v>
       </c>
       <c r="M14">
-        <v>0.04487560622477388</v>
+        <v>1.014512702638022</v>
       </c>
       <c r="N14">
-        <v>0.000597170477148993</v>
+        <v>1.198290720543409</v>
       </c>
       <c r="O14">
-        <v>0.04487560622477388</v>
+        <v>1.014512702638022</v>
       </c>
       <c r="P14">
-        <v>2.501923422475643</v>
+        <v>1.05784390166294</v>
       </c>
       <c r="Q14">
-        <v>0.6742085299796442</v>
+        <v>1.003879725982747</v>
       </c>
       <c r="R14">
-        <v>1.668148005142812</v>
+        <v>1.10465950795643</v>
       </c>
       <c r="S14">
-        <v>2.1024627662286</v>
+        <v>1.036311517551117</v>
       </c>
       <c r="T14">
-        <v>1.668148005142812</v>
+        <v>1.10465950795643</v>
       </c>
       <c r="U14">
-        <v>1.576996367290737</v>
+        <v>1.07680631829919</v>
       </c>
       <c r="V14">
-        <v>1.26171652792802</v>
+        <v>1.101103198748034</v>
       </c>
       <c r="W14">
-        <v>1.337233806962403</v>
+        <v>1.03146781296304</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1505,67 +1562,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.4656452557518345</v>
+        <v>1.00258887034924</v>
       </c>
       <c r="D15">
-        <v>1.558745773631856</v>
+        <v>0.9976091615459117</v>
       </c>
       <c r="E15">
-        <v>0.07790154559647507</v>
+        <v>1.07464665953904</v>
       </c>
       <c r="F15">
-        <v>0.07790154559647507</v>
+        <v>1.07464665953904</v>
       </c>
       <c r="G15">
-        <v>1.417300467248981</v>
+        <v>1.00275216922602</v>
       </c>
       <c r="H15">
-        <v>1.040952454476435</v>
+        <v>1.004971985811638</v>
       </c>
       <c r="I15">
-        <v>1.512386817447693</v>
+        <v>0.9667967112629138</v>
       </c>
       <c r="J15">
-        <v>0.6311671708583744</v>
+        <v>1.03600041320105</v>
       </c>
       <c r="K15">
-        <v>0.07790154559647507</v>
+        <v>1.07464665953904</v>
       </c>
       <c r="L15">
-        <v>0.6311671708583744</v>
+        <v>1.03600041320105</v>
       </c>
       <c r="M15">
-        <v>0.6324805986825459</v>
+        <v>1.005276975179548</v>
       </c>
       <c r="N15">
-        <v>0.07790154559647507</v>
+        <v>1.07464665953904</v>
       </c>
       <c r="O15">
-        <v>0.6324805986825459</v>
+        <v>1.005276975179548</v>
       </c>
       <c r="P15">
-        <v>0.6318238847704601</v>
+        <v>1.020638694190299</v>
       </c>
       <c r="Q15">
-        <v>1.095613186157201</v>
+        <v>1.00144306836273</v>
       </c>
       <c r="R15">
-        <v>0.4471831050457984</v>
+        <v>1.038641349306546</v>
       </c>
       <c r="S15">
-        <v>0.9407978477242587</v>
+        <v>1.012962183308836</v>
       </c>
       <c r="T15">
-        <v>0.4471831050457984</v>
+        <v>1.038641349306546</v>
       </c>
       <c r="U15">
-        <v>0.7250737721923127</v>
+        <v>1.028383302366388</v>
       </c>
       <c r="V15">
-        <v>0.5956393268731451</v>
+        <v>1.037635973800918</v>
       </c>
       <c r="W15">
-        <v>0.9170725104617743</v>
+        <v>1.01133036826442</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1576,67 +1633,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.082900740148067</v>
+        <v>1.004080251605465</v>
       </c>
       <c r="D16">
-        <v>0.9254581795815575</v>
+        <v>0.9941866367470358</v>
       </c>
       <c r="E16">
-        <v>2.26116311508523</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="F16">
-        <v>2.26116311508523</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="G16">
-        <v>1.015183807164584</v>
+        <v>1.00589683376951</v>
       </c>
       <c r="H16">
-        <v>1.101099253437838</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="I16">
-        <v>0.4453545136827233</v>
+        <v>0.9387568670753368</v>
       </c>
       <c r="J16">
-        <v>1.567051047594804</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="K16">
-        <v>2.26116311508523</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="L16">
-        <v>1.567051047594804</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="M16">
-        <v>1.062728947433483</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="N16">
-        <v>2.26116311508523</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="O16">
-        <v>1.062728947433483</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="P16">
-        <v>1.314889997514144</v>
+        <v>1.036359386088939</v>
       </c>
       <c r="Q16">
-        <v>0.9940935635075203</v>
+        <v>0.9998003202082953</v>
       </c>
       <c r="R16">
-        <v>1.63031437003784</v>
+        <v>1.071550894214573</v>
       </c>
       <c r="S16">
-        <v>1.185079391536615</v>
+        <v>1.022301802974971</v>
       </c>
       <c r="T16">
-        <v>1.63031437003784</v>
+        <v>1.071550894214573</v>
       </c>
       <c r="U16">
-        <v>1.454100322423769</v>
+        <v>1.052209829847688</v>
       </c>
       <c r="V16">
-        <v>1.615512880956061</v>
+        <v>1.070154645971319</v>
       </c>
       <c r="W16">
-        <v>1.182617450516036</v>
+        <v>1.021260236731353</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1647,67 +1704,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.109272756107178</v>
+        <v>1.020479206332762</v>
       </c>
       <c r="D17">
-        <v>0.9127307267492238</v>
+        <v>0.9949655897584324</v>
       </c>
       <c r="E17">
-        <v>1.806525115264698</v>
+        <v>1.280146591999447</v>
       </c>
       <c r="F17">
-        <v>1.806525115264698</v>
+        <v>1.280146591999447</v>
       </c>
       <c r="G17">
-        <v>0.9625863051671832</v>
+        <v>1.014612439468263</v>
       </c>
       <c r="H17">
-        <v>1.037105040499214</v>
+        <v>1.025447724311187</v>
       </c>
       <c r="I17">
-        <v>0.6312529438190712</v>
+        <v>0.8853599613988138</v>
       </c>
       <c r="J17">
-        <v>1.32591721571932</v>
+        <v>1.136261537240609</v>
       </c>
       <c r="K17">
-        <v>1.806525115264698</v>
+        <v>1.280146591999447</v>
       </c>
       <c r="L17">
-        <v>1.32591721571932</v>
+        <v>1.136261537240609</v>
       </c>
       <c r="M17">
-        <v>1.216473294000139</v>
+        <v>1.024006648125157</v>
       </c>
       <c r="N17">
-        <v>1.806525115264698</v>
+        <v>1.280146591999447</v>
       </c>
       <c r="O17">
-        <v>1.216473294000139</v>
+        <v>1.024006648125157</v>
       </c>
       <c r="P17">
-        <v>1.27119525485973</v>
+        <v>1.080134092682883</v>
       </c>
       <c r="Q17">
-        <v>1.064602010374681</v>
+        <v>1.009486118941795</v>
       </c>
       <c r="R17">
-        <v>1.449638541661386</v>
+        <v>1.146804925788405</v>
       </c>
       <c r="S17">
-        <v>1.151707078822894</v>
+        <v>1.051744591708066</v>
       </c>
       <c r="T17">
-        <v>1.449638541661386</v>
+        <v>1.146804925788405</v>
       </c>
       <c r="U17">
-        <v>1.315411587933345</v>
+        <v>1.108845091780911</v>
       </c>
       <c r="V17">
-        <v>1.413634293399616</v>
+        <v>1.143105391824619</v>
       </c>
       <c r="W17">
-        <v>1.125232924665753</v>
+        <v>1.047659962329334</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1718,67 +1775,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.159699109862301</v>
+        <v>1.027698505207559</v>
       </c>
       <c r="D18">
-        <v>0.8881380745764803</v>
+        <v>1.075450033364334</v>
       </c>
       <c r="E18">
-        <v>0.9010365970874347</v>
+        <v>1.503450978919303</v>
       </c>
       <c r="F18">
-        <v>0.9010365970874347</v>
+        <v>1.503450978919303</v>
       </c>
       <c r="G18">
-        <v>0.8599705716408671</v>
+        <v>1.024091147947485</v>
       </c>
       <c r="H18">
-        <v>0.910232477253441</v>
+        <v>0.9752732093789623</v>
       </c>
       <c r="I18">
-        <v>1.001616385796526</v>
+        <v>0.7801431576943801</v>
       </c>
       <c r="J18">
-        <v>0.8547939811050118</v>
+        <v>1.276797081617945</v>
       </c>
       <c r="K18">
-        <v>0.9010365970874347</v>
+        <v>1.503450978919303</v>
       </c>
       <c r="L18">
-        <v>0.8547939811050118</v>
+        <v>1.276797081617945</v>
       </c>
       <c r="M18">
-        <v>1.513795381184402</v>
+        <v>1.111510178399358</v>
       </c>
       <c r="N18">
-        <v>0.9010365970874347</v>
+        <v>1.503450978919303</v>
       </c>
       <c r="O18">
-        <v>1.513795381184402</v>
+        <v>1.111510178399358</v>
       </c>
       <c r="P18">
-        <v>1.184294681144707</v>
+        <v>1.194153630008651</v>
       </c>
       <c r="Q18">
-        <v>1.200966727880441</v>
+        <v>1.093480105881846</v>
       </c>
       <c r="R18">
-        <v>1.089875319792283</v>
+        <v>1.297252746312202</v>
       </c>
       <c r="S18">
-        <v>1.085575812288631</v>
+        <v>1.154585764460546</v>
       </c>
       <c r="T18">
-        <v>1.089875319792283</v>
+        <v>1.297252746312202</v>
       </c>
       <c r="U18">
-        <v>1.039441008488332</v>
+        <v>1.241802068075235</v>
       </c>
       <c r="V18">
-        <v>1.011760126208153</v>
+        <v>1.294131850244049</v>
       </c>
       <c r="W18">
-        <v>1.011160322313308</v>
+        <v>1.096801786566166</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1789,67 +1846,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.229428989894557</v>
+        <v>1.001245872009956</v>
       </c>
       <c r="D19">
-        <v>0.8117411162268257</v>
+        <v>0.9988328950677939</v>
       </c>
       <c r="E19">
-        <v>0.8475136819228377</v>
+        <v>0.9985761432212134</v>
       </c>
       <c r="F19">
-        <v>0.8475136819228377</v>
+        <v>0.9985761432212134</v>
       </c>
       <c r="G19">
-        <v>0.8311071192781608</v>
+        <v>0.9990860013351089</v>
       </c>
       <c r="H19">
-        <v>0.8460086031697764</v>
+        <v>0.998886913608574</v>
       </c>
       <c r="I19">
-        <v>0.9935670638118933</v>
+        <v>0.9996406599469811</v>
       </c>
       <c r="J19">
-        <v>0.8793152374133547</v>
+        <v>1.001048952954709</v>
       </c>
       <c r="K19">
-        <v>0.8475136819228377</v>
+        <v>0.9985761432212134</v>
       </c>
       <c r="L19">
-        <v>0.8793152374133547</v>
+        <v>1.001048952954709</v>
       </c>
       <c r="M19">
-        <v>1.759933844389751</v>
+        <v>1.006521569453629</v>
       </c>
       <c r="N19">
-        <v>0.8475136819228377</v>
+        <v>0.9985761432212134</v>
       </c>
       <c r="O19">
-        <v>1.759933844389751</v>
+        <v>1.006521569453629</v>
       </c>
       <c r="P19">
-        <v>1.319624540901553</v>
+        <v>1.003785261204169</v>
       </c>
       <c r="Q19">
-        <v>1.285837480308288</v>
+        <v>1.002677232260711</v>
       </c>
       <c r="R19">
-        <v>1.162254254575315</v>
+        <v>1.002048888543184</v>
       </c>
       <c r="S19">
-        <v>1.150330066009977</v>
+        <v>1.002134472492044</v>
       </c>
       <c r="T19">
-        <v>1.162254254575315</v>
+        <v>1.002048888543184</v>
       </c>
       <c r="U19">
-        <v>1.074625969988192</v>
+        <v>1.001244890174336</v>
       </c>
       <c r="V19">
-        <v>1.029203512375121</v>
+        <v>1.000711140783712</v>
       </c>
       <c r="W19">
-        <v>1.024826957013394</v>
+        <v>1.000479875949746</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1860,67 +1917,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.000709798757186</v>
+        <v>1.002800780393016</v>
       </c>
       <c r="D20">
-        <v>1.003923626246886</v>
+        <v>0.9961266680433496</v>
       </c>
       <c r="E20">
-        <v>0.985687813129126</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="F20">
-        <v>0.985687813129126</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="G20">
-        <v>0.9979144459301045</v>
+        <v>0.997913401022997</v>
       </c>
       <c r="H20">
-        <v>1.002367661560521</v>
+        <v>0.9964841532641266</v>
       </c>
       <c r="I20">
-        <v>1.002159925639478</v>
+        <v>0.9998601342432211</v>
       </c>
       <c r="J20">
-        <v>0.9905167075192097</v>
+        <v>1.005798931538653</v>
       </c>
       <c r="K20">
-        <v>0.985687813129126</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="L20">
-        <v>0.9905167075192097</v>
+        <v>1.005798931538653</v>
       </c>
       <c r="M20">
-        <v>1.009255423160633</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="N20">
-        <v>0.985687813129126</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="O20">
-        <v>1.009255423160633</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="P20">
-        <v>0.9998860653399215</v>
+        <v>1.009826319085449</v>
       </c>
       <c r="Q20">
-        <v>1.00658952470376</v>
+        <v>1.004990187337798</v>
       </c>
       <c r="R20">
-        <v>0.9951533146029897</v>
+        <v>1.005369147175401</v>
       </c>
       <c r="S20">
-        <v>1.001231918975576</v>
+        <v>1.005259768738083</v>
       </c>
       <c r="T20">
-        <v>0.9951533146029896</v>
+        <v>1.005369147175401</v>
       </c>
       <c r="U20">
-        <v>0.9973458925139637</v>
+        <v>1.003058527392388</v>
       </c>
       <c r="V20">
-        <v>0.995014276636996</v>
+        <v>1.001737782584972</v>
       </c>
       <c r="W20">
-        <v>0.999066925242893</v>
+        <v>1.001161572311614</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1931,67 +1988,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.000470824593208</v>
+        <v>1.003150514330919</v>
       </c>
       <c r="D21">
-        <v>0.991081757975794</v>
+        <v>0.9956823879800555</v>
       </c>
       <c r="E21">
-        <v>1.018771227373578</v>
+        <v>0.9953877755528782</v>
       </c>
       <c r="F21">
-        <v>1.018771227373578</v>
+        <v>0.9953877755528782</v>
       </c>
       <c r="G21">
-        <v>1.000022623634993</v>
+        <v>0.9988744502464652</v>
       </c>
       <c r="H21">
-        <v>0.9943624284904866</v>
+        <v>0.9954910294956575</v>
       </c>
       <c r="I21">
-        <v>0.9991594484619741</v>
+        <v>0.9987466172221708</v>
       </c>
       <c r="J21">
-        <v>1.013760353741505</v>
+        <v>1.014034029728343</v>
       </c>
       <c r="K21">
-        <v>1.018771227373578</v>
+        <v>0.9953877755528782</v>
       </c>
       <c r="L21">
-        <v>1.013760353741505</v>
+        <v>1.014034029728343</v>
       </c>
       <c r="M21">
-        <v>0.9939436546397209</v>
+        <v>1.017333196793282</v>
       </c>
       <c r="N21">
-        <v>1.018771227373578</v>
+        <v>0.9953877755528782</v>
       </c>
       <c r="O21">
-        <v>0.9939436546397209</v>
+        <v>1.017333196793282</v>
       </c>
       <c r="P21">
-        <v>1.003852004190613</v>
+        <v>1.015683613260812</v>
       </c>
       <c r="Q21">
-        <v>0.9925127063077575</v>
+        <v>1.006507792386669</v>
       </c>
       <c r="R21">
-        <v>1.008825078584935</v>
+        <v>1.008918334024834</v>
       </c>
       <c r="S21">
-        <v>0.99959525545234</v>
+        <v>1.009016538167227</v>
       </c>
       <c r="T21">
-        <v>1.008825078584935</v>
+        <v>1.008918334024834</v>
       </c>
       <c r="U21">
-        <v>1.004389248432649</v>
+        <v>1.00560934751364</v>
       </c>
       <c r="V21">
-        <v>1.007265644220835</v>
+        <v>1.003565033121487</v>
       </c>
       <c r="W21">
-        <v>1.001446539863907</v>
+        <v>1.002337500168721</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2002,67 +2059,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9976694890492536</v>
+        <v>1.007274092685418</v>
       </c>
       <c r="D22">
-        <v>1.015814999536902</v>
+        <v>0.9905319988822575</v>
       </c>
       <c r="E22">
-        <v>0.9908083908859752</v>
+        <v>0.9902930159431937</v>
       </c>
       <c r="F22">
-        <v>0.9908083908859752</v>
+        <v>0.9902930159431937</v>
       </c>
       <c r="G22">
-        <v>0.9937035239468789</v>
+        <v>0.9959269736994799</v>
       </c>
       <c r="H22">
-        <v>1.017632793097454</v>
+        <v>0.9901345802959458</v>
       </c>
       <c r="I22">
-        <v>0.9944137557042249</v>
+        <v>0.9975805539792593</v>
       </c>
       <c r="J22">
-        <v>1.00029812976866</v>
+        <v>1.024586214661496</v>
       </c>
       <c r="K22">
-        <v>0.9908083908859752</v>
+        <v>0.9902930159431937</v>
       </c>
       <c r="L22">
-        <v>1.00029812976866</v>
+        <v>1.024586214661496</v>
       </c>
       <c r="M22">
-        <v>1.023821600789102</v>
+        <v>1.041339981610421</v>
       </c>
       <c r="N22">
-        <v>0.9908083908859752</v>
+        <v>0.9902930159431937</v>
       </c>
       <c r="O22">
-        <v>1.023821600789102</v>
+        <v>1.041339981610421</v>
       </c>
       <c r="P22">
-        <v>1.012059865278881</v>
+        <v>1.032963098135959</v>
       </c>
       <c r="Q22">
-        <v>1.019818300163002</v>
+        <v>1.015935990246339</v>
       </c>
       <c r="R22">
-        <v>1.004976040481246</v>
+        <v>1.018739737405037</v>
       </c>
       <c r="S22">
-        <v>1.013311576698221</v>
+        <v>1.018819398384725</v>
       </c>
       <c r="T22">
-        <v>1.004976040481246</v>
+        <v>1.018739737405037</v>
       </c>
       <c r="U22">
-        <v>1.00768578024516</v>
+        <v>1.011687802774342</v>
       </c>
       <c r="V22">
-        <v>1.004310302373323</v>
+        <v>1.007408845408112</v>
       </c>
       <c r="W22">
-        <v>1.004270335347306</v>
+        <v>1.004708426469684</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2073,67 +2130,1416 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.013321958017889</v>
+      </c>
+      <c r="D23">
+        <v>0.9828173365193058</v>
+      </c>
+      <c r="E23">
+        <v>0.9841786959919395</v>
+      </c>
+      <c r="F23">
+        <v>0.9841786959919395</v>
+      </c>
+      <c r="G23">
+        <v>0.9968544533038287</v>
+      </c>
+      <c r="H23">
+        <v>0.9834437710370558</v>
+      </c>
+      <c r="I23">
+        <v>0.9931159148817466</v>
+      </c>
+      <c r="J23">
+        <v>1.059735053009184</v>
+      </c>
+      <c r="K23">
+        <v>0.9841786959919395</v>
+      </c>
+      <c r="L23">
+        <v>1.059735053009184</v>
+      </c>
+      <c r="M23">
+        <v>1.059869219165151</v>
+      </c>
+      <c r="N23">
+        <v>0.9841786959919395</v>
+      </c>
+      <c r="O23">
+        <v>1.059869219165151</v>
+      </c>
+      <c r="P23">
+        <v>1.059802136087168</v>
+      </c>
+      <c r="Q23">
+        <v>1.021343277842228</v>
+      </c>
+      <c r="R23">
+        <v>1.034594322722092</v>
+      </c>
+      <c r="S23">
+        <v>1.034140536231214</v>
+      </c>
+      <c r="T23">
+        <v>1.034594322722092</v>
+      </c>
+      <c r="U23">
+        <v>1.021650076171395</v>
+      </c>
+      <c r="V23">
+        <v>1.014155800135504</v>
+      </c>
+      <c r="W23">
+        <v>1.009167050240763</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.7944825319457682</v>
+      </c>
+      <c r="D24">
+        <v>1.369369559480381</v>
+      </c>
+      <c r="E24">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="F24">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="G24">
+        <v>1.066947658021112</v>
+      </c>
+      <c r="H24">
+        <v>1.351068282767972</v>
+      </c>
+      <c r="I24">
+        <v>1.052140554690341</v>
+      </c>
+      <c r="J24">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="K24">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="L24">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="M24">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="N24">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="O24">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="P24">
+        <v>0.3977809023411265</v>
+      </c>
+      <c r="Q24">
+        <v>0.9215499824961236</v>
+      </c>
+      <c r="R24">
+        <v>0.4931611126608935</v>
+      </c>
+      <c r="S24">
+        <v>0.7216437880542111</v>
+      </c>
+      <c r="T24">
+        <v>0.4931611126608936</v>
+      </c>
+      <c r="U24">
+        <v>0.7122132243657653</v>
+      </c>
+      <c r="V24">
+        <v>0.7065548861526978</v>
+      </c>
+      <c r="W24">
+        <v>0.8891864906110317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.223465880021654</v>
+      </c>
+      <c r="D25">
+        <v>0.4599217185580263</v>
+      </c>
+      <c r="E25">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="F25">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="G25">
+        <v>0.9419378417876704</v>
+      </c>
+      <c r="H25">
+        <v>0.4915436637177757</v>
+      </c>
+      <c r="I25">
+        <v>1.006071256734195</v>
+      </c>
+      <c r="J25">
+        <v>1.713282696435615</v>
+      </c>
+      <c r="K25">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="L25">
+        <v>1.713282696435615</v>
+      </c>
+      <c r="M25">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="N25">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="O25">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="P25">
+        <v>1.632790694467605</v>
+      </c>
+      <c r="Q25">
+        <v>1.006110205528811</v>
+      </c>
+      <c r="R25">
+        <v>1.613428037740003</v>
+      </c>
+      <c r="S25">
+        <v>1.241834369164412</v>
+      </c>
+      <c r="T25">
+        <v>1.613428037740003</v>
+      </c>
+      <c r="U25">
+        <v>1.325051457944509</v>
+      </c>
+      <c r="V25">
+        <v>1.374981711212567</v>
+      </c>
+      <c r="W25">
+        <v>1.120403059254917</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.02136135548971019</v>
+      </c>
+      <c r="D26">
+        <v>1.303541453734514</v>
+      </c>
+      <c r="E26">
+        <v>0.000597170477148993</v>
+      </c>
+      <c r="F26">
+        <v>0.000597170477148993</v>
+      </c>
+      <c r="G26">
+        <v>3.039243718857056</v>
+      </c>
+      <c r="H26">
+        <v>0.209749771944535</v>
+      </c>
+      <c r="I26">
+        <v>1.119530140244971</v>
+      </c>
+      <c r="J26">
+        <v>4.958971238726512</v>
+      </c>
+      <c r="K26">
+        <v>0.0005971704771488298</v>
+      </c>
+      <c r="L26">
+        <v>4.958971238726512</v>
+      </c>
+      <c r="M26">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="N26">
+        <v>0.000597170477148993</v>
+      </c>
+      <c r="O26">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="P26">
+        <v>2.501923422475643</v>
+      </c>
+      <c r="Q26">
+        <v>0.6742085299796442</v>
+      </c>
+      <c r="R26">
+        <v>1.668148005142812</v>
+      </c>
+      <c r="S26">
+        <v>2.1024627662286</v>
+      </c>
+      <c r="T26">
+        <v>1.668148005142812</v>
+      </c>
+      <c r="U26">
+        <v>1.576996367290737</v>
+      </c>
+      <c r="V26">
+        <v>1.26171652792802</v>
+      </c>
+      <c r="W26">
+        <v>1.337233806962403</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.4656452557518345</v>
+      </c>
+      <c r="D27">
+        <v>1.558745773631856</v>
+      </c>
+      <c r="E27">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="F27">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="G27">
+        <v>1.417300467248981</v>
+      </c>
+      <c r="H27">
+        <v>1.040952454476435</v>
+      </c>
+      <c r="I27">
+        <v>1.512386817447693</v>
+      </c>
+      <c r="J27">
+        <v>0.6311671708583744</v>
+      </c>
+      <c r="K27">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="L27">
+        <v>0.6311671708583744</v>
+      </c>
+      <c r="M27">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="N27">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="O27">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="P27">
+        <v>0.6318238847704601</v>
+      </c>
+      <c r="Q27">
+        <v>1.095613186157201</v>
+      </c>
+      <c r="R27">
+        <v>0.4471831050457984</v>
+      </c>
+      <c r="S27">
+        <v>0.9407978477242587</v>
+      </c>
+      <c r="T27">
+        <v>0.4471831050457984</v>
+      </c>
+      <c r="U27">
+        <v>0.7250737721923127</v>
+      </c>
+      <c r="V27">
+        <v>0.5956393268731451</v>
+      </c>
+      <c r="W27">
+        <v>0.9170725104617743</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.082900740148067</v>
+      </c>
+      <c r="D28">
+        <v>0.9254581795815575</v>
+      </c>
+      <c r="E28">
+        <v>2.26116311508523</v>
+      </c>
+      <c r="F28">
+        <v>2.26116311508523</v>
+      </c>
+      <c r="G28">
+        <v>1.015183807164584</v>
+      </c>
+      <c r="H28">
+        <v>1.101099253437838</v>
+      </c>
+      <c r="I28">
+        <v>0.4453545136827233</v>
+      </c>
+      <c r="J28">
+        <v>1.567051047594804</v>
+      </c>
+      <c r="K28">
+        <v>2.26116311508523</v>
+      </c>
+      <c r="L28">
+        <v>1.567051047594804</v>
+      </c>
+      <c r="M28">
+        <v>1.062728947433483</v>
+      </c>
+      <c r="N28">
+        <v>2.26116311508523</v>
+      </c>
+      <c r="O28">
+        <v>1.062728947433483</v>
+      </c>
+      <c r="P28">
+        <v>1.314889997514144</v>
+      </c>
+      <c r="Q28">
+        <v>0.9940935635075203</v>
+      </c>
+      <c r="R28">
+        <v>1.63031437003784</v>
+      </c>
+      <c r="S28">
+        <v>1.185079391536615</v>
+      </c>
+      <c r="T28">
+        <v>1.63031437003784</v>
+      </c>
+      <c r="U28">
+        <v>1.454100322423769</v>
+      </c>
+      <c r="V28">
+        <v>1.615512880956061</v>
+      </c>
+      <c r="W28">
+        <v>1.182617450516036</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.109272756107178</v>
+      </c>
+      <c r="D29">
+        <v>0.9127307267492238</v>
+      </c>
+      <c r="E29">
+        <v>1.806525115264698</v>
+      </c>
+      <c r="F29">
+        <v>1.806525115264698</v>
+      </c>
+      <c r="G29">
+        <v>0.9625863051671832</v>
+      </c>
+      <c r="H29">
+        <v>1.037105040499214</v>
+      </c>
+      <c r="I29">
+        <v>0.6312529438190712</v>
+      </c>
+      <c r="J29">
+        <v>1.32591721571932</v>
+      </c>
+      <c r="K29">
+        <v>1.806525115264698</v>
+      </c>
+      <c r="L29">
+        <v>1.32591721571932</v>
+      </c>
+      <c r="M29">
+        <v>1.216473294000139</v>
+      </c>
+      <c r="N29">
+        <v>1.806525115264698</v>
+      </c>
+      <c r="O29">
+        <v>1.216473294000139</v>
+      </c>
+      <c r="P29">
+        <v>1.27119525485973</v>
+      </c>
+      <c r="Q29">
+        <v>1.064602010374681</v>
+      </c>
+      <c r="R29">
+        <v>1.449638541661386</v>
+      </c>
+      <c r="S29">
+        <v>1.151707078822894</v>
+      </c>
+      <c r="T29">
+        <v>1.449638541661386</v>
+      </c>
+      <c r="U29">
+        <v>1.315411587933345</v>
+      </c>
+      <c r="V29">
+        <v>1.413634293399616</v>
+      </c>
+      <c r="W29">
+        <v>1.125232924665753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.159699109862301</v>
+      </c>
+      <c r="D30">
+        <v>0.8881380745764803</v>
+      </c>
+      <c r="E30">
+        <v>0.9010365970874347</v>
+      </c>
+      <c r="F30">
+        <v>0.9010365970874347</v>
+      </c>
+      <c r="G30">
+        <v>0.8599705716408671</v>
+      </c>
+      <c r="H30">
+        <v>0.910232477253441</v>
+      </c>
+      <c r="I30">
+        <v>1.001616385796526</v>
+      </c>
+      <c r="J30">
+        <v>0.8547939811050118</v>
+      </c>
+      <c r="K30">
+        <v>0.9010365970874347</v>
+      </c>
+      <c r="L30">
+        <v>0.8547939811050118</v>
+      </c>
+      <c r="M30">
+        <v>1.513795381184402</v>
+      </c>
+      <c r="N30">
+        <v>0.9010365970874347</v>
+      </c>
+      <c r="O30">
+        <v>1.513795381184402</v>
+      </c>
+      <c r="P30">
+        <v>1.184294681144707</v>
+      </c>
+      <c r="Q30">
+        <v>1.200966727880441</v>
+      </c>
+      <c r="R30">
+        <v>1.089875319792283</v>
+      </c>
+      <c r="S30">
+        <v>1.085575812288631</v>
+      </c>
+      <c r="T30">
+        <v>1.089875319792283</v>
+      </c>
+      <c r="U30">
+        <v>1.039441008488332</v>
+      </c>
+      <c r="V30">
+        <v>1.011760126208153</v>
+      </c>
+      <c r="W30">
+        <v>1.011160322313308</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>1.229428989894557</v>
+      </c>
+      <c r="D31">
+        <v>0.8117411162268257</v>
+      </c>
+      <c r="E31">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="F31">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="G31">
+        <v>0.8311071192781608</v>
+      </c>
+      <c r="H31">
+        <v>0.8460086031697764</v>
+      </c>
+      <c r="I31">
+        <v>0.9935670638118933</v>
+      </c>
+      <c r="J31">
+        <v>0.8793152374133547</v>
+      </c>
+      <c r="K31">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="L31">
+        <v>0.8793152374133547</v>
+      </c>
+      <c r="M31">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="N31">
+        <v>0.8475136819228377</v>
+      </c>
+      <c r="O31">
+        <v>1.759933844389751</v>
+      </c>
+      <c r="P31">
+        <v>1.319624540901553</v>
+      </c>
+      <c r="Q31">
+        <v>1.285837480308288</v>
+      </c>
+      <c r="R31">
+        <v>1.162254254575315</v>
+      </c>
+      <c r="S31">
+        <v>1.150330066009977</v>
+      </c>
+      <c r="T31">
+        <v>1.162254254575315</v>
+      </c>
+      <c r="U31">
+        <v>1.074625969988192</v>
+      </c>
+      <c r="V31">
+        <v>1.029203512375121</v>
+      </c>
+      <c r="W31">
+        <v>1.024826957013394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>1.042512342456439</v>
+      </c>
+      <c r="D32">
+        <v>0.9271429947397259</v>
+      </c>
+      <c r="E32">
+        <v>2.677525327745206</v>
+      </c>
+      <c r="F32">
+        <v>2.677525327745206</v>
+      </c>
+      <c r="G32">
+        <v>1.090066656140822</v>
+      </c>
+      <c r="H32">
+        <v>1.148466118401369</v>
+      </c>
+      <c r="I32">
+        <v>0.2572346884498629</v>
+      </c>
+      <c r="J32">
+        <v>1.995201695223288</v>
+      </c>
+      <c r="K32">
+        <v>2.677525327745206</v>
+      </c>
+      <c r="L32">
+        <v>1.995201695223288</v>
+      </c>
+      <c r="M32">
+        <v>0.8998707548821646</v>
+      </c>
+      <c r="N32">
+        <v>2.677525327745206</v>
+      </c>
+      <c r="O32">
+        <v>0.8998707548821646</v>
+      </c>
+      <c r="P32">
+        <v>1.447536225052726</v>
+      </c>
+      <c r="Q32">
+        <v>0.9135068748109453</v>
+      </c>
+      <c r="R32">
+        <v>1.857532592616886</v>
+      </c>
+      <c r="S32">
+        <v>1.274071814948393</v>
+      </c>
+      <c r="T32">
+        <v>1.857532592616886</v>
+      </c>
+      <c r="U32">
+        <v>1.624935193147596</v>
+      </c>
+      <c r="V32">
+        <v>1.835453220067118</v>
+      </c>
+      <c r="W32">
+        <v>1.25475257225486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>0.6282955952726313</v>
+      </c>
+      <c r="D33">
+        <v>0.409366587368421</v>
+      </c>
+      <c r="E33">
+        <v>0.001638627301052632</v>
+      </c>
+      <c r="F33">
+        <v>0.001638627301052632</v>
+      </c>
+      <c r="G33">
+        <v>1.467926027147368</v>
+      </c>
+      <c r="H33">
+        <v>0.06229593718947368</v>
+      </c>
+      <c r="I33">
+        <v>1.765329211578947</v>
+      </c>
+      <c r="J33">
+        <v>3.430424519099474</v>
+      </c>
+      <c r="K33">
+        <v>0.001638627301052632</v>
+      </c>
+      <c r="L33">
+        <v>3.430424519099474</v>
+      </c>
+      <c r="M33">
+        <v>2.11789531256321</v>
+      </c>
+      <c r="N33">
+        <v>0.001638627301052632</v>
+      </c>
+      <c r="O33">
+        <v>2.11789531256321</v>
+      </c>
+      <c r="P33">
+        <v>2.774159915831342</v>
+      </c>
+      <c r="Q33">
+        <v>1.263630949965816</v>
+      </c>
+      <c r="R33">
+        <v>1.849986152987912</v>
+      </c>
+      <c r="S33">
+        <v>1.985895473010369</v>
+      </c>
+      <c r="T33">
+        <v>1.849986152987912</v>
+      </c>
+      <c r="U33">
+        <v>1.489831261583039</v>
+      </c>
+      <c r="V33">
+        <v>1.192192734726642</v>
+      </c>
+      <c r="W33">
+        <v>1.235396477190072</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>1.060862294730526</v>
+      </c>
+      <c r="D34">
+        <v>0.8933146486315789</v>
+      </c>
+      <c r="E34">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="F34">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="G34">
+        <v>1.082767048579474</v>
+      </c>
+      <c r="H34">
+        <v>1.103891457578947</v>
+      </c>
+      <c r="I34">
+        <v>0.267519683641579</v>
+      </c>
+      <c r="J34">
+        <v>2.117882948531579</v>
+      </c>
+      <c r="K34">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="L34">
+        <v>2.117882948531579</v>
+      </c>
+      <c r="M34">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="N34">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="O34">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="P34">
+        <v>1.591838947785869</v>
+      </c>
+      <c r="Q34">
+        <v>0.9795547978358685</v>
+      </c>
+      <c r="R34">
+        <v>1.918555157105492</v>
+      </c>
+      <c r="S34">
+        <v>1.358997514734439</v>
+      </c>
+      <c r="T34">
+        <v>1.918555157105491</v>
+      </c>
+      <c r="U34">
+        <v>1.662245029987013</v>
+      </c>
+      <c r="V34">
+        <v>1.844193539138558</v>
+      </c>
+      <c r="W34">
+        <v>1.270502575559822</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>1.710071692816775</v>
+      </c>
+      <c r="D35">
+        <v>0.4530427732680958</v>
+      </c>
+      <c r="E35">
+        <v>0.451020274558218</v>
+      </c>
+      <c r="F35">
+        <v>0.451020274558218</v>
+      </c>
+      <c r="G35">
+        <v>0.4306750039660142</v>
+      </c>
+      <c r="H35">
+        <v>0.4691449368573655</v>
+      </c>
+      <c r="I35">
+        <v>0.8643249463560656</v>
+      </c>
+      <c r="J35">
+        <v>0.4147466676310699</v>
+      </c>
+      <c r="K35">
+        <v>0.451020274558218</v>
+      </c>
+      <c r="L35">
+        <v>0.4147466676310699</v>
+      </c>
+      <c r="M35">
+        <v>4.582168773820876</v>
+      </c>
+      <c r="N35">
+        <v>0.451020274558218</v>
+      </c>
+      <c r="O35">
+        <v>4.582168773820876</v>
+      </c>
+      <c r="P35">
+        <v>2.498457720725973</v>
+      </c>
+      <c r="Q35">
+        <v>2.517605773544486</v>
+      </c>
+      <c r="R35">
+        <v>1.815978572003388</v>
+      </c>
+      <c r="S35">
+        <v>1.816652738240014</v>
+      </c>
+      <c r="T35">
+        <v>1.815978572003388</v>
+      </c>
+      <c r="U35">
+        <v>1.475244622319565</v>
+      </c>
+      <c r="V35">
+        <v>1.270399752767295</v>
+      </c>
+      <c r="W35">
+        <v>1.17189938365931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>1.000709798757186</v>
+      </c>
+      <c r="D36">
+        <v>1.003923626246886</v>
+      </c>
+      <c r="E36">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="F36">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="G36">
+        <v>0.9979144459301045</v>
+      </c>
+      <c r="H36">
+        <v>1.002367661560521</v>
+      </c>
+      <c r="I36">
+        <v>1.002159925639478</v>
+      </c>
+      <c r="J36">
+        <v>0.9905167075192097</v>
+      </c>
+      <c r="K36">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="L36">
+        <v>0.9905167075192097</v>
+      </c>
+      <c r="M36">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="N36">
+        <v>0.985687813129126</v>
+      </c>
+      <c r="O36">
+        <v>1.009255423160633</v>
+      </c>
+      <c r="P36">
+        <v>0.9998860653399215</v>
+      </c>
+      <c r="Q36">
+        <v>1.00658952470376</v>
+      </c>
+      <c r="R36">
+        <v>0.9951533146029897</v>
+      </c>
+      <c r="S36">
+        <v>1.001231918975576</v>
+      </c>
+      <c r="T36">
+        <v>0.9951533146029896</v>
+      </c>
+      <c r="U36">
+        <v>0.9973458925139637</v>
+      </c>
+      <c r="V36">
+        <v>0.995014276636996</v>
+      </c>
+      <c r="W36">
+        <v>0.999066925242893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>1.000470824593208</v>
+      </c>
+      <c r="D37">
+        <v>0.991081757975794</v>
+      </c>
+      <c r="E37">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="F37">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="G37">
+        <v>1.000022623634993</v>
+      </c>
+      <c r="H37">
+        <v>0.9943624284904866</v>
+      </c>
+      <c r="I37">
+        <v>0.9991594484619741</v>
+      </c>
+      <c r="J37">
+        <v>1.013760353741505</v>
+      </c>
+      <c r="K37">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="L37">
+        <v>1.013760353741505</v>
+      </c>
+      <c r="M37">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="N37">
+        <v>1.018771227373578</v>
+      </c>
+      <c r="O37">
+        <v>0.9939436546397209</v>
+      </c>
+      <c r="P37">
+        <v>1.003852004190613</v>
+      </c>
+      <c r="Q37">
+        <v>0.9925127063077575</v>
+      </c>
+      <c r="R37">
+        <v>1.008825078584935</v>
+      </c>
+      <c r="S37">
+        <v>0.99959525545234</v>
+      </c>
+      <c r="T37">
+        <v>1.008825078584935</v>
+      </c>
+      <c r="U37">
+        <v>1.004389248432649</v>
+      </c>
+      <c r="V37">
+        <v>1.007265644220835</v>
+      </c>
+      <c r="W37">
+        <v>1.001446539863907</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9976694890492536</v>
+      </c>
+      <c r="D38">
+        <v>1.015814999536902</v>
+      </c>
+      <c r="E38">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="F38">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="G38">
+        <v>0.9937035239468789</v>
+      </c>
+      <c r="H38">
+        <v>1.017632793097454</v>
+      </c>
+      <c r="I38">
+        <v>0.9944137557042249</v>
+      </c>
+      <c r="J38">
+        <v>1.00029812976866</v>
+      </c>
+      <c r="K38">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="L38">
+        <v>1.00029812976866</v>
+      </c>
+      <c r="M38">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="N38">
+        <v>0.9908083908859752</v>
+      </c>
+      <c r="O38">
+        <v>1.023821600789102</v>
+      </c>
+      <c r="P38">
+        <v>1.012059865278881</v>
+      </c>
+      <c r="Q38">
+        <v>1.019818300163002</v>
+      </c>
+      <c r="R38">
+        <v>1.004976040481246</v>
+      </c>
+      <c r="S38">
+        <v>1.013311576698221</v>
+      </c>
+      <c r="T38">
+        <v>1.004976040481246</v>
+      </c>
+      <c r="U38">
+        <v>1.00768578024516</v>
+      </c>
+      <c r="V38">
+        <v>1.004310302373323</v>
+      </c>
+      <c r="W38">
+        <v>1.004270335347306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>1.01461141763559</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.056516337205187</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>0.901708431581948</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.901708431581948</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>0.9969433928532002</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>1.05412377517706</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>0.9882546929180792</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>0.9189962377490069</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>0.901708431581948</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>0.9189962377490069</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>1.061957687523567</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.901708431581948</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>1.061957687523567</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9904769626362867</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>1.059237012364377</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9608874522848404</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>1.012490087492587</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9608874522848404</v>
       </c>
-      <c r="U23">
+      <c r="U39">
         <v>0.9847946735149271</v>
       </c>
-      <c r="V23">
+      <c r="V39">
         <v>0.9681774251283313</v>
       </c>
-      <c r="W23">
+      <c r="W39">
         <v>0.9991389965804548</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>1.140854504698239</v>
+      </c>
+      <c r="D40">
+        <v>0.8863319239957177</v>
+      </c>
+      <c r="E40">
+        <v>0.8746729245891567</v>
+      </c>
+      <c r="F40">
+        <v>0.8746729245891567</v>
+      </c>
+      <c r="G40">
+        <v>0.8822228433520899</v>
+      </c>
+      <c r="H40">
+        <v>0.8958434101527728</v>
+      </c>
+      <c r="I40">
+        <v>1.032793534391854</v>
+      </c>
+      <c r="J40">
+        <v>0.9013365646971886</v>
+      </c>
+      <c r="K40">
+        <v>0.8746729245891567</v>
+      </c>
+      <c r="L40">
+        <v>0.9013365646971886</v>
+      </c>
+      <c r="M40">
+        <v>1.447026928272622</v>
+      </c>
+      <c r="N40">
+        <v>0.8746729245891567</v>
+      </c>
+      <c r="O40">
+        <v>1.447026928272622</v>
+      </c>
+      <c r="P40">
+        <v>1.174181746484905</v>
+      </c>
+      <c r="Q40">
+        <v>1.16667942613417</v>
+      </c>
+      <c r="R40">
+        <v>1.074345472519656</v>
+      </c>
+      <c r="S40">
+        <v>1.078231805655176</v>
+      </c>
+      <c r="T40">
+        <v>1.074345472519656</v>
+      </c>
+      <c r="U40">
+        <v>1.027342085388671</v>
+      </c>
+      <c r="V40">
+        <v>0.9968082532287683</v>
+      </c>
+      <c r="W40">
+        <v>1.007635329268705</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>1.170219297433361</v>
+      </c>
+      <c r="D41">
+        <v>0.9068439314344294</v>
+      </c>
+      <c r="E41">
+        <v>1.3017754595427</v>
+      </c>
+      <c r="F41">
+        <v>1.3017754595427</v>
+      </c>
+      <c r="G41">
+        <v>0.6764780045414862</v>
+      </c>
+      <c r="H41">
+        <v>1.122140157576804</v>
+      </c>
+      <c r="I41">
+        <v>0.9221713125690735</v>
+      </c>
+      <c r="J41">
+        <v>0.5161395353202051</v>
+      </c>
+      <c r="K41">
+        <v>1.3017754595427</v>
+      </c>
+      <c r="L41">
+        <v>0.5161395353202051</v>
+      </c>
+      <c r="M41">
+        <v>1.112101464419362</v>
+      </c>
+      <c r="N41">
+        <v>1.3017754595427</v>
+      </c>
+      <c r="O41">
+        <v>1.112101464419362</v>
+      </c>
+      <c r="P41">
+        <v>0.8141204998697835</v>
+      </c>
+      <c r="Q41">
+        <v>1.009472697926896</v>
+      </c>
+      <c r="R41">
+        <v>0.9766721530940892</v>
+      </c>
+      <c r="S41">
+        <v>0.8450283103913322</v>
+      </c>
+      <c r="T41">
+        <v>0.9766721530940892</v>
+      </c>
+      <c r="U41">
+        <v>0.9592150976791742</v>
+      </c>
+      <c r="V41">
+        <v>1.02772717005188</v>
+      </c>
+      <c r="W41">
+        <v>0.9659836453546777</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>1.41345386054277</v>
+      </c>
+      <c r="D42">
+        <v>0.7065787941938382</v>
+      </c>
+      <c r="E42">
+        <v>1.50952257457104</v>
+      </c>
+      <c r="F42">
+        <v>1.50952257457104</v>
+      </c>
+      <c r="G42">
+        <v>0.6136796492566274</v>
+      </c>
+      <c r="H42">
+        <v>1.033268566286217</v>
+      </c>
+      <c r="I42">
+        <v>0.7398910503967271</v>
+      </c>
+      <c r="J42">
+        <v>0.5955640496851504</v>
+      </c>
+      <c r="K42">
+        <v>1.50952257457104</v>
+      </c>
+      <c r="L42">
+        <v>0.5955640496851504</v>
+      </c>
+      <c r="M42">
+        <v>1.380542607347321</v>
+      </c>
+      <c r="N42">
+        <v>1.50952257457104</v>
+      </c>
+      <c r="O42">
+        <v>1.380542607347321</v>
+      </c>
+      <c r="P42">
+        <v>0.9880533285162357</v>
+      </c>
+      <c r="Q42">
+        <v>1.04356070077058</v>
+      </c>
+      <c r="R42">
+        <v>1.161876410534504</v>
+      </c>
+      <c r="S42">
+        <v>0.8942284837421033</v>
+      </c>
+      <c r="T42">
+        <v>1.161876410534504</v>
+      </c>
+      <c r="U42">
+        <v>1.048052006449337</v>
+      </c>
+      <c r="V42">
+        <v>1.140346120073678</v>
+      </c>
+      <c r="W42">
+        <v>0.9990626440349615</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW10.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,55 +85,52 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[3, 3, 1]</t>
+  </si>
+  <si>
+    <t>[3, 1, 1]</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
   </si>
   <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[5, 1, 1]</t>
+  </si>
+  <si>
+    <t>[4, 2, 2]</t>
+  </si>
+  <si>
+    <t>[4, 2, 0]</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[3, 3, 3]</t>
+  </si>
+  <si>
     <t>[2, 0, 0]</t>
   </si>
   <si>
     <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 1]</t>
-  </si>
-  <si>
-    <t>[3, 3, 3]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 0]</t>
-  </si>
-  <si>
-    <t>[4, 2, 2]</t>
-  </si>
-  <si>
-    <t>[5, 1, 1]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -488,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG19"/>
+  <dimension ref="A1:W29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:23">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -561,38 +591,8 @@
       <c r="W1" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -600,100 +600,70 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="U2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="V2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="W2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>36</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>37</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -701,70 +671,70 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.07464665953904</v>
+        <v>1.002800780393016</v>
       </c>
       <c r="D3">
-        <v>1.03600041320105</v>
+        <v>0.9961266680433496</v>
       </c>
       <c r="E3">
-        <v>1.005276975179548</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="F3">
-        <v>1.07464665953904</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="G3">
-        <v>0.9976091615459117</v>
+        <v>0.997913401022997</v>
       </c>
       <c r="H3">
-        <v>1.00258887034924</v>
+        <v>0.9964841532641266</v>
       </c>
       <c r="I3">
-        <v>1.07464665953904</v>
+        <v>0.9998601342432211</v>
       </c>
       <c r="J3">
-        <v>1.03600041320105</v>
+        <v>1.005798931538653</v>
       </c>
       <c r="K3">
-        <v>0.9667967112629138</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="L3">
-        <v>1.004971985811638</v>
+        <v>1.005798931538653</v>
       </c>
       <c r="M3">
-        <v>1.00275216922602</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="N3">
-        <v>1.07464665953904</v>
+        <v>0.9964548033553053</v>
       </c>
       <c r="O3">
-        <v>1.005276975179548</v>
+        <v>1.013853706632245</v>
       </c>
       <c r="P3">
-        <v>1.020638694190299</v>
+        <v>1.009826319085449</v>
       </c>
       <c r="Q3">
-        <v>1.00144306836273</v>
+        <v>1.004990187337798</v>
       </c>
       <c r="R3">
-        <v>1.038641349306546</v>
+        <v>1.005369147175401</v>
       </c>
       <c r="S3">
-        <v>1.012962183308837</v>
+        <v>1.005259768738083</v>
       </c>
       <c r="T3">
-        <v>1.038641349306546</v>
+        <v>1.005369147175401</v>
       </c>
       <c r="U3">
-        <v>1.028383302366388</v>
+        <v>1.003058527392388</v>
       </c>
       <c r="V3">
-        <v>1.037635973800918</v>
+        <v>1.001737782584972</v>
       </c>
       <c r="W3">
-        <v>1.01133036826442</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>1.001161572311614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -772,70 +742,70 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.141933910465841</v>
+        <v>1.140854504698239</v>
       </c>
       <c r="D4">
-        <v>1.067304768508322</v>
+        <v>0.8863319239957177</v>
       </c>
       <c r="E4">
-        <v>1.005414003669555</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="F4">
-        <v>1.141933910465841</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="G4">
-        <v>0.9941866367470358</v>
+        <v>0.8822228433520899</v>
       </c>
       <c r="H4">
-        <v>1.004080251605465</v>
+        <v>0.8958434101527728</v>
       </c>
       <c r="I4">
-        <v>1.141933910465841</v>
+        <v>1.032793534391854</v>
       </c>
       <c r="J4">
-        <v>1.067304768508322</v>
+        <v>0.9013365646971886</v>
       </c>
       <c r="K4">
-        <v>0.9387568670753368</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="L4">
-        <v>1.012508622009755</v>
+        <v>0.9013365646971886</v>
       </c>
       <c r="M4">
-        <v>1.00589683376951</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="N4">
-        <v>1.141933910465841</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="O4">
-        <v>1.005414003669555</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="P4">
-        <v>1.036359386088939</v>
+        <v>1.174181746484905</v>
       </c>
       <c r="Q4">
-        <v>0.9998003202082953</v>
+        <v>1.16667942613417</v>
       </c>
       <c r="R4">
-        <v>1.071550894214573</v>
+        <v>1.074345472519656</v>
       </c>
       <c r="S4">
-        <v>1.022301802974971</v>
+        <v>1.078231805655176</v>
       </c>
       <c r="T4">
-        <v>1.071550894214573</v>
+        <v>1.074345472519656</v>
       </c>
       <c r="U4">
-        <v>1.052209829847688</v>
+        <v>1.027342085388671</v>
       </c>
       <c r="V4">
-        <v>1.070154645971319</v>
+        <v>0.9968082532287683</v>
       </c>
       <c r="W4">
-        <v>1.021260236731353</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>1.007635329268705</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -843,70 +813,70 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.280146591999447</v>
+        <v>1.185565823172503</v>
       </c>
       <c r="D5">
-        <v>1.136261537240609</v>
+        <v>0.8682793613472605</v>
       </c>
       <c r="E5">
-        <v>1.024006648125157</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="F5">
-        <v>1.280146591999447</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="G5">
-        <v>0.9949655897584324</v>
+        <v>0.8431931772352519</v>
       </c>
       <c r="H5">
-        <v>1.020479206332762</v>
+        <v>0.8972175690883274</v>
       </c>
       <c r="I5">
-        <v>1.280146591999447</v>
+        <v>0.970231022095971</v>
       </c>
       <c r="J5">
-        <v>1.136261537240609</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="K5">
-        <v>0.8853599613988138</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="L5">
-        <v>1.025447724311187</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="M5">
-        <v>1.014612439468263</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="N5">
-        <v>1.280146591999447</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="O5">
-        <v>1.024006648125157</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="P5">
-        <v>1.080134092682883</v>
+        <v>1.250930894006107</v>
       </c>
       <c r="Q5">
-        <v>1.009486118941795</v>
+        <v>1.260135105379435</v>
       </c>
       <c r="R5">
-        <v>1.146804925788405</v>
+        <v>1.147513359789716</v>
       </c>
       <c r="S5">
-        <v>1.051744591708066</v>
+        <v>1.123380383119825</v>
       </c>
       <c r="T5">
-        <v>1.146804925788405</v>
+        <v>1.147513359789716</v>
       </c>
       <c r="U5">
-        <v>1.108845091780911</v>
+        <v>1.077704860179102</v>
       </c>
       <c r="V5">
-        <v>1.143105391824619</v>
+        <v>1.050299546414668</v>
       </c>
       <c r="W5">
-        <v>1.047659962329334</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>1.025878379038557</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -914,70 +884,70 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.503450978919303</v>
+        <v>1.710071692816775</v>
       </c>
       <c r="D6">
-        <v>1.276797081617945</v>
+        <v>0.4530427732680958</v>
       </c>
       <c r="E6">
-        <v>1.111510178399358</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="F6">
-        <v>1.503450978919303</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="G6">
-        <v>1.075450033364334</v>
+        <v>0.4306750039660142</v>
       </c>
       <c r="H6">
-        <v>1.027698505207559</v>
+        <v>0.4691449368573655</v>
       </c>
       <c r="I6">
-        <v>1.503450978919303</v>
+        <v>0.8643249463560656</v>
       </c>
       <c r="J6">
-        <v>1.276797081617945</v>
+        <v>0.4147466676310699</v>
       </c>
       <c r="K6">
-        <v>0.7801431576943801</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="L6">
-        <v>0.9752732093789624</v>
+        <v>0.4147466676310699</v>
       </c>
       <c r="M6">
-        <v>1.024091147947485</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="N6">
-        <v>1.503450978919303</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="O6">
-        <v>1.111510178399358</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="P6">
-        <v>1.194153630008652</v>
+        <v>2.498457720725973</v>
       </c>
       <c r="Q6">
-        <v>1.093480105881846</v>
+        <v>2.517605773544486</v>
       </c>
       <c r="R6">
-        <v>1.297252746312202</v>
+        <v>1.815978572003388</v>
       </c>
       <c r="S6">
-        <v>1.154585764460546</v>
+        <v>1.816652738240014</v>
       </c>
       <c r="T6">
-        <v>1.297252746312202</v>
+        <v>1.815978572003388</v>
       </c>
       <c r="U6">
-        <v>1.241802068075235</v>
+        <v>1.475244622319565</v>
       </c>
       <c r="V6">
-        <v>1.294131850244049</v>
+        <v>1.270399752767295</v>
       </c>
       <c r="W6">
-        <v>1.096801786566166</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>1.17189938365931</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -985,70 +955,70 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9985761432212137</v>
+        <v>1.005901321983825</v>
       </c>
       <c r="D7">
-        <v>1.00104895295471</v>
+        <v>0.9947127720552101</v>
       </c>
       <c r="E7">
-        <v>1.006521569453629</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="F7">
-        <v>0.9985761432212137</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="G7">
-        <v>0.9988328950677954</v>
+        <v>1.00317062105245</v>
       </c>
       <c r="H7">
-        <v>1.001245872009956</v>
+        <v>1.004972558068685</v>
       </c>
       <c r="I7">
-        <v>0.9985761432212137</v>
+        <v>0.964895308688889</v>
       </c>
       <c r="J7">
-        <v>1.00104895295471</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="K7">
-        <v>0.9996406599469811</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="L7">
-        <v>0.9988869136085736</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="M7">
-        <v>0.9990860013351095</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="N7">
-        <v>0.9985761432212137</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="O7">
-        <v>1.006521569453629</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="P7">
-        <v>1.00378526120417</v>
+        <v>1.016412296978854</v>
       </c>
       <c r="Q7">
-        <v>1.002677232260712</v>
+        <v>0.9951882910009466</v>
       </c>
       <c r="R7">
-        <v>1.002048888543184</v>
+        <v>1.038698105969163</v>
       </c>
       <c r="S7">
-        <v>1.002134472492045</v>
+        <v>1.009179122004306</v>
       </c>
       <c r="T7">
-        <v>1.002048888543184</v>
+        <v>1.038698105969163</v>
       </c>
       <c r="U7">
-        <v>1.001244890174337</v>
+        <v>1.027701772490675</v>
       </c>
       <c r="V7">
-        <v>1.000711140783712</v>
+        <v>1.038815362782496</v>
       </c>
       <c r="W7">
-        <v>1.000479875949746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>1.011218362469569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1056,70 +1026,70 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9964548033553059</v>
+        <v>1.000470824593208</v>
       </c>
       <c r="D8">
-        <v>1.005798931538654</v>
+        <v>0.991081757975794</v>
       </c>
       <c r="E8">
-        <v>1.013853706632245</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="F8">
-        <v>0.9964548033553059</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="G8">
-        <v>0.9961266680433499</v>
+        <v>1.000022623634993</v>
       </c>
       <c r="H8">
-        <v>1.002800780393017</v>
+        <v>0.9943624284904866</v>
       </c>
       <c r="I8">
-        <v>0.9964548033553059</v>
+        <v>0.9991594484619741</v>
       </c>
       <c r="J8">
-        <v>1.005798931538654</v>
+        <v>1.013760353741505</v>
       </c>
       <c r="K8">
-        <v>0.9998601342432198</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="L8">
-        <v>0.9964841532641274</v>
+        <v>1.013760353741505</v>
       </c>
       <c r="M8">
-        <v>0.9979134010229965</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="N8">
-        <v>0.9964548033553059</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="O8">
-        <v>1.013853706632245</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="P8">
-        <v>1.00982631908545</v>
+        <v>1.003852004190613</v>
       </c>
       <c r="Q8">
-        <v>1.004990187337798</v>
+        <v>0.9925127063077575</v>
       </c>
       <c r="R8">
-        <v>1.005369147175402</v>
+        <v>1.008825078584935</v>
       </c>
       <c r="S8">
-        <v>1.005259768738083</v>
+        <v>0.99959525545234</v>
       </c>
       <c r="T8">
-        <v>1.005369147175402</v>
+        <v>1.008825078584935</v>
       </c>
       <c r="U8">
-        <v>1.003058527392389</v>
+        <v>1.004389248432649</v>
       </c>
       <c r="V8">
-        <v>1.001737782584972</v>
+        <v>1.007265644220835</v>
       </c>
       <c r="W8">
-        <v>1.001161572311614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>1.001446539863907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1127,70 +1097,70 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9953877755528782</v>
+        <v>1.004080251605465</v>
       </c>
       <c r="D9">
-        <v>1.014034029728343</v>
+        <v>0.9941866367470358</v>
       </c>
       <c r="E9">
-        <v>1.017333196793282</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="F9">
-        <v>0.9953877755528782</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="G9">
-        <v>0.9956823879800555</v>
+        <v>1.00589683376951</v>
       </c>
       <c r="H9">
-        <v>1.003150514330919</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="I9">
-        <v>0.9953877755528782</v>
+        <v>0.9387568670753368</v>
       </c>
       <c r="J9">
-        <v>1.014034029728343</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="K9">
-        <v>0.9987466172221711</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="L9">
-        <v>0.9954910294956575</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="M9">
-        <v>0.9988744502464652</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="N9">
-        <v>0.9953877755528782</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="O9">
-        <v>1.017333196793282</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="P9">
-        <v>1.015683613260813</v>
+        <v>1.036359386088939</v>
       </c>
       <c r="Q9">
-        <v>1.006507792386669</v>
+        <v>0.9998003202082953</v>
       </c>
       <c r="R9">
-        <v>1.008918334024835</v>
+        <v>1.071550894214573</v>
       </c>
       <c r="S9">
-        <v>1.009016538167227</v>
+        <v>1.022301802974971</v>
       </c>
       <c r="T9">
-        <v>1.008918334024835</v>
+        <v>1.071550894214573</v>
       </c>
       <c r="U9">
-        <v>1.00560934751364</v>
+        <v>1.052209829847688</v>
       </c>
       <c r="V9">
-        <v>1.003565033121487</v>
+        <v>1.070154645971319</v>
       </c>
       <c r="W9">
-        <v>1.002337500168722</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>1.021260236731353</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1198,70 +1168,70 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9902930159431937</v>
+        <v>1.74542827408976</v>
       </c>
       <c r="D10">
-        <v>1.024586214661496</v>
+        <v>0.4093214840305256</v>
       </c>
       <c r="E10">
-        <v>1.041339981610421</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="F10">
-        <v>0.9902930159431937</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="G10">
-        <v>0.9905319988822575</v>
+        <v>0.4176553268722348</v>
       </c>
       <c r="H10">
-        <v>1.007274092685418</v>
+        <v>0.4344101240797893</v>
       </c>
       <c r="I10">
-        <v>0.9902930159431937</v>
+        <v>0.8583393323469087</v>
       </c>
       <c r="J10">
-        <v>1.024586214661496</v>
+        <v>0.4442490697387313</v>
       </c>
       <c r="K10">
-        <v>0.9975805539792596</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="L10">
-        <v>0.9901345802959458</v>
+        <v>0.4442490697387313</v>
       </c>
       <c r="M10">
-        <v>0.9959269736994799</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="N10">
-        <v>0.9902930159431937</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="O10">
-        <v>1.041339981610421</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="P10">
-        <v>1.032963098135959</v>
+        <v>2.571597604619469</v>
       </c>
       <c r="Q10">
-        <v>1.015935990246339</v>
+        <v>2.554133811765366</v>
       </c>
       <c r="R10">
-        <v>1.018739737405037</v>
+        <v>1.858516639080022</v>
       </c>
       <c r="S10">
-        <v>1.018819398384725</v>
+        <v>1.850838897756488</v>
       </c>
       <c r="T10">
-        <v>1.018739737405037</v>
+        <v>1.858516639080022</v>
       </c>
       <c r="U10">
-        <v>1.011687802774342</v>
+        <v>1.496217850317648</v>
       </c>
       <c r="V10">
-        <v>1.007408845408112</v>
+        <v>1.283445221854344</v>
       </c>
       <c r="W10">
-        <v>1.004708426469684</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>1.18008805733241</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1269,70 +1239,70 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9841786959919395</v>
+        <v>1.367474823540746</v>
       </c>
       <c r="D11">
-        <v>1.059735053009184</v>
+        <v>0.8133885604667518</v>
       </c>
       <c r="E11">
-        <v>1.059869219165151</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="F11">
-        <v>0.9841786959919395</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="G11">
-        <v>0.9828173365193054</v>
+        <v>0.5280453983022202</v>
       </c>
       <c r="H11">
-        <v>1.013321958017889</v>
+        <v>1.073644975028989</v>
       </c>
       <c r="I11">
-        <v>0.9841786959919395</v>
+        <v>0.8714098666239064</v>
       </c>
       <c r="J11">
-        <v>1.059735053009184</v>
+        <v>0.3449411900293977</v>
       </c>
       <c r="K11">
-        <v>0.9931159148817466</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="L11">
-        <v>0.9834437710370559</v>
+        <v>0.3449411900293977</v>
       </c>
       <c r="M11">
-        <v>0.9968544533038285</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="N11">
-        <v>0.9841786959919395</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="O11">
-        <v>1.059869219165151</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="P11">
-        <v>1.059802136087168</v>
+        <v>0.9460307438964549</v>
       </c>
       <c r="Q11">
-        <v>1.021343277842228</v>
+        <v>1.180254429115132</v>
       </c>
       <c r="R11">
-        <v>1.034594322722092</v>
+        <v>1.031500539437961</v>
       </c>
       <c r="S11">
-        <v>1.034140536231214</v>
+        <v>0.9018166827532205</v>
       </c>
       <c r="T11">
-        <v>1.034594322722092</v>
+        <v>1.031500539437961</v>
       </c>
       <c r="U11">
-        <v>1.021650076171395</v>
+        <v>0.9769725446951587</v>
       </c>
       <c r="V11">
-        <v>1.014155800135504</v>
+        <v>1.022066061860321</v>
       </c>
       <c r="W11">
-        <v>1.009167050240763</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>0.9685581552845621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1340,70 +1310,70 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.6839215333004275</v>
+        <v>1.264619128261257</v>
       </c>
       <c r="D12">
-        <v>0.3218313991703866</v>
+        <v>0.7880443793347369</v>
       </c>
       <c r="E12">
-        <v>0.4737304055118667</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="F12">
-        <v>0.6839215333004275</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="G12">
-        <v>1.36936955948038</v>
+        <v>0.8009084268064524</v>
       </c>
       <c r="H12">
-        <v>0.7944825319457682</v>
+        <v>0.8139834003677884</v>
       </c>
       <c r="I12">
-        <v>0.6839215333004275</v>
+        <v>0.9816128774728091</v>
       </c>
       <c r="J12">
-        <v>0.3218313991703866</v>
+        <v>0.8254987582548408</v>
       </c>
       <c r="K12">
-        <v>1.052140554690342</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="L12">
-        <v>1.351068282767971</v>
+        <v>0.8254987582548408</v>
       </c>
       <c r="M12">
-        <v>1.066947658021112</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="N12">
-        <v>0.6839215333004275</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="O12">
-        <v>0.4737304055118667</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="P12">
-        <v>0.3977809023411267</v>
+        <v>1.404965481477014</v>
       </c>
       <c r="Q12">
-        <v>0.9215499824961235</v>
+        <v>1.386238292016963</v>
       </c>
       <c r="R12">
-        <v>0.4931611126608936</v>
+        <v>1.214166594318239</v>
       </c>
       <c r="S12">
-        <v>0.7216437880542111</v>
+        <v>1.199325114096255</v>
       </c>
       <c r="T12">
-        <v>0.4931611126608936</v>
+        <v>1.214166594318239</v>
       </c>
       <c r="U12">
-        <v>0.7122132243657653</v>
+        <v>1.107636040572363</v>
       </c>
       <c r="V12">
-        <v>0.7065548861526978</v>
+        <v>1.052622596458028</v>
       </c>
       <c r="W12">
-        <v>0.8891864906110317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>1.03645849939972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1411,70 +1381,70 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.5747027242848</v>
+        <v>0.9920021844042621</v>
       </c>
       <c r="D13">
-        <v>1.713282696435615</v>
+        <v>0.9244170059124388</v>
       </c>
       <c r="E13">
-        <v>1.552298692499595</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="F13">
-        <v>1.5747027242848</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="G13">
-        <v>0.4599217185580263</v>
+        <v>1.088278480803946</v>
       </c>
       <c r="H13">
-        <v>1.223465880021655</v>
+        <v>0.9299353547439732</v>
       </c>
       <c r="I13">
-        <v>1.5747027242848</v>
+        <v>0.9800386619398201</v>
       </c>
       <c r="J13">
-        <v>1.713282696435615</v>
+        <v>1.282535801387146</v>
       </c>
       <c r="K13">
-        <v>1.006071256734195</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="L13">
-        <v>0.4915436637177756</v>
+        <v>1.282535801387146</v>
       </c>
       <c r="M13">
-        <v>0.9419378417876705</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="N13">
-        <v>1.5747027242848</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="O13">
-        <v>1.552298692499595</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="P13">
-        <v>1.632790694467605</v>
+        <v>1.151981633094515</v>
       </c>
       <c r="Q13">
-        <v>1.006110205528811</v>
+        <v>0.9729222353571616</v>
       </c>
       <c r="R13">
-        <v>1.613428037740003</v>
+        <v>1.100901245559619</v>
       </c>
       <c r="S13">
-        <v>1.241834369164412</v>
+        <v>1.076126757367156</v>
       </c>
       <c r="T13">
-        <v>1.613428037740003</v>
+        <v>1.100901245559619</v>
       </c>
       <c r="U13">
-        <v>1.325051457944509</v>
+        <v>1.056780185647824</v>
       </c>
       <c r="V13">
-        <v>1.374981711212567</v>
+        <v>1.045172242616224</v>
       </c>
       <c r="W13">
-        <v>1.120403059254917</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>1.027171928060412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1482,70 +1452,70 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.000597170477148994</v>
+        <v>2.259875099999999</v>
       </c>
       <c r="D14">
-        <v>4.958971238726513</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="E14">
-        <v>0.04487560622477395</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="F14">
-        <v>0.000597170477148994</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="G14">
-        <v>1.303541453734514</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="H14">
-        <v>0.02136135548971021</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="I14">
-        <v>0.0005971704771488308</v>
+        <v>0.7211417700000006</v>
       </c>
       <c r="J14">
-        <v>4.958971238726513</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="K14">
-        <v>1.119530140244971</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L14">
-        <v>0.2097497719445351</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="M14">
-        <v>3.039243718857056</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="N14">
-        <v>0.000597170477148994</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="O14">
-        <v>0.04487560622477395</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="P14">
-        <v>2.501923422475643</v>
+        <v>3.827624884319998</v>
       </c>
       <c r="Q14">
-        <v>0.6742085299796442</v>
+        <v>3.835162454999998</v>
       </c>
       <c r="R14">
-        <v>1.668148005142812</v>
+        <v>2.554243674713332</v>
       </c>
       <c r="S14">
-        <v>2.1024627662286</v>
+        <v>2.556991192879999</v>
       </c>
       <c r="T14">
-        <v>1.668148005142812</v>
+        <v>2.554243674713332</v>
       </c>
       <c r="U14">
-        <v>1.576996367290738</v>
+        <v>1.919613708534999</v>
       </c>
       <c r="V14">
-        <v>1.26171652792802</v>
+        <v>1.537187217927999</v>
       </c>
       <c r="W14">
-        <v>1.337233806962403</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>1.336288635254999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1553,70 +1523,70 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.07790154559647507</v>
+        <v>0.0023832002</v>
       </c>
       <c r="D15">
-        <v>0.6311671708583744</v>
+        <v>0.17902706</v>
       </c>
       <c r="E15">
-        <v>0.6324805986825459</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="F15">
-        <v>0.07790154559647507</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="G15">
-        <v>1.558745773631855</v>
+        <v>2.707476</v>
       </c>
       <c r="H15">
-        <v>0.4656452557518346</v>
+        <v>0.0040031707</v>
       </c>
       <c r="I15">
-        <v>0.07790154559647507</v>
+        <v>0.11108016</v>
       </c>
       <c r="J15">
-        <v>0.6311671708583744</v>
+        <v>15.308083</v>
       </c>
       <c r="K15">
-        <v>1.512386817447693</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="L15">
-        <v>1.040952454476435</v>
+        <v>15.308083</v>
       </c>
       <c r="M15">
-        <v>1.417300467248981</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="N15">
-        <v>0.07790154559647507</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="O15">
-        <v>0.6324805986825459</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="P15">
-        <v>0.6318238847704601</v>
+        <v>7.654365834325</v>
       </c>
       <c r="Q15">
-        <v>1.0956131861572</v>
+        <v>0.08983786432499999</v>
       </c>
       <c r="R15">
-        <v>0.4471831050457984</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="S15">
-        <v>0.9407978477242586</v>
+        <v>5.162586242883333</v>
       </c>
       <c r="T15">
-        <v>0.4471831050457984</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="U15">
-        <v>0.7250737721923126</v>
+        <v>3.871125762212499</v>
       </c>
       <c r="V15">
-        <v>0.595639326873145</v>
+        <v>3.096249473809999</v>
       </c>
       <c r="W15">
-        <v>0.9170725104617743</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>2.28868069746875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1624,67 +1594,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9856878131291257</v>
+        <v>2.2598751</v>
       </c>
       <c r="D16">
-        <v>0.9905167075192092</v>
+        <v>0.01572381</v>
       </c>
       <c r="E16">
-        <v>1.009255423160632</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="F16">
-        <v>0.9856878131291257</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="G16">
-        <v>1.003923626246886</v>
+        <v>0.0039768969</v>
       </c>
       <c r="H16">
-        <v>1.000709798757186</v>
+        <v>0.026860481</v>
       </c>
       <c r="I16">
-        <v>0.9856878131291257</v>
+        <v>0.72114177</v>
       </c>
       <c r="J16">
-        <v>0.9905167075192092</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="K16">
-        <v>1.002159925639479</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="L16">
-        <v>1.002367661560521</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="M16">
-        <v>0.9979144459301046</v>
+        <v>7.6546011</v>
       </c>
       <c r="N16">
-        <v>0.9856878131291257</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="O16">
-        <v>1.009255423160632</v>
+        <v>7.6546011</v>
       </c>
       <c r="P16">
-        <v>0.9998860653399205</v>
+        <v>3.827624884325</v>
       </c>
       <c r="Q16">
-        <v>1.006589524703759</v>
+        <v>3.835162455</v>
       </c>
       <c r="R16">
-        <v>0.9951533146029888</v>
+        <v>2.554243674716667</v>
       </c>
       <c r="S16">
-        <v>1.001231918975576</v>
+        <v>2.556991192883333</v>
       </c>
       <c r="T16">
-        <v>0.9951533146029888</v>
+        <v>2.554243674716667</v>
       </c>
       <c r="U16">
-        <v>0.9973458925139631</v>
+        <v>1.9196137085375</v>
       </c>
       <c r="V16">
-        <v>0.9950142766369956</v>
+        <v>1.53718721793</v>
       </c>
       <c r="W16">
-        <v>0.999066925242893</v>
+        <v>1.33628863525625</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1695,67 +1665,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.018771227373578</v>
+        <v>0.0047085495</v>
       </c>
       <c r="D17">
-        <v>1.013760353741504</v>
+        <v>0.83222116</v>
       </c>
       <c r="E17">
-        <v>0.9939436546397206</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="F17">
-        <v>1.018771227373578</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="G17">
-        <v>0.9910817579757936</v>
+        <v>2.997199</v>
       </c>
       <c r="H17">
-        <v>1.000470824593207</v>
+        <v>0.055071072</v>
       </c>
       <c r="I17">
-        <v>1.018771227373578</v>
+        <v>1.5271956</v>
       </c>
       <c r="J17">
-        <v>1.013760353741504</v>
+        <v>3.2106912</v>
       </c>
       <c r="K17">
-        <v>0.9991594484619748</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="L17">
-        <v>0.9943624284904864</v>
+        <v>3.2106912</v>
       </c>
       <c r="M17">
-        <v>1.000022623634992</v>
+        <v>0.014617195</v>
       </c>
       <c r="N17">
-        <v>1.018771227373578</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="O17">
-        <v>0.9939436546397206</v>
+        <v>0.014617195</v>
       </c>
       <c r="P17">
-        <v>1.003852004190612</v>
+        <v>1.6126541975</v>
       </c>
       <c r="Q17">
-        <v>0.992512706307757</v>
+        <v>0.4234191775</v>
       </c>
       <c r="R17">
-        <v>1.008825078584934</v>
+        <v>1.075018882243333</v>
       </c>
       <c r="S17">
-        <v>0.9995952554523394</v>
+        <v>1.352509851666667</v>
       </c>
       <c r="T17">
-        <v>1.008825078584934</v>
+        <v>1.075018882243333</v>
       </c>
       <c r="U17">
-        <v>1.004389248432649</v>
+        <v>1.0143194516825</v>
       </c>
       <c r="V17">
-        <v>1.007265644220835</v>
+        <v>0.8114052116919999</v>
       </c>
       <c r="W17">
-        <v>1.001446539863907</v>
+        <v>1.08018150352875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1766,67 +1736,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9908083908859742</v>
+        <v>1.042512342456439</v>
       </c>
       <c r="D18">
-        <v>1.00029812976866</v>
+        <v>0.9271429947397259</v>
       </c>
       <c r="E18">
-        <v>1.023821600789101</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="F18">
-        <v>0.9908083908859742</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="G18">
-        <v>1.015814999536902</v>
+        <v>1.090066656140822</v>
       </c>
       <c r="H18">
-        <v>0.997669489049253</v>
+        <v>1.148466118401369</v>
       </c>
       <c r="I18">
-        <v>0.9908083908859742</v>
+        <v>0.2572346884498629</v>
       </c>
       <c r="J18">
-        <v>1.00029812976866</v>
+        <v>1.995201695223288</v>
       </c>
       <c r="K18">
-        <v>0.994413755704225</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="L18">
-        <v>1.017632793097454</v>
+        <v>1.995201695223288</v>
       </c>
       <c r="M18">
-        <v>0.99370352394688</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="N18">
-        <v>0.9908083908859742</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="O18">
-        <v>1.023821600789101</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="P18">
-        <v>1.012059865278881</v>
+        <v>1.447536225052726</v>
       </c>
       <c r="Q18">
-        <v>1.019818300163002</v>
+        <v>0.9135068748109453</v>
       </c>
       <c r="R18">
-        <v>1.004976040481245</v>
+        <v>1.857532592616886</v>
       </c>
       <c r="S18">
-        <v>1.013311576698221</v>
+        <v>1.274071814948393</v>
       </c>
       <c r="T18">
-        <v>1.004976040481245</v>
+        <v>1.857532592616886</v>
       </c>
       <c r="U18">
-        <v>1.007685780245159</v>
+        <v>1.624935193147596</v>
       </c>
       <c r="V18">
-        <v>1.004310302373322</v>
+        <v>1.835453220067118</v>
       </c>
       <c r="W18">
-        <v>1.004270335347306</v>
+        <v>1.25475257225486</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1837,67 +1807,777 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.901708431581948</v>
+        <v>0.6282955952726313</v>
       </c>
       <c r="D19">
-        <v>0.9189962377490069</v>
+        <v>0.409366587368421</v>
       </c>
       <c r="E19">
-        <v>1.061957687523567</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="F19">
-        <v>0.901708431581948</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="G19">
-        <v>1.056516337205187</v>
+        <v>1.467926027147368</v>
       </c>
       <c r="H19">
-        <v>1.014611417635591</v>
+        <v>0.06229593718947368</v>
       </c>
       <c r="I19">
-        <v>0.901708431581948</v>
+        <v>1.765329211578947</v>
       </c>
       <c r="J19">
-        <v>0.9189962377490069</v>
+        <v>3.430424519099474</v>
       </c>
       <c r="K19">
-        <v>0.9882546929180793</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="L19">
-        <v>1.05412377517706</v>
+        <v>3.430424519099474</v>
       </c>
       <c r="M19">
-        <v>0.9969433928532002</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="N19">
-        <v>0.901708431581948</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="O19">
-        <v>1.061957687523567</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="P19">
-        <v>0.9904769626362867</v>
+        <v>2.774159915831342</v>
       </c>
       <c r="Q19">
-        <v>1.059237012364377</v>
+        <v>1.263630949965816</v>
       </c>
       <c r="R19">
-        <v>0.9608874522848404</v>
+        <v>1.849986152987912</v>
       </c>
       <c r="S19">
-        <v>1.012490087492587</v>
+        <v>1.985895473010369</v>
       </c>
       <c r="T19">
-        <v>0.9608874522848404</v>
+        <v>1.849986152987912</v>
       </c>
       <c r="U19">
-        <v>0.9847946735149271</v>
+        <v>1.489831261583039</v>
       </c>
       <c r="V19">
-        <v>0.9681774251283313</v>
+        <v>1.192192734726642</v>
       </c>
       <c r="W19">
-        <v>0.9991389965804548</v>
+        <v>1.235396477190072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1.060862294730526</v>
+      </c>
+      <c r="D20">
+        <v>0.8933146486315789</v>
+      </c>
+      <c r="E20">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="F20">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="G20">
+        <v>1.082767048579474</v>
+      </c>
+      <c r="H20">
+        <v>1.103891457578947</v>
+      </c>
+      <c r="I20">
+        <v>0.267519683641579</v>
+      </c>
+      <c r="J20">
+        <v>2.117882948531579</v>
+      </c>
+      <c r="K20">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="L20">
+        <v>2.117882948531579</v>
+      </c>
+      <c r="M20">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="N20">
+        <v>2.571987575744737</v>
+      </c>
+      <c r="O20">
+        <v>1.065794947040158</v>
+      </c>
+      <c r="P20">
+        <v>1.591838947785869</v>
+      </c>
+      <c r="Q20">
+        <v>0.9795547978358685</v>
+      </c>
+      <c r="R20">
+        <v>1.918555157105492</v>
+      </c>
+      <c r="S20">
+        <v>1.358997514734439</v>
+      </c>
+      <c r="T20">
+        <v>1.918555157105491</v>
+      </c>
+      <c r="U20">
+        <v>1.662245029987013</v>
+      </c>
+      <c r="V20">
+        <v>1.844193539138558</v>
+      </c>
+      <c r="W20">
+        <v>1.270502575559822</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.02136135548971019</v>
+      </c>
+      <c r="D21">
+        <v>1.303541453734514</v>
+      </c>
+      <c r="E21">
+        <v>0.000597170477148993</v>
+      </c>
+      <c r="F21">
+        <v>0.000597170477148993</v>
+      </c>
+      <c r="G21">
+        <v>3.039243718857056</v>
+      </c>
+      <c r="H21">
+        <v>0.209749771944535</v>
+      </c>
+      <c r="I21">
+        <v>1.119530140244971</v>
+      </c>
+      <c r="J21">
+        <v>4.958971238726512</v>
+      </c>
+      <c r="K21">
+        <v>0.0005971704771488298</v>
+      </c>
+      <c r="L21">
+        <v>4.958971238726512</v>
+      </c>
+      <c r="M21">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="N21">
+        <v>0.000597170477148993</v>
+      </c>
+      <c r="O21">
+        <v>0.04487560622477388</v>
+      </c>
+      <c r="P21">
+        <v>2.501923422475643</v>
+      </c>
+      <c r="Q21">
+        <v>0.6742085299796442</v>
+      </c>
+      <c r="R21">
+        <v>1.668148005142812</v>
+      </c>
+      <c r="S21">
+        <v>2.1024627662286</v>
+      </c>
+      <c r="T21">
+        <v>1.668148005142812</v>
+      </c>
+      <c r="U21">
+        <v>1.576996367290737</v>
+      </c>
+      <c r="V21">
+        <v>1.26171652792802</v>
+      </c>
+      <c r="W21">
+        <v>1.337233806962403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.4656452557518345</v>
+      </c>
+      <c r="D22">
+        <v>1.558745773631856</v>
+      </c>
+      <c r="E22">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="F22">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="G22">
+        <v>1.417300467248981</v>
+      </c>
+      <c r="H22">
+        <v>1.040952454476435</v>
+      </c>
+      <c r="I22">
+        <v>1.512386817447693</v>
+      </c>
+      <c r="J22">
+        <v>0.6311671708583744</v>
+      </c>
+      <c r="K22">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="L22">
+        <v>0.6311671708583744</v>
+      </c>
+      <c r="M22">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="N22">
+        <v>0.07790154559647507</v>
+      </c>
+      <c r="O22">
+        <v>0.6324805986825459</v>
+      </c>
+      <c r="P22">
+        <v>0.6318238847704601</v>
+      </c>
+      <c r="Q22">
+        <v>1.095613186157201</v>
+      </c>
+      <c r="R22">
+        <v>0.4471831050457984</v>
+      </c>
+      <c r="S22">
+        <v>0.9407978477242587</v>
+      </c>
+      <c r="T22">
+        <v>0.4471831050457984</v>
+      </c>
+      <c r="U22">
+        <v>0.7250737721923127</v>
+      </c>
+      <c r="V22">
+        <v>0.5956393268731451</v>
+      </c>
+      <c r="W22">
+        <v>0.9170725104617743</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.7944825319457682</v>
+      </c>
+      <c r="D23">
+        <v>1.369369559480381</v>
+      </c>
+      <c r="E23">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="F23">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="G23">
+        <v>1.066947658021112</v>
+      </c>
+      <c r="H23">
+        <v>1.351068282767972</v>
+      </c>
+      <c r="I23">
+        <v>1.052140554690341</v>
+      </c>
+      <c r="J23">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="K23">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="L23">
+        <v>0.3218313991703864</v>
+      </c>
+      <c r="M23">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="N23">
+        <v>0.6839215333004276</v>
+      </c>
+      <c r="O23">
+        <v>0.4737304055118667</v>
+      </c>
+      <c r="P23">
+        <v>0.3977809023411265</v>
+      </c>
+      <c r="Q23">
+        <v>0.9215499824961236</v>
+      </c>
+      <c r="R23">
+        <v>0.4931611126608935</v>
+      </c>
+      <c r="S23">
+        <v>0.7216437880542111</v>
+      </c>
+      <c r="T23">
+        <v>0.4931611126608936</v>
+      </c>
+      <c r="U23">
+        <v>0.7122132243657653</v>
+      </c>
+      <c r="V23">
+        <v>0.7065548861526978</v>
+      </c>
+      <c r="W23">
+        <v>0.8891864906110317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>1.223465880021654</v>
+      </c>
+      <c r="D24">
+        <v>0.4599217185580263</v>
+      </c>
+      <c r="E24">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="F24">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="G24">
+        <v>0.9419378417876704</v>
+      </c>
+      <c r="H24">
+        <v>0.4915436637177757</v>
+      </c>
+      <c r="I24">
+        <v>1.006071256734195</v>
+      </c>
+      <c r="J24">
+        <v>1.713282696435615</v>
+      </c>
+      <c r="K24">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="L24">
+        <v>1.713282696435615</v>
+      </c>
+      <c r="M24">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="N24">
+        <v>1.5747027242848</v>
+      </c>
+      <c r="O24">
+        <v>1.552298692499595</v>
+      </c>
+      <c r="P24">
+        <v>1.632790694467605</v>
+      </c>
+      <c r="Q24">
+        <v>1.006110205528811</v>
+      </c>
+      <c r="R24">
+        <v>1.613428037740003</v>
+      </c>
+      <c r="S24">
+        <v>1.241834369164412</v>
+      </c>
+      <c r="T24">
+        <v>1.613428037740003</v>
+      </c>
+      <c r="U24">
+        <v>1.325051457944509</v>
+      </c>
+      <c r="V24">
+        <v>1.374981711212567</v>
+      </c>
+      <c r="W24">
+        <v>1.120403059254917</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>1.30483975668002</v>
+      </c>
+      <c r="D25">
+        <v>0.2799448013103057</v>
+      </c>
+      <c r="E25">
+        <v>4.102775723979869</v>
+      </c>
+      <c r="F25">
+        <v>4.102775723979869</v>
+      </c>
+      <c r="G25">
+        <v>0.0145644503045382</v>
+      </c>
+      <c r="H25">
+        <v>1.832888417990372</v>
+      </c>
+      <c r="I25">
+        <v>0.02674347961049349</v>
+      </c>
+      <c r="J25">
+        <v>-3.794840885238102E-05</v>
+      </c>
+      <c r="K25">
+        <v>4.102775723979869</v>
+      </c>
+      <c r="L25">
+        <v>-3.794840885238102E-05</v>
+      </c>
+      <c r="M25">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="N25">
+        <v>4.102775723979869</v>
+      </c>
+      <c r="O25">
+        <v>0.1130292872609318</v>
+      </c>
+      <c r="P25">
+        <v>0.0564956694260397</v>
+      </c>
+      <c r="Q25">
+        <v>0.1964870442856188</v>
+      </c>
+      <c r="R25">
+        <v>1.40525568761065</v>
+      </c>
+      <c r="S25">
+        <v>0.1309787133874617</v>
+      </c>
+      <c r="T25">
+        <v>1.405255687610649</v>
+      </c>
+      <c r="U25">
+        <v>1.123927966035563</v>
+      </c>
+      <c r="V25">
+        <v>1.719697517624424</v>
+      </c>
+      <c r="W25">
+        <v>0.9593434960909597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.555216186056963</v>
+      </c>
+      <c r="D26">
+        <v>1.334586878254151</v>
+      </c>
+      <c r="E26">
+        <v>0.1235815129862915</v>
+      </c>
+      <c r="F26">
+        <v>0.1235815129862915</v>
+      </c>
+      <c r="G26">
+        <v>0.4009445053902191</v>
+      </c>
+      <c r="H26">
+        <v>1.369242230548035</v>
+      </c>
+      <c r="I26">
+        <v>0.7571895833776304</v>
+      </c>
+      <c r="J26">
+        <v>0.01444413321375922</v>
+      </c>
+      <c r="K26">
+        <v>0.1235815129862915</v>
+      </c>
+      <c r="L26">
+        <v>0.01444413321375922</v>
+      </c>
+      <c r="M26">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="N26">
+        <v>0.1235815129862915</v>
+      </c>
+      <c r="O26">
+        <v>1.486216094593838</v>
+      </c>
+      <c r="P26">
+        <v>0.7503301139037987</v>
+      </c>
+      <c r="Q26">
+        <v>1.410401486423994</v>
+      </c>
+      <c r="R26">
+        <v>0.541413913597963</v>
+      </c>
+      <c r="S26">
+        <v>0.9450823686872493</v>
+      </c>
+      <c r="T26">
+        <v>0.541413913597963</v>
+      </c>
+      <c r="U26">
+        <v>0.7397071547620099</v>
+      </c>
+      <c r="V26">
+        <v>0.6164820264068662</v>
+      </c>
+      <c r="W26">
+        <v>0.8801776405526108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.159267900594497</v>
+      </c>
+      <c r="D27">
+        <v>1.308091191695438</v>
+      </c>
+      <c r="E27">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="F27">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="G27">
+        <v>1.078726562257447</v>
+      </c>
+      <c r="H27">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="I27">
+        <v>0.8755121484290266</v>
+      </c>
+      <c r="J27">
+        <v>0.5824804053470186</v>
+      </c>
+      <c r="K27">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="L27">
+        <v>0.5824804053470186</v>
+      </c>
+      <c r="M27">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="N27">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="O27">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="P27">
+        <v>0.8103752167242209</v>
+      </c>
+      <c r="Q27">
+        <v>1.17318060989843</v>
+      </c>
+      <c r="R27">
+        <v>0.9664414187696</v>
+      </c>
+      <c r="S27">
+        <v>0.9762805417146264</v>
+      </c>
+      <c r="T27">
+        <v>0.9664414187696</v>
+      </c>
+      <c r="U27">
+        <v>1.051853862001059</v>
+      </c>
+      <c r="V27">
+        <v>1.097197854172919</v>
+      </c>
+      <c r="W27">
+        <v>1.049870388436641</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9599775274454075</v>
+      </c>
+      <c r="D28">
+        <v>1.471551734717232</v>
+      </c>
+      <c r="E28">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="F28">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="G28">
+        <v>1.301314506408274</v>
+      </c>
+      <c r="H28">
+        <v>1.142809982904686</v>
+      </c>
+      <c r="I28">
+        <v>0.5414505023539928</v>
+      </c>
+      <c r="J28">
+        <v>1.174775856830051</v>
+      </c>
+      <c r="K28">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="L28">
+        <v>1.174775856830051</v>
+      </c>
+      <c r="M28">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="N28">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="O28">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="P28">
+        <v>1.070457463728632</v>
+      </c>
+      <c r="Q28">
+        <v>1.218845402672223</v>
+      </c>
+      <c r="R28">
+        <v>1.194729565484206</v>
+      </c>
+      <c r="S28">
+        <v>1.204155554058165</v>
+      </c>
+      <c r="T28">
+        <v>1.194729565484206</v>
+      </c>
+      <c r="U28">
+        <v>1.263935107792463</v>
+      </c>
+      <c r="V28">
+        <v>1.299802840033041</v>
+      </c>
+      <c r="W28">
+        <v>1.125161618785276</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9605069942080187</v>
+      </c>
+      <c r="D29">
+        <v>1.03921905712646</v>
+      </c>
+      <c r="E29">
+        <v>2.424300463459785</v>
+      </c>
+      <c r="F29">
+        <v>2.424300463459785</v>
+      </c>
+      <c r="G29">
+        <v>1.474141525781431</v>
+      </c>
+      <c r="H29">
+        <v>0.6120453984500327</v>
+      </c>
+      <c r="I29">
+        <v>0.4431983086753022</v>
+      </c>
+      <c r="J29">
+        <v>2.28730743657002</v>
+      </c>
+      <c r="K29">
+        <v>2.424300463459785</v>
+      </c>
+      <c r="L29">
+        <v>2.28730743657002</v>
+      </c>
+      <c r="M29">
+        <v>1.292672764417832</v>
+      </c>
+      <c r="N29">
+        <v>2.424300463459785</v>
+      </c>
+      <c r="O29">
+        <v>1.292672764417832</v>
+      </c>
+      <c r="P29">
+        <v>1.789990100493926</v>
+      </c>
+      <c r="Q29">
+        <v>1.165945910772146</v>
+      </c>
+      <c r="R29">
+        <v>2.001426888149213</v>
+      </c>
+      <c r="S29">
+        <v>1.539733086038104</v>
+      </c>
+      <c r="T29">
+        <v>2.001426888149213</v>
+      </c>
+      <c r="U29">
+        <v>1.760874930393524</v>
+      </c>
+      <c r="V29">
+        <v>1.893560037006777</v>
+      </c>
+      <c r="W29">
+        <v>1.31667399358611</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossA-HW10.xlsx
+++ b/JupyterNotebooks/AvgHW/GossA-HW10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -518,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W29"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -600,67 +606,67 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -742,67 +748,67 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.140854504698239</v>
+        <v>1.168608583874831</v>
       </c>
       <c r="D4">
-        <v>0.8863319239957177</v>
+        <v>0.8886061077190477</v>
       </c>
       <c r="E4">
-        <v>0.8746729245891567</v>
+        <v>0.9066785864273847</v>
       </c>
       <c r="F4">
-        <v>0.8746729245891567</v>
+        <v>0.9066785864273847</v>
       </c>
       <c r="G4">
-        <v>0.8822228433520899</v>
+        <v>0.8421302638119609</v>
       </c>
       <c r="H4">
-        <v>0.8958434101527728</v>
+        <v>0.9154453387408147</v>
       </c>
       <c r="I4">
-        <v>1.032793534391854</v>
+        <v>1.006248355318265</v>
       </c>
       <c r="J4">
-        <v>0.9013365646971886</v>
+        <v>0.7877817715820432</v>
       </c>
       <c r="K4">
-        <v>0.8746729245891567</v>
+        <v>0.9066785864273847</v>
       </c>
       <c r="L4">
-        <v>0.9013365646971886</v>
+        <v>0.7877817715820432</v>
       </c>
       <c r="M4">
-        <v>1.447026928272622</v>
+        <v>1.529053262247947</v>
       </c>
       <c r="N4">
-        <v>0.8746729245891567</v>
+        <v>0.9066785864273847</v>
       </c>
       <c r="O4">
-        <v>1.447026928272622</v>
+        <v>1.529053262247947</v>
       </c>
       <c r="P4">
-        <v>1.174181746484905</v>
+        <v>1.158417516914995</v>
       </c>
       <c r="Q4">
-        <v>1.16667942613417</v>
+        <v>1.208829684983497</v>
       </c>
       <c r="R4">
-        <v>1.074345472519656</v>
+        <v>1.074504540085792</v>
       </c>
       <c r="S4">
-        <v>1.078231805655176</v>
+        <v>1.068480380516346</v>
       </c>
       <c r="T4">
-        <v>1.074345472519656</v>
+        <v>1.074504540085792</v>
       </c>
       <c r="U4">
-        <v>1.027342085388671</v>
+        <v>1.028029931994106</v>
       </c>
       <c r="V4">
-        <v>0.9968082532287683</v>
+        <v>1.003759662880761</v>
       </c>
       <c r="W4">
-        <v>1.007635329268705</v>
+        <v>1.005569033715287</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -813,67 +819,67 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.185565823172503</v>
+        <v>0.9749778847816253</v>
       </c>
       <c r="D5">
-        <v>0.8682793613472605</v>
+        <v>0.982675016769275</v>
       </c>
       <c r="E5">
-        <v>0.9406782913569334</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="F5">
-        <v>0.9406782913569334</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="G5">
-        <v>0.8431931772352519</v>
+        <v>1.131194740408092</v>
       </c>
       <c r="H5">
-        <v>0.8972175690883274</v>
+        <v>1.216814230196834</v>
       </c>
       <c r="I5">
-        <v>0.970231022095971</v>
+        <v>0.2382745018627646</v>
       </c>
       <c r="J5">
-        <v>0.8498709386006038</v>
+        <v>1.964527147187833</v>
       </c>
       <c r="K5">
-        <v>0.9406782913569334</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="L5">
-        <v>0.8498709386006038</v>
+        <v>1.964527147187833</v>
       </c>
       <c r="M5">
-        <v>1.65199084941161</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="N5">
-        <v>0.9406782913569334</v>
+        <v>2.839309824320281</v>
       </c>
       <c r="O5">
-        <v>1.65199084941161</v>
+        <v>0.5957636841742221</v>
       </c>
       <c r="P5">
-        <v>1.250930894006107</v>
+        <v>1.280145415681027</v>
       </c>
       <c r="Q5">
-        <v>1.260135105379435</v>
+        <v>0.7892193504717486</v>
       </c>
       <c r="R5">
-        <v>1.147513359789716</v>
+        <v>1.799866885227446</v>
       </c>
       <c r="S5">
-        <v>1.123380383119825</v>
+        <v>1.180988616043776</v>
       </c>
       <c r="T5">
-        <v>1.147513359789716</v>
+        <v>1.799866885227445</v>
       </c>
       <c r="U5">
-        <v>1.077704860179102</v>
+        <v>1.595568918112903</v>
       </c>
       <c r="V5">
-        <v>1.050299546414668</v>
+        <v>1.844317099354378</v>
       </c>
       <c r="W5">
-        <v>1.025878379038557</v>
+        <v>1.242942128712616</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -884,67 +890,67 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.710071692816775</v>
+        <v>1.140854504698239</v>
       </c>
       <c r="D6">
-        <v>0.4530427732680958</v>
+        <v>0.8863319239957177</v>
       </c>
       <c r="E6">
-        <v>0.451020274558218</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="F6">
-        <v>0.451020274558218</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="G6">
-        <v>0.4306750039660142</v>
+        <v>0.8822228433520899</v>
       </c>
       <c r="H6">
-        <v>0.4691449368573655</v>
+        <v>0.8958434101527728</v>
       </c>
       <c r="I6">
-        <v>0.8643249463560656</v>
+        <v>1.032793534391854</v>
       </c>
       <c r="J6">
-        <v>0.4147466676310699</v>
+        <v>0.9013365646971886</v>
       </c>
       <c r="K6">
-        <v>0.451020274558218</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="L6">
-        <v>0.4147466676310699</v>
+        <v>0.9013365646971886</v>
       </c>
       <c r="M6">
-        <v>4.582168773820876</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="N6">
-        <v>0.451020274558218</v>
+        <v>0.8746729245891567</v>
       </c>
       <c r="O6">
-        <v>4.582168773820876</v>
+        <v>1.447026928272622</v>
       </c>
       <c r="P6">
-        <v>2.498457720725973</v>
+        <v>1.174181746484905</v>
       </c>
       <c r="Q6">
-        <v>2.517605773544486</v>
+        <v>1.16667942613417</v>
       </c>
       <c r="R6">
-        <v>1.815978572003388</v>
+        <v>1.074345472519656</v>
       </c>
       <c r="S6">
-        <v>1.816652738240014</v>
+        <v>1.078231805655176</v>
       </c>
       <c r="T6">
-        <v>1.815978572003388</v>
+        <v>1.074345472519656</v>
       </c>
       <c r="U6">
-        <v>1.475244622319565</v>
+        <v>1.027342085388671</v>
       </c>
       <c r="V6">
-        <v>1.270399752767295</v>
+        <v>0.9968082532287683</v>
       </c>
       <c r="W6">
-        <v>1.17189938365931</v>
+        <v>1.007635329268705</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -955,67 +961,67 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.005901321983825</v>
+        <v>1.185565823172503</v>
       </c>
       <c r="D7">
-        <v>0.9947127720552101</v>
+        <v>0.8682793613472605</v>
       </c>
       <c r="E7">
-        <v>1.08326972394978</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="F7">
-        <v>1.08326972394978</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="G7">
-        <v>1.00317062105245</v>
+        <v>0.8431931772352519</v>
       </c>
       <c r="H7">
-        <v>1.004972558068685</v>
+        <v>0.8972175690883274</v>
       </c>
       <c r="I7">
-        <v>0.964895308688889</v>
+        <v>0.970231022095971</v>
       </c>
       <c r="J7">
-        <v>1.037160784011026</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="K7">
-        <v>1.08326972394978</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="L7">
-        <v>1.037160784011026</v>
+        <v>0.8498709386006038</v>
       </c>
       <c r="M7">
-        <v>0.9956638099466831</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="N7">
-        <v>1.08326972394978</v>
+        <v>0.9406782913569334</v>
       </c>
       <c r="O7">
-        <v>0.9956638099466831</v>
+        <v>1.65199084941161</v>
       </c>
       <c r="P7">
-        <v>1.016412296978854</v>
+        <v>1.250930894006107</v>
       </c>
       <c r="Q7">
-        <v>0.9951882910009466</v>
+        <v>1.260135105379435</v>
       </c>
       <c r="R7">
-        <v>1.038698105969163</v>
+        <v>1.147513359789716</v>
       </c>
       <c r="S7">
-        <v>1.009179122004306</v>
+        <v>1.123380383119825</v>
       </c>
       <c r="T7">
-        <v>1.038698105969163</v>
+        <v>1.147513359789716</v>
       </c>
       <c r="U7">
-        <v>1.027701772490675</v>
+        <v>1.077704860179102</v>
       </c>
       <c r="V7">
-        <v>1.038815362782496</v>
+        <v>1.050299546414668</v>
       </c>
       <c r="W7">
-        <v>1.011218362469569</v>
+        <v>1.025878379038557</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1026,67 +1032,67 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000470824593208</v>
+        <v>1.710071692816775</v>
       </c>
       <c r="D8">
-        <v>0.991081757975794</v>
+        <v>0.4530427732680958</v>
       </c>
       <c r="E8">
-        <v>1.018771227373578</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="F8">
-        <v>1.018771227373578</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="G8">
-        <v>1.000022623634993</v>
+        <v>0.4306750039660142</v>
       </c>
       <c r="H8">
-        <v>0.9943624284904866</v>
+        <v>0.4691449368573655</v>
       </c>
       <c r="I8">
-        <v>0.9991594484619741</v>
+        <v>0.8643249463560656</v>
       </c>
       <c r="J8">
-        <v>1.013760353741505</v>
+        <v>0.4147466676310699</v>
       </c>
       <c r="K8">
-        <v>1.018771227373578</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="L8">
-        <v>1.013760353741505</v>
+        <v>0.4147466676310699</v>
       </c>
       <c r="M8">
-        <v>0.9939436546397209</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="N8">
-        <v>1.018771227373578</v>
+        <v>0.451020274558218</v>
       </c>
       <c r="O8">
-        <v>0.9939436546397209</v>
+        <v>4.582168773820876</v>
       </c>
       <c r="P8">
-        <v>1.003852004190613</v>
+        <v>2.498457720725973</v>
       </c>
       <c r="Q8">
-        <v>0.9925127063077575</v>
+        <v>2.517605773544486</v>
       </c>
       <c r="R8">
-        <v>1.008825078584935</v>
+        <v>1.815978572003388</v>
       </c>
       <c r="S8">
-        <v>0.99959525545234</v>
+        <v>1.816652738240014</v>
       </c>
       <c r="T8">
-        <v>1.008825078584935</v>
+        <v>1.815978572003388</v>
       </c>
       <c r="U8">
-        <v>1.004389248432649</v>
+        <v>1.475244622319565</v>
       </c>
       <c r="V8">
-        <v>1.007265644220835</v>
+        <v>1.270399752767295</v>
       </c>
       <c r="W8">
-        <v>1.001446539863907</v>
+        <v>1.17189938365931</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1097,67 +1103,67 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.004080251605465</v>
+        <v>1.005901321983825</v>
       </c>
       <c r="D9">
-        <v>0.9941866367470358</v>
+        <v>0.9947127720552101</v>
       </c>
       <c r="E9">
-        <v>1.141933910465841</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="F9">
-        <v>1.141933910465841</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="G9">
-        <v>1.00589683376951</v>
+        <v>1.00317062105245</v>
       </c>
       <c r="H9">
-        <v>1.012508622009755</v>
+        <v>1.004972558068685</v>
       </c>
       <c r="I9">
-        <v>0.9387568670753368</v>
+        <v>0.964895308688889</v>
       </c>
       <c r="J9">
-        <v>1.067304768508322</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="K9">
-        <v>1.141933910465841</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="L9">
-        <v>1.067304768508322</v>
+        <v>1.037160784011026</v>
       </c>
       <c r="M9">
-        <v>1.005414003669555</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="N9">
-        <v>1.141933910465841</v>
+        <v>1.08326972394978</v>
       </c>
       <c r="O9">
-        <v>1.005414003669555</v>
+        <v>0.9956638099466831</v>
       </c>
       <c r="P9">
-        <v>1.036359386088939</v>
+        <v>1.016412296978854</v>
       </c>
       <c r="Q9">
-        <v>0.9998003202082953</v>
+        <v>0.9951882910009466</v>
       </c>
       <c r="R9">
-        <v>1.071550894214573</v>
+        <v>1.038698105969163</v>
       </c>
       <c r="S9">
-        <v>1.022301802974971</v>
+        <v>1.009179122004306</v>
       </c>
       <c r="T9">
-        <v>1.071550894214573</v>
+        <v>1.038698105969163</v>
       </c>
       <c r="U9">
-        <v>1.052209829847688</v>
+        <v>1.027701772490675</v>
       </c>
       <c r="V9">
-        <v>1.070154645971319</v>
+        <v>1.038815362782496</v>
       </c>
       <c r="W9">
-        <v>1.021260236731353</v>
+        <v>1.011218362469569</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1168,67 +1174,67 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.74542827408976</v>
+        <v>1.000470824593208</v>
       </c>
       <c r="D10">
-        <v>0.4093214840305256</v>
+        <v>0.991081757975794</v>
       </c>
       <c r="E10">
-        <v>0.4323547080011271</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="F10">
-        <v>0.4323547080011271</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="G10">
-        <v>0.4176553268722348</v>
+        <v>1.000022623634993</v>
       </c>
       <c r="H10">
-        <v>0.4344101240797893</v>
+        <v>0.9943624284904866</v>
       </c>
       <c r="I10">
-        <v>0.8583393323469087</v>
+        <v>0.9991594484619741</v>
       </c>
       <c r="J10">
-        <v>0.4442490697387313</v>
+        <v>1.013760353741505</v>
       </c>
       <c r="K10">
-        <v>0.4323547080011271</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="L10">
-        <v>0.4442490697387313</v>
+        <v>1.013760353741505</v>
       </c>
       <c r="M10">
-        <v>4.698946139500206</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="N10">
-        <v>0.4323547080011271</v>
+        <v>1.018771227373578</v>
       </c>
       <c r="O10">
-        <v>4.698946139500206</v>
+        <v>0.9939436546397209</v>
       </c>
       <c r="P10">
-        <v>2.571597604619469</v>
+        <v>1.003852004190613</v>
       </c>
       <c r="Q10">
-        <v>2.554133811765366</v>
+        <v>0.9925127063077575</v>
       </c>
       <c r="R10">
-        <v>1.858516639080022</v>
+        <v>1.008825078584935</v>
       </c>
       <c r="S10">
-        <v>1.850838897756488</v>
+        <v>0.99959525545234</v>
       </c>
       <c r="T10">
-        <v>1.858516639080022</v>
+        <v>1.008825078584935</v>
       </c>
       <c r="U10">
-        <v>1.496217850317648</v>
+        <v>1.004389248432649</v>
       </c>
       <c r="V10">
-        <v>1.283445221854344</v>
+        <v>1.007265644220835</v>
       </c>
       <c r="W10">
-        <v>1.18008805733241</v>
+        <v>1.001446539863907</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1239,67 +1245,67 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.367474823540746</v>
+        <v>1.004080251605465</v>
       </c>
       <c r="D11">
-        <v>0.8133885604667518</v>
+        <v>0.9941866367470358</v>
       </c>
       <c r="E11">
-        <v>1.202440130520973</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="F11">
-        <v>1.202440130520973</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="G11">
-        <v>0.5280453983022202</v>
+        <v>1.00589683376951</v>
       </c>
       <c r="H11">
-        <v>1.073644975028989</v>
+        <v>1.012508622009755</v>
       </c>
       <c r="I11">
-        <v>0.8714098666239064</v>
+        <v>0.9387568670753368</v>
       </c>
       <c r="J11">
-        <v>0.3449411900293977</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="K11">
-        <v>1.202440130520973</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="L11">
-        <v>0.3449411900293977</v>
+        <v>1.067304768508322</v>
       </c>
       <c r="M11">
-        <v>1.547120297763512</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="N11">
-        <v>1.202440130520973</v>
+        <v>1.141933910465841</v>
       </c>
       <c r="O11">
-        <v>1.547120297763512</v>
+        <v>1.005414003669555</v>
       </c>
       <c r="P11">
-        <v>0.9460307438964549</v>
+        <v>1.036359386088939</v>
       </c>
       <c r="Q11">
-        <v>1.180254429115132</v>
+        <v>0.9998003202082953</v>
       </c>
       <c r="R11">
-        <v>1.031500539437961</v>
+        <v>1.071550894214573</v>
       </c>
       <c r="S11">
-        <v>0.9018166827532205</v>
+        <v>1.022301802974971</v>
       </c>
       <c r="T11">
-        <v>1.031500539437961</v>
+        <v>1.071550894214573</v>
       </c>
       <c r="U11">
-        <v>0.9769725446951587</v>
+        <v>1.052209829847688</v>
       </c>
       <c r="V11">
-        <v>1.022066061860321</v>
+        <v>1.070154645971319</v>
       </c>
       <c r="W11">
-        <v>0.9685581552845621</v>
+        <v>1.021260236731353</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1310,67 +1316,67 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.264619128261257</v>
+        <v>1.74542827408976</v>
       </c>
       <c r="D12">
-        <v>0.7880443793347369</v>
+        <v>0.4093214840305256</v>
       </c>
       <c r="E12">
-        <v>0.8325688200006874</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="F12">
-        <v>0.8325688200006874</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="G12">
-        <v>0.8009084268064524</v>
+        <v>0.4176553268722348</v>
       </c>
       <c r="H12">
-        <v>0.8139834003677884</v>
+        <v>0.4344101240797893</v>
       </c>
       <c r="I12">
-        <v>0.9816128774728091</v>
+        <v>0.8583393323469087</v>
       </c>
       <c r="J12">
-        <v>0.8254987582548408</v>
+        <v>0.4442490697387313</v>
       </c>
       <c r="K12">
-        <v>0.8325688200006874</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="L12">
-        <v>0.8254987582548408</v>
+        <v>0.4442490697387313</v>
       </c>
       <c r="M12">
-        <v>1.984432204699188</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="N12">
-        <v>0.8325688200006874</v>
+        <v>0.4323547080011271</v>
       </c>
       <c r="O12">
-        <v>1.984432204699188</v>
+        <v>4.698946139500206</v>
       </c>
       <c r="P12">
-        <v>1.404965481477014</v>
+        <v>2.571597604619469</v>
       </c>
       <c r="Q12">
-        <v>1.386238292016963</v>
+        <v>2.554133811765366</v>
       </c>
       <c r="R12">
-        <v>1.214166594318239</v>
+        <v>1.858516639080022</v>
       </c>
       <c r="S12">
-        <v>1.199325114096255</v>
+        <v>1.850838897756488</v>
       </c>
       <c r="T12">
-        <v>1.214166594318239</v>
+        <v>1.858516639080022</v>
       </c>
       <c r="U12">
-        <v>1.107636040572363</v>
+        <v>1.496217850317648</v>
       </c>
       <c r="V12">
-        <v>1.052622596458028</v>
+        <v>1.283445221854344</v>
       </c>
       <c r="W12">
-        <v>1.03645849939972</v>
+        <v>1.18008805733241</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1381,67 +1387,67 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9920021844042621</v>
+        <v>1.367474823540746</v>
       </c>
       <c r="D13">
-        <v>0.9244170059124388</v>
+        <v>0.8133885604667518</v>
       </c>
       <c r="E13">
-        <v>0.9987404704898265</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="F13">
-        <v>0.9987404704898265</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="G13">
-        <v>1.088278480803946</v>
+        <v>0.5280453983022202</v>
       </c>
       <c r="H13">
-        <v>0.9299353547439732</v>
+        <v>1.073644975028989</v>
       </c>
       <c r="I13">
-        <v>0.9800386619398201</v>
+        <v>0.8714098666239064</v>
       </c>
       <c r="J13">
-        <v>1.282535801387146</v>
+        <v>0.3449411900293977</v>
       </c>
       <c r="K13">
-        <v>0.9987404704898265</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="L13">
-        <v>1.282535801387146</v>
+        <v>0.3449411900293977</v>
       </c>
       <c r="M13">
-        <v>1.021427464801884</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="N13">
-        <v>0.9987404704898265</v>
+        <v>1.202440130520973</v>
       </c>
       <c r="O13">
-        <v>1.021427464801884</v>
+        <v>1.547120297763512</v>
       </c>
       <c r="P13">
-        <v>1.151981633094515</v>
+        <v>0.9460307438964549</v>
       </c>
       <c r="Q13">
-        <v>0.9729222353571616</v>
+        <v>1.180254429115132</v>
       </c>
       <c r="R13">
-        <v>1.100901245559619</v>
+        <v>1.031500539437961</v>
       </c>
       <c r="S13">
-        <v>1.076126757367156</v>
+        <v>0.9018166827532205</v>
       </c>
       <c r="T13">
-        <v>1.100901245559619</v>
+        <v>1.031500539437961</v>
       </c>
       <c r="U13">
-        <v>1.056780185647824</v>
+        <v>0.9769725446951587</v>
       </c>
       <c r="V13">
-        <v>1.045172242616224</v>
+        <v>1.022066061860321</v>
       </c>
       <c r="W13">
-        <v>1.027171928060412</v>
+        <v>0.9685581552845621</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1452,67 +1458,67 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>2.259875099999999</v>
+        <v>1.264619128261257</v>
       </c>
       <c r="D14">
-        <v>0.01572380999999999</v>
+        <v>0.7880443793347369</v>
       </c>
       <c r="E14">
-        <v>0.007481255500000003</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="F14">
-        <v>0.007481255500000003</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="G14">
-        <v>0.003976896900000002</v>
+        <v>0.8009084268064524</v>
       </c>
       <c r="H14">
-        <v>0.02686048099999998</v>
+        <v>0.8139834003677884</v>
       </c>
       <c r="I14">
-        <v>0.7211417700000006</v>
+        <v>0.9816128774728091</v>
       </c>
       <c r="J14">
-        <v>0.0006486686400000005</v>
+        <v>0.8254987582548408</v>
       </c>
       <c r="K14">
-        <v>0.007481255500000003</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="L14">
-        <v>0.0006486686400000005</v>
+        <v>0.8254987582548408</v>
       </c>
       <c r="M14">
-        <v>7.654601099999995</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="N14">
-        <v>0.007481255500000003</v>
+        <v>0.8325688200006874</v>
       </c>
       <c r="O14">
-        <v>7.654601099999995</v>
+        <v>1.984432204699188</v>
       </c>
       <c r="P14">
-        <v>3.827624884319998</v>
+        <v>1.404965481477014</v>
       </c>
       <c r="Q14">
-        <v>3.835162454999998</v>
+        <v>1.386238292016963</v>
       </c>
       <c r="R14">
-        <v>2.554243674713332</v>
+        <v>1.214166594318239</v>
       </c>
       <c r="S14">
-        <v>2.556991192879999</v>
+        <v>1.199325114096255</v>
       </c>
       <c r="T14">
-        <v>2.554243674713332</v>
+        <v>1.214166594318239</v>
       </c>
       <c r="U14">
-        <v>1.919613708534999</v>
+        <v>1.107636040572363</v>
       </c>
       <c r="V14">
-        <v>1.537187217927999</v>
+        <v>1.052622596458028</v>
       </c>
       <c r="W14">
-        <v>1.336288635254999</v>
+        <v>1.03645849939972</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1523,67 +1529,67 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.0023832002</v>
+        <v>0.9920021844042621</v>
       </c>
       <c r="D15">
-        <v>0.17902706</v>
+        <v>0.9244170059124388</v>
       </c>
       <c r="E15">
-        <v>-0.0032556798</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="F15">
-        <v>-0.0032556798</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="G15">
-        <v>2.707476</v>
+        <v>1.088278480803946</v>
       </c>
       <c r="H15">
-        <v>0.0040031707</v>
+        <v>0.9299353547439732</v>
       </c>
       <c r="I15">
-        <v>0.11108016</v>
+        <v>0.9800386619398201</v>
       </c>
       <c r="J15">
-        <v>15.308083</v>
+        <v>1.282535801387146</v>
       </c>
       <c r="K15">
-        <v>-0.0032556798</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="L15">
-        <v>15.308083</v>
+        <v>1.282535801387146</v>
       </c>
       <c r="M15">
-        <v>0.0006486686500000001</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="N15">
-        <v>-0.0032556798</v>
+        <v>0.9987404704898265</v>
       </c>
       <c r="O15">
-        <v>0.0006486686500000001</v>
+        <v>1.021427464801884</v>
       </c>
       <c r="P15">
-        <v>7.654365834325</v>
+        <v>1.151981633094515</v>
       </c>
       <c r="Q15">
-        <v>0.08983786432499999</v>
+        <v>0.9729222353571616</v>
       </c>
       <c r="R15">
-        <v>5.101825329616666</v>
+        <v>1.100901245559619</v>
       </c>
       <c r="S15">
-        <v>5.162586242883333</v>
+        <v>1.076126757367156</v>
       </c>
       <c r="T15">
-        <v>5.101825329616666</v>
+        <v>1.100901245559619</v>
       </c>
       <c r="U15">
-        <v>3.871125762212499</v>
+        <v>1.056780185647824</v>
       </c>
       <c r="V15">
-        <v>3.096249473809999</v>
+        <v>1.045172242616224</v>
       </c>
       <c r="W15">
-        <v>2.28868069746875</v>
+        <v>1.027171928060412</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1594,67 +1600,67 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>2.2598751</v>
+        <v>2.259875099999999</v>
       </c>
       <c r="D16">
-        <v>0.01572381</v>
+        <v>0.01572380999999999</v>
       </c>
       <c r="E16">
-        <v>0.007481255500000001</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="F16">
-        <v>0.007481255500000001</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="G16">
-        <v>0.0039768969</v>
+        <v>0.003976896900000002</v>
       </c>
       <c r="H16">
-        <v>0.026860481</v>
+        <v>0.02686048099999998</v>
       </c>
       <c r="I16">
-        <v>0.72114177</v>
+        <v>0.7211417700000006</v>
       </c>
       <c r="J16">
-        <v>0.0006486686500000001</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="K16">
-        <v>0.007481255500000001</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="L16">
-        <v>0.0006486686500000001</v>
+        <v>0.0006486686400000005</v>
       </c>
       <c r="M16">
-        <v>7.6546011</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="N16">
-        <v>0.007481255500000001</v>
+        <v>0.007481255500000003</v>
       </c>
       <c r="O16">
-        <v>7.6546011</v>
+        <v>7.654601099999995</v>
       </c>
       <c r="P16">
-        <v>3.827624884325</v>
+        <v>3.827624884319998</v>
       </c>
       <c r="Q16">
-        <v>3.835162455</v>
+        <v>3.835162454999998</v>
       </c>
       <c r="R16">
-        <v>2.554243674716667</v>
+        <v>2.554243674713332</v>
       </c>
       <c r="S16">
-        <v>2.556991192883333</v>
+        <v>2.556991192879999</v>
       </c>
       <c r="T16">
-        <v>2.554243674716667</v>
+        <v>2.554243674713332</v>
       </c>
       <c r="U16">
-        <v>1.9196137085375</v>
+        <v>1.919613708534999</v>
       </c>
       <c r="V16">
-        <v>1.53718721793</v>
+        <v>1.537187217927999</v>
       </c>
       <c r="W16">
-        <v>1.33628863525625</v>
+        <v>1.336288635254999</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1665,67 +1671,67 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.0047085495</v>
+        <v>0.0023832002</v>
       </c>
       <c r="D17">
-        <v>0.83222116</v>
+        <v>0.17902706</v>
       </c>
       <c r="E17">
-        <v>-0.00025174827</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="F17">
-        <v>-0.00025174827</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="G17">
-        <v>2.997199</v>
+        <v>2.707476</v>
       </c>
       <c r="H17">
-        <v>0.055071072</v>
+        <v>0.0040031707</v>
       </c>
       <c r="I17">
-        <v>1.5271956</v>
+        <v>0.11108016</v>
       </c>
       <c r="J17">
-        <v>3.2106912</v>
+        <v>15.308083</v>
       </c>
       <c r="K17">
-        <v>-0.00025174827</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="L17">
-        <v>3.2106912</v>
+        <v>15.308083</v>
       </c>
       <c r="M17">
-        <v>0.014617195</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="N17">
-        <v>-0.00025174827</v>
+        <v>-0.0032556798</v>
       </c>
       <c r="O17">
-        <v>0.014617195</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="P17">
-        <v>1.6126541975</v>
+        <v>7.654365834325</v>
       </c>
       <c r="Q17">
-        <v>0.4234191775</v>
+        <v>0.08983786432499999</v>
       </c>
       <c r="R17">
-        <v>1.075018882243333</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="S17">
-        <v>1.352509851666667</v>
+        <v>5.162586242883333</v>
       </c>
       <c r="T17">
-        <v>1.075018882243333</v>
+        <v>5.101825329616666</v>
       </c>
       <c r="U17">
-        <v>1.0143194516825</v>
+        <v>3.871125762212499</v>
       </c>
       <c r="V17">
-        <v>0.8114052116919999</v>
+        <v>3.096249473809999</v>
       </c>
       <c r="W17">
-        <v>1.08018150352875</v>
+        <v>2.28868069746875</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1736,67 +1742,67 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.042512342456439</v>
+        <v>2.2598751</v>
       </c>
       <c r="D18">
-        <v>0.9271429947397259</v>
+        <v>0.01572381</v>
       </c>
       <c r="E18">
-        <v>2.677525327745206</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="F18">
-        <v>2.677525327745206</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="G18">
-        <v>1.090066656140822</v>
+        <v>0.0039768969</v>
       </c>
       <c r="H18">
-        <v>1.148466118401369</v>
+        <v>0.026860481</v>
       </c>
       <c r="I18">
-        <v>0.2572346884498629</v>
+        <v>0.72114177</v>
       </c>
       <c r="J18">
-        <v>1.995201695223288</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="K18">
-        <v>2.677525327745206</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="L18">
-        <v>1.995201695223288</v>
+        <v>0.0006486686500000001</v>
       </c>
       <c r="M18">
-        <v>0.8998707548821646</v>
+        <v>7.6546011</v>
       </c>
       <c r="N18">
-        <v>2.677525327745206</v>
+        <v>0.007481255500000001</v>
       </c>
       <c r="O18">
-        <v>0.8998707548821646</v>
+        <v>7.6546011</v>
       </c>
       <c r="P18">
-        <v>1.447536225052726</v>
+        <v>3.827624884325</v>
       </c>
       <c r="Q18">
-        <v>0.9135068748109453</v>
+        <v>3.835162455</v>
       </c>
       <c r="R18">
-        <v>1.857532592616886</v>
+        <v>2.554243674716667</v>
       </c>
       <c r="S18">
-        <v>1.274071814948393</v>
+        <v>2.556991192883333</v>
       </c>
       <c r="T18">
-        <v>1.857532592616886</v>
+        <v>2.554243674716667</v>
       </c>
       <c r="U18">
-        <v>1.624935193147596</v>
+        <v>1.9196137085375</v>
       </c>
       <c r="V18">
-        <v>1.835453220067118</v>
+        <v>1.53718721793</v>
       </c>
       <c r="W18">
-        <v>1.25475257225486</v>
+        <v>1.33628863525625</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1807,67 +1813,67 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.6282955952726313</v>
+        <v>0.0047085495</v>
       </c>
       <c r="D19">
-        <v>0.409366587368421</v>
+        <v>0.83222116</v>
       </c>
       <c r="E19">
-        <v>0.001638627301052632</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="F19">
-        <v>0.001638627301052632</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="G19">
-        <v>1.467926027147368</v>
+        <v>2.997199</v>
       </c>
       <c r="H19">
-        <v>0.06229593718947368</v>
+        <v>0.055071072</v>
       </c>
       <c r="I19">
-        <v>1.765329211578947</v>
+        <v>1.5271956</v>
       </c>
       <c r="J19">
-        <v>3.430424519099474</v>
+        <v>3.2106912</v>
       </c>
       <c r="K19">
-        <v>0.001638627301052632</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="L19">
-        <v>3.430424519099474</v>
+        <v>3.2106912</v>
       </c>
       <c r="M19">
-        <v>2.11789531256321</v>
+        <v>0.014617195</v>
       </c>
       <c r="N19">
-        <v>0.001638627301052632</v>
+        <v>-0.00025174827</v>
       </c>
       <c r="O19">
-        <v>2.11789531256321</v>
+        <v>0.014617195</v>
       </c>
       <c r="P19">
-        <v>2.774159915831342</v>
+        <v>1.6126541975</v>
       </c>
       <c r="Q19">
-        <v>1.263630949965816</v>
+        <v>0.4234191775</v>
       </c>
       <c r="R19">
-        <v>1.849986152987912</v>
+        <v>1.075018882243333</v>
       </c>
       <c r="S19">
-        <v>1.985895473010369</v>
+        <v>1.352509851666667</v>
       </c>
       <c r="T19">
-        <v>1.849986152987912</v>
+        <v>1.075018882243333</v>
       </c>
       <c r="U19">
-        <v>1.489831261583039</v>
+        <v>1.0143194516825</v>
       </c>
       <c r="V19">
-        <v>1.192192734726642</v>
+        <v>0.8114052116919999</v>
       </c>
       <c r="W19">
-        <v>1.235396477190072</v>
+        <v>1.08018150352875</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1878,67 +1884,67 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>1.060862294730526</v>
+        <v>1.042512342456439</v>
       </c>
       <c r="D20">
-        <v>0.8933146486315789</v>
+        <v>0.9271429947397259</v>
       </c>
       <c r="E20">
-        <v>2.571987575744737</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="F20">
-        <v>2.571987575744737</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="G20">
-        <v>1.082767048579474</v>
+        <v>1.090066656140822</v>
       </c>
       <c r="H20">
-        <v>1.103891457578947</v>
+        <v>1.148466118401369</v>
       </c>
       <c r="I20">
-        <v>0.267519683641579</v>
+        <v>0.2572346884498629</v>
       </c>
       <c r="J20">
-        <v>2.117882948531579</v>
+        <v>1.995201695223288</v>
       </c>
       <c r="K20">
-        <v>2.571987575744737</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="L20">
-        <v>2.117882948531579</v>
+        <v>1.995201695223288</v>
       </c>
       <c r="M20">
-        <v>1.065794947040158</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="N20">
-        <v>2.571987575744737</v>
+        <v>2.677525327745206</v>
       </c>
       <c r="O20">
-        <v>1.065794947040158</v>
+        <v>0.8998707548821646</v>
       </c>
       <c r="P20">
-        <v>1.591838947785869</v>
+        <v>1.447536225052726</v>
       </c>
       <c r="Q20">
-        <v>0.9795547978358685</v>
+        <v>0.9135068748109453</v>
       </c>
       <c r="R20">
-        <v>1.918555157105492</v>
+        <v>1.857532592616886</v>
       </c>
       <c r="S20">
-        <v>1.358997514734439</v>
+        <v>1.274071814948393</v>
       </c>
       <c r="T20">
-        <v>1.918555157105491</v>
+        <v>1.857532592616886</v>
       </c>
       <c r="U20">
-        <v>1.662245029987013</v>
+        <v>1.624935193147596</v>
       </c>
       <c r="V20">
-        <v>1.844193539138558</v>
+        <v>1.835453220067118</v>
       </c>
       <c r="W20">
-        <v>1.270502575559822</v>
+        <v>1.25475257225486</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1949,67 +1955,67 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.02136135548971019</v>
+        <v>0.6282955952726313</v>
       </c>
       <c r="D21">
-        <v>1.303541453734514</v>
+        <v>0.409366587368421</v>
       </c>
       <c r="E21">
-        <v>0.000597170477148993</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="F21">
-        <v>0.000597170477148993</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="G21">
-        <v>3.039243718857056</v>
+        <v>1.467926027147368</v>
       </c>
       <c r="H21">
-        <v>0.209749771944535</v>
+        <v>0.06229593718947368</v>
       </c>
       <c r="I21">
-        <v>1.119530140244971</v>
+        <v>1.765329211578947</v>
       </c>
       <c r="J21">
-        <v>4.958971238726512</v>
+        <v>3.430424519099474</v>
       </c>
       <c r="K21">
-        <v>0.0005971704771488298</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="L21">
-        <v>4.958971238726512</v>
+        <v>3.430424519099474</v>
       </c>
       <c r="M21">
-        <v>0.04487560622477388</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="N21">
-        <v>0.000597170477148993</v>
+        <v>0.001638627301052632</v>
       </c>
       <c r="O21">
-        <v>0.04487560622477388</v>
+        <v>2.11789531256321</v>
       </c>
       <c r="P21">
-        <v>2.501923422475643</v>
+        <v>2.774159915831342</v>
       </c>
       <c r="Q21">
-        <v>0.6742085299796442</v>
+        <v>1.263630949965816</v>
       </c>
       <c r="R21">
-        <v>1.668148005142812</v>
+        <v>1.849986152987912</v>
       </c>
       <c r="S21">
-        <v>2.1024627662286</v>
+        <v>1.985895473010369</v>
       </c>
       <c r="T21">
-        <v>1.668148005142812</v>
+        <v>1.849986152987912</v>
       </c>
       <c r="U21">
-        <v>1.576996367290737</v>
+        <v>1.489831261583039</v>
       </c>
       <c r="V21">
-        <v>1.26171652792802</v>
+        <v>1.192192734726642</v>
       </c>
       <c r="W21">
-        <v>1.337233806962403</v>
+        <v>1.235396477190072</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2020,67 +2026,67 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.4656452557518345</v>
+        <v>1.060862294730526</v>
       </c>
       <c r="D22">
-        <v>1.558745773631856</v>
+        <v>0.8933146486315789</v>
       </c>
       <c r="E22">
-        <v>0.07790154559647507</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="F22">
-        <v>0.07790154559647507</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="G22">
-        <v>1.417300467248981</v>
+        <v>1.082767048579474</v>
       </c>
       <c r="H22">
-        <v>1.040952454476435</v>
+        <v>1.103891457578947</v>
       </c>
       <c r="I22">
-        <v>1.512386817447693</v>
+        <v>0.267519683641579</v>
       </c>
       <c r="J22">
-        <v>0.6311671708583744</v>
+        <v>2.117882948531579</v>
       </c>
       <c r="K22">
-        <v>0.07790154559647507</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="L22">
-        <v>0.6311671708583744</v>
+        <v>2.117882948531579</v>
       </c>
       <c r="M22">
-        <v>0.6324805986825459</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="N22">
-        <v>0.07790154559647507</v>
+        <v>2.571987575744737</v>
       </c>
       <c r="O22">
-        <v>0.6324805986825459</v>
+        <v>1.065794947040158</v>
       </c>
       <c r="P22">
-        <v>0.6318238847704601</v>
+        <v>1.591838947785869</v>
       </c>
       <c r="Q22">
-        <v>1.095613186157201</v>
+        <v>0.9795547978358685</v>
       </c>
       <c r="R22">
-        <v>0.4471831050457984</v>
+        <v>1.918555157105492</v>
       </c>
       <c r="S22">
-        <v>0.9407978477242587</v>
+        <v>1.358997514734439</v>
       </c>
       <c r="T22">
-        <v>0.4471831050457984</v>
+        <v>1.918555157105491</v>
       </c>
       <c r="U22">
-        <v>0.7250737721923127</v>
+        <v>1.662245029987013</v>
       </c>
       <c r="V22">
-        <v>0.5956393268731451</v>
+        <v>1.844193539138558</v>
       </c>
       <c r="W22">
-        <v>0.9170725104617743</v>
+        <v>1.270502575559822</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2091,67 +2097,67 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.7944825319457682</v>
+        <v>0.02136135548971019</v>
       </c>
       <c r="D23">
-        <v>1.369369559480381</v>
+        <v>1.303541453734514</v>
       </c>
       <c r="E23">
-        <v>0.6839215333004276</v>
+        <v>0.000597170477148993</v>
       </c>
       <c r="F23">
-        <v>0.6839215333004276</v>
+        <v>0.000597170477148993</v>
       </c>
       <c r="G23">
-        <v>1.066947658021112</v>
+        <v>3.039243718857056</v>
       </c>
       <c r="H23">
-        <v>1.351068282767972</v>
+        <v>0.209749771944535</v>
       </c>
       <c r="I23">
-        <v>1.052140554690341</v>
+        <v>1.119530140244971</v>
       </c>
       <c r="J23">
-        <v>0.3218313991703864</v>
+        <v>4.958971238726512</v>
       </c>
       <c r="K23">
-        <v>0.6839215333004276</v>
+        <v>0.0005971704771488298</v>
       </c>
       <c r="L23">
-        <v>0.3218313991703864</v>
+        <v>4.958971238726512</v>
       </c>
       <c r="M23">
-        <v>0.4737304055118667</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="N23">
-        <v>0.6839215333004276</v>
+        <v>0.000597170477148993</v>
       </c>
       <c r="O23">
-        <v>0.4737304055118667</v>
+        <v>0.04487560622477388</v>
       </c>
       <c r="P23">
-        <v>0.3977809023411265</v>
+        <v>2.501923422475643</v>
       </c>
       <c r="Q23">
-        <v>0.9215499824961236</v>
+        <v>0.6742085299796442</v>
       </c>
       <c r="R23">
-        <v>0.4931611126608935</v>
+        <v>1.668148005142812</v>
       </c>
       <c r="S23">
-        <v>0.7216437880542111</v>
+        <v>2.1024627662286</v>
       </c>
       <c r="T23">
-        <v>0.4931611126608936</v>
+        <v>1.668148005142812</v>
       </c>
       <c r="U23">
-        <v>0.7122132243657653</v>
+        <v>1.576996367290737</v>
       </c>
       <c r="V23">
-        <v>0.7065548861526978</v>
+        <v>1.26171652792802</v>
       </c>
       <c r="W23">
-        <v>0.8891864906110317</v>
+        <v>1.337233806962403</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2162,67 +2168,67 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>1.223465880021654</v>
+        <v>0.4656452557518345</v>
       </c>
       <c r="D24">
-        <v>0.4599217185580263</v>
+        <v>1.558745773631856</v>
       </c>
       <c r="E24">
-        <v>1.5747027242848</v>
+        <v>0.07790154559647507</v>
       </c>
       <c r="F24">
-        <v>1.5747027242848</v>
+        <v>0.07790154559647507</v>
       </c>
       <c r="G24">
-        <v>0.9419378417876704</v>
+        <v>1.417300467248981</v>
       </c>
       <c r="H24">
-        <v>0.4915436637177757</v>
+        <v>1.040952454476435</v>
       </c>
       <c r="I24">
-        <v>1.006071256734195</v>
+        <v>1.512386817447693</v>
       </c>
       <c r="J24">
-        <v>1.713282696435615</v>
+        <v>0.6311671708583744</v>
       </c>
       <c r="K24">
-        <v>1.5747027242848</v>
+        <v>0.07790154559647507</v>
       </c>
       <c r="L24">
-        <v>1.713282696435615</v>
+        <v>0.6311671708583744</v>
       </c>
       <c r="M24">
-        <v>1.552298692499595</v>
+        <v>0.6324805986825459</v>
       </c>
       <c r="N24">
-        <v>1.5747027242848</v>
+        <v>0.07790154559647507</v>
       </c>
       <c r="O24">
-        <v>1.552298692499595</v>
+        <v>0.6324805986825459</v>
       </c>
       <c r="P24">
-        <v>1.632790694467605</v>
+        <v>0.6318238847704601</v>
       </c>
       <c r="Q24">
-        <v>1.006110205528811</v>
+        <v>1.095613186157201</v>
       </c>
       <c r="R24">
-        <v>1.613428037740003</v>
+        <v>0.4471831050457984</v>
       </c>
       <c r="S24">
-        <v>1.241834369164412</v>
+        <v>0.9407978477242587</v>
       </c>
       <c r="T24">
-        <v>1.613428037740003</v>
+        <v>0.4471831050457984</v>
       </c>
       <c r="U24">
-        <v>1.325051457944509</v>
+        <v>0.7250737721923127</v>
       </c>
       <c r="V24">
-        <v>1.374981711212567</v>
+        <v>0.5956393268731451</v>
       </c>
       <c r="W24">
-        <v>1.120403059254917</v>
+        <v>0.9170725104617743</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2233,67 +2239,67 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>1.30483975668002</v>
+        <v>0.7944825319457682</v>
       </c>
       <c r="D25">
-        <v>0.2799448013103057</v>
+        <v>1.369369559480381</v>
       </c>
       <c r="E25">
-        <v>4.102775723979869</v>
+        <v>0.6839215333004276</v>
       </c>
       <c r="F25">
-        <v>4.102775723979869</v>
+        <v>0.6839215333004276</v>
       </c>
       <c r="G25">
-        <v>0.0145644503045382</v>
+        <v>1.066947658021112</v>
       </c>
       <c r="H25">
-        <v>1.832888417990372</v>
+        <v>1.351068282767972</v>
       </c>
       <c r="I25">
-        <v>0.02674347961049349</v>
+        <v>1.052140554690341</v>
       </c>
       <c r="J25">
-        <v>-3.794840885238102E-05</v>
+        <v>0.3218313991703864</v>
       </c>
       <c r="K25">
-        <v>4.102775723979869</v>
+        <v>0.6839215333004276</v>
       </c>
       <c r="L25">
-        <v>-3.794840885238102E-05</v>
+        <v>0.3218313991703864</v>
       </c>
       <c r="M25">
-        <v>0.1130292872609318</v>
+        <v>0.4737304055118667</v>
       </c>
       <c r="N25">
-        <v>4.102775723979869</v>
+        <v>0.6839215333004276</v>
       </c>
       <c r="O25">
-        <v>0.1130292872609318</v>
+        <v>0.4737304055118667</v>
       </c>
       <c r="P25">
-        <v>0.0564956694260397</v>
+        <v>0.3977809023411265</v>
       </c>
       <c r="Q25">
-        <v>0.1964870442856188</v>
+        <v>0.9215499824961236</v>
       </c>
       <c r="R25">
-        <v>1.40525568761065</v>
+        <v>0.4931611126608935</v>
       </c>
       <c r="S25">
-        <v>0.1309787133874617</v>
+        <v>0.7216437880542111</v>
       </c>
       <c r="T25">
-        <v>1.405255687610649</v>
+        <v>0.4931611126608936</v>
       </c>
       <c r="U25">
-        <v>1.123927966035563</v>
+        <v>0.7122132243657653</v>
       </c>
       <c r="V25">
-        <v>1.719697517624424</v>
+        <v>0.7065548861526978</v>
       </c>
       <c r="W25">
-        <v>0.9593434960909597</v>
+        <v>0.8891864906110317</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2304,67 +2310,67 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>1.555216186056963</v>
+        <v>1.223465880021654</v>
       </c>
       <c r="D26">
-        <v>1.334586878254151</v>
+        <v>0.4599217185580263</v>
       </c>
       <c r="E26">
-        <v>0.1235815129862915</v>
+        <v>1.5747027242848</v>
       </c>
       <c r="F26">
-        <v>0.1235815129862915</v>
+        <v>1.5747027242848</v>
       </c>
       <c r="G26">
-        <v>0.4009445053902191</v>
+        <v>0.9419378417876704</v>
       </c>
       <c r="H26">
-        <v>1.369242230548035</v>
+        <v>0.4915436637177757</v>
       </c>
       <c r="I26">
-        <v>0.7571895833776304</v>
+        <v>1.006071256734195</v>
       </c>
       <c r="J26">
-        <v>0.01444413321375922</v>
+        <v>1.713282696435615</v>
       </c>
       <c r="K26">
-        <v>0.1235815129862915</v>
+        <v>1.5747027242848</v>
       </c>
       <c r="L26">
-        <v>0.01444413321375922</v>
+        <v>1.713282696435615</v>
       </c>
       <c r="M26">
-        <v>1.486216094593838</v>
+        <v>1.552298692499595</v>
       </c>
       <c r="N26">
-        <v>0.1235815129862915</v>
+        <v>1.5747027242848</v>
       </c>
       <c r="O26">
-        <v>1.486216094593838</v>
+        <v>1.552298692499595</v>
       </c>
       <c r="P26">
-        <v>0.7503301139037987</v>
+        <v>1.632790694467605</v>
       </c>
       <c r="Q26">
-        <v>1.410401486423994</v>
+        <v>1.006110205528811</v>
       </c>
       <c r="R26">
-        <v>0.541413913597963</v>
+        <v>1.613428037740003</v>
       </c>
       <c r="S26">
-        <v>0.9450823686872493</v>
+        <v>1.241834369164412</v>
       </c>
       <c r="T26">
-        <v>0.541413913597963</v>
+        <v>1.613428037740003</v>
       </c>
       <c r="U26">
-        <v>0.7397071547620099</v>
+        <v>1.325051457944509</v>
       </c>
       <c r="V26">
-        <v>0.6164820264068662</v>
+        <v>1.374981711212567</v>
       </c>
       <c r="W26">
-        <v>0.8801776405526108</v>
+        <v>1.120403059254917</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2375,67 +2381,67 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>1.159267900594497</v>
+        <v>1.30483975668002</v>
       </c>
       <c r="D27">
-        <v>1.308091191695438</v>
+        <v>0.2799448013103057</v>
       </c>
       <c r="E27">
-        <v>1.278573822860358</v>
+        <v>4.102775723979869</v>
       </c>
       <c r="F27">
-        <v>1.278573822860358</v>
+        <v>4.102775723979869</v>
       </c>
       <c r="G27">
-        <v>1.078726562257447</v>
+        <v>0.0145644503045382</v>
       </c>
       <c r="H27">
-        <v>1.078041048207918</v>
+        <v>1.832888417990372</v>
       </c>
       <c r="I27">
-        <v>0.8755121484290266</v>
+        <v>0.02674347961049349</v>
       </c>
       <c r="J27">
-        <v>0.5824804053470186</v>
+        <v>-3.794840885238102E-05</v>
       </c>
       <c r="K27">
-        <v>1.278573822860358</v>
+        <v>4.102775723979869</v>
       </c>
       <c r="L27">
-        <v>0.5824804053470186</v>
+        <v>-3.794840885238102E-05</v>
       </c>
       <c r="M27">
-        <v>1.038270028101423</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="N27">
-        <v>1.278573822860358</v>
+        <v>4.102775723979869</v>
       </c>
       <c r="O27">
-        <v>1.038270028101423</v>
+        <v>0.1130292872609318</v>
       </c>
       <c r="P27">
-        <v>0.8103752167242209</v>
+        <v>0.0564956694260397</v>
       </c>
       <c r="Q27">
-        <v>1.17318060989843</v>
+        <v>0.1964870442856188</v>
       </c>
       <c r="R27">
-        <v>0.9664414187696</v>
+        <v>1.40525568761065</v>
       </c>
       <c r="S27">
-        <v>0.9762805417146264</v>
+        <v>0.1309787133874617</v>
       </c>
       <c r="T27">
-        <v>0.9664414187696</v>
+        <v>1.405255687610649</v>
       </c>
       <c r="U27">
-        <v>1.051853862001059</v>
+        <v>1.123927966035563</v>
       </c>
       <c r="V27">
-        <v>1.097197854172919</v>
+        <v>1.719697517624424</v>
       </c>
       <c r="W27">
-        <v>1.049870388436641</v>
+        <v>0.9593434960909597</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2446,67 +2452,67 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>0.9599775274454075</v>
+        <v>1.555216186056963</v>
       </c>
       <c r="D28">
-        <v>1.471551734717232</v>
+        <v>1.334586878254151</v>
       </c>
       <c r="E28">
-        <v>1.443273768995353</v>
+        <v>0.1235815129862915</v>
       </c>
       <c r="F28">
-        <v>1.443273768995353</v>
+        <v>0.1235815129862915</v>
       </c>
       <c r="G28">
-        <v>1.301314506408274</v>
+        <v>0.4009445053902191</v>
       </c>
       <c r="H28">
-        <v>1.142809982904686</v>
+        <v>1.369242230548035</v>
       </c>
       <c r="I28">
-        <v>0.5414505023539928</v>
+        <v>0.7571895833776304</v>
       </c>
       <c r="J28">
-        <v>1.174775856830051</v>
+        <v>0.01444413321375922</v>
       </c>
       <c r="K28">
-        <v>1.443273768995353</v>
+        <v>0.1235815129862915</v>
       </c>
       <c r="L28">
-        <v>1.174775856830051</v>
+        <v>0.01444413321375922</v>
       </c>
       <c r="M28">
-        <v>0.9661390706272134</v>
+        <v>1.486216094593838</v>
       </c>
       <c r="N28">
-        <v>1.443273768995353</v>
+        <v>0.1235815129862915</v>
       </c>
       <c r="O28">
-        <v>0.9661390706272134</v>
+        <v>1.486216094593838</v>
       </c>
       <c r="P28">
-        <v>1.070457463728632</v>
+        <v>0.7503301139037987</v>
       </c>
       <c r="Q28">
-        <v>1.218845402672223</v>
+        <v>1.410401486423994</v>
       </c>
       <c r="R28">
-        <v>1.194729565484206</v>
+        <v>0.541413913597963</v>
       </c>
       <c r="S28">
-        <v>1.204155554058165</v>
+        <v>0.9450823686872493</v>
       </c>
       <c r="T28">
-        <v>1.194729565484206</v>
+        <v>0.541413913597963</v>
       </c>
       <c r="U28">
-        <v>1.263935107792463</v>
+        <v>0.7397071547620099</v>
       </c>
       <c r="V28">
-        <v>1.299802840033041</v>
+        <v>0.6164820264068662</v>
       </c>
       <c r="W28">
-        <v>1.125161618785276</v>
+        <v>0.8801776405526108</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2517,66 +2523,208 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>1.159267900594497</v>
+      </c>
+      <c r="D29">
+        <v>1.308091191695438</v>
+      </c>
+      <c r="E29">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="F29">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="G29">
+        <v>1.078726562257447</v>
+      </c>
+      <c r="H29">
+        <v>1.078041048207918</v>
+      </c>
+      <c r="I29">
+        <v>0.8755121484290266</v>
+      </c>
+      <c r="J29">
+        <v>0.5824804053470186</v>
+      </c>
+      <c r="K29">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="L29">
+        <v>0.5824804053470186</v>
+      </c>
+      <c r="M29">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="N29">
+        <v>1.278573822860358</v>
+      </c>
+      <c r="O29">
+        <v>1.038270028101423</v>
+      </c>
+      <c r="P29">
+        <v>0.8103752167242209</v>
+      </c>
+      <c r="Q29">
+        <v>1.17318060989843</v>
+      </c>
+      <c r="R29">
+        <v>0.9664414187696</v>
+      </c>
+      <c r="S29">
+        <v>0.9762805417146264</v>
+      </c>
+      <c r="T29">
+        <v>0.9664414187696</v>
+      </c>
+      <c r="U29">
+        <v>1.051853862001059</v>
+      </c>
+      <c r="V29">
+        <v>1.097197854172919</v>
+      </c>
+      <c r="W29">
+        <v>1.049870388436641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9599775274454075</v>
+      </c>
+      <c r="D30">
+        <v>1.471551734717232</v>
+      </c>
+      <c r="E30">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="F30">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="G30">
+        <v>1.301314506408274</v>
+      </c>
+      <c r="H30">
+        <v>1.142809982904686</v>
+      </c>
+      <c r="I30">
+        <v>0.5414505023539928</v>
+      </c>
+      <c r="J30">
+        <v>1.174775856830051</v>
+      </c>
+      <c r="K30">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="L30">
+        <v>1.174775856830051</v>
+      </c>
+      <c r="M30">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="N30">
+        <v>1.443273768995353</v>
+      </c>
+      <c r="O30">
+        <v>0.9661390706272134</v>
+      </c>
+      <c r="P30">
+        <v>1.070457463728632</v>
+      </c>
+      <c r="Q30">
+        <v>1.218845402672223</v>
+      </c>
+      <c r="R30">
+        <v>1.194729565484206</v>
+      </c>
+      <c r="S30">
+        <v>1.204155554058165</v>
+      </c>
+      <c r="T30">
+        <v>1.194729565484206</v>
+      </c>
+      <c r="U30">
+        <v>1.263935107792463</v>
+      </c>
+      <c r="V30">
+        <v>1.299802840033041</v>
+      </c>
+      <c r="W30">
+        <v>1.125161618785276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>0.9605069942080187</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>1.03921905712646</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>2.424300463459785</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>2.424300463459785</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>1.474141525781431</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>0.6120453984500327</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.4431983086753022</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>2.28730743657002</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>2.424300463459785</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>2.28730743657002</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.292672764417832</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>2.424300463459785</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.292672764417832</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.789990100493926</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.165945910772146</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>2.001426888149213</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.539733086038104</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>2.001426888149213</v>
       </c>
-      <c r="U29">
+      <c r="U31">
         <v>1.760874930393524</v>
       </c>
-      <c r="V29">
+      <c r="V31">
         <v>1.893560037006777</v>
       </c>
-      <c r="W29">
+      <c r="W31">
         <v>1.31667399358611</v>
       </c>
     </row>
